--- a/striver-a2z-sheet.xlsx
+++ b/striver-a2z-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code\striver-a2z-workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8410DE5-B169-427C-92AA-8BAF24199748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBB2F6B-C503-4018-87FB-6BB96EC8659A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
   <si>
     <t>S.no</t>
   </si>
@@ -82,6 +82,33 @@
   </si>
   <si>
     <t>CN</t>
+  </si>
+  <si>
+    <t>Move all Zeros to the end of the array</t>
+  </si>
+  <si>
+    <t>Union of Two Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Count Maximum Consecutive One’s in the array</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>Find the number that appears once, and the other numbers twice</t>
+  </si>
+  <si>
+    <t>Longest Subarray with given Sum K(Positives)</t>
+  </si>
+  <si>
+    <t>V Imp</t>
+  </si>
+  <si>
+    <t>24-12-2023</t>
+  </si>
+  <si>
+    <t>Longest Subarray with sum K | [Postives and Negatives]</t>
   </si>
 </sst>
 </file>
@@ -120,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -157,6 +184,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -186,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -196,6 +229,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -480,13 +514,13 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -631,71 +665,133 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
@@ -784,8 +880,14 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{61EA6706-98A1-4D03-A35E-97CEEC978AD3}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{9435CBED-8D1C-4554-B996-35956F7E5F80}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{BB49DE46-90E6-4BC4-ADAB-23E817B1BB7B}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{359C4EEF-DB6B-421C-A11D-E5A9A018B9D0}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{4F11D0C3-FA98-4B5D-8074-E87706337F1B}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{263111F9-C9D9-4ACF-8D58-8923D8666303}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{CC26400E-7BF1-464B-876D-8E0897EF486F}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{CE77EE96-F377-422D-8CB7-C28E2BADA536}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{93C6A76E-2C71-45F7-9056-0713FF63374D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/striver-a2z-sheet.xlsx
+++ b/striver-a2z-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code\striver-a2z-workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBB2F6B-C503-4018-87FB-6BB96EC8659A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE70143-5BAE-48D3-A4CC-FA408FC25B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
   <si>
     <t>S.no</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t>Longest Subarray with sum K | [Postives and Negatives]</t>
+  </si>
+  <si>
+    <t>Check if array is sorted and rotated</t>
   </si>
 </sst>
 </file>
@@ -514,7 +517,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,14 +797,26 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -886,8 +901,9 @@
     <hyperlink ref="B10" r:id="rId9" xr:uid="{CC26400E-7BF1-464B-876D-8E0897EF486F}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{CE77EE96-F377-422D-8CB7-C28E2BADA536}"/>
     <hyperlink ref="B12" r:id="rId11" xr:uid="{93C6A76E-2C71-45F7-9056-0713FF63374D}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{57AD58E1-B9CE-41B6-93C6-23239BD69BF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
--- a/striver-a2z-sheet.xlsx
+++ b/striver-a2z-sheet.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code\striver-a2z-workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE70143-5BAE-48D3-A4CC-FA408FC25B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78E6360-3A75-4053-8E31-0447C899AA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-Easy" sheetId="1" r:id="rId1"/>
+    <sheet name="Arrays-Medium" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="41">
   <si>
     <t>S.no</t>
   </si>
@@ -112,6 +113,42 @@
   </si>
   <si>
     <t>Check if array is sorted and rotated</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>25-12-2023</t>
+  </si>
+  <si>
+    <t>Sort an array of 0s, 1s and 2s</t>
+  </si>
+  <si>
+    <t>DNF Algo</t>
+  </si>
+  <si>
+    <t>Don't do using 3 variable</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Find the Majority Element that occurs more than N/2 times</t>
+  </si>
+  <si>
+    <t>Kadane’s Algorithm : Maximum Subarray Sum in an Array</t>
+  </si>
+  <si>
+    <t>26-12-2023</t>
+  </si>
+  <si>
+    <t>Print The Maximum Subarray Sum</t>
+  </si>
+  <si>
+    <t>eclipse</t>
+  </si>
+  <si>
+    <t>Stock Buy And Sell</t>
   </si>
 </sst>
 </file>
@@ -222,7 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -233,6 +270,8 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -516,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,7 +795,7 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2"/>
@@ -906,4 +945,244 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E5AF8F-8D3A-420E-A423-57198BC56D6F}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{42CBFF54-7E7A-4ED2-9E0D-C1444216BBCF}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{E0C576B3-5AFE-404F-92CD-32F27CAE59DF}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{18240C7D-6C65-4EF5-8890-EB9CB8BDE28F}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{7B01C5DD-A5A4-4E23-B8CC-105B5A593179}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{247FACF7-C611-489F-8EE7-27D612476244}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{2198F3DC-A2C2-4ADC-8FD6-98A5BF4C7B1E}"/>
+    <hyperlink ref="B7" r:id="rId7" xr:uid="{23884186-7B4C-40C1-80E9-D50F613A155B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
 </file>
--- a/striver-a2z-sheet.xlsx
+++ b/striver-a2z-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code\striver-a2z-workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78E6360-3A75-4053-8E31-0447C899AA12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0F49DD-47BE-4D06-BC87-EA02D0304EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
   <si>
     <t>S.no</t>
   </si>
@@ -149,6 +149,45 @@
   </si>
   <si>
     <t>Stock Buy And Sell</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>28-12-2023</t>
+  </si>
+  <si>
+    <t>video</t>
+  </si>
+  <si>
+    <t>Leaders in an Array</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence in an Array</t>
+  </si>
+  <si>
+    <t>29-12-2023</t>
+  </si>
+  <si>
+    <t>Set Matrix Zeros</t>
+  </si>
+  <si>
+    <t>Spiral Matrix</t>
+  </si>
+  <si>
+    <t>30-12-2023</t>
+  </si>
+  <si>
+    <t>Count Subarray Sum Equals K</t>
+  </si>
+  <si>
+    <t>Rotate Image by 90 degree</t>
+  </si>
+  <si>
+    <t>only need to make item replacement smooth around 4 corners</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
@@ -231,7 +270,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -254,12 +293,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -271,7 +323,22 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -556,7 +623,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +888,9 @@
         <v>27</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
@@ -949,15 +1018,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E5AF8F-8D3A-420E-A423-57198BC56D6F}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="18"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
@@ -972,7 +1042,7 @@
       <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -999,7 +1069,7 @@
         <v>29</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="16"/>
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
@@ -1024,7 +1094,9 @@
       <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
@@ -1037,7 +1109,7 @@
       <c r="H3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1049,7 +1121,7 @@
         <v>35</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
@@ -1072,7 +1144,7 @@
         <v>36</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
@@ -1095,7 +1167,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
@@ -1118,7 +1190,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
@@ -1137,40 +1209,170 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1181,8 +1383,16 @@
     <hyperlink ref="B5" r:id="rId5" xr:uid="{247FACF7-C611-489F-8EE7-27D612476244}"/>
     <hyperlink ref="B6" r:id="rId6" xr:uid="{2198F3DC-A2C2-4ADC-8FD6-98A5BF4C7B1E}"/>
     <hyperlink ref="B7" r:id="rId7" xr:uid="{23884186-7B4C-40C1-80E9-D50F613A155B}"/>
+    <hyperlink ref="B8" r:id="rId8" xr:uid="{C91CE37C-F62C-4765-9BB3-7F28EE87E203}"/>
+    <hyperlink ref="C8" r:id="rId9" xr:uid="{419501CE-5E4C-4AD6-9834-A27F885CF85A}"/>
+    <hyperlink ref="B9" r:id="rId10" xr:uid="{5C09DA82-038C-4E14-BE38-0A1CAE27C4FE}"/>
+    <hyperlink ref="B10" r:id="rId11" xr:uid="{E1DC9D2D-5731-4EBE-9B90-E10058FEDD1C}"/>
+    <hyperlink ref="B11" r:id="rId12" xr:uid="{2C657EEE-F8A3-4E65-920A-D4696115FD49}"/>
+    <hyperlink ref="B12" r:id="rId13" xr:uid="{D6E72672-FFE8-4E3D-A9E8-38A076B6F14E}"/>
+    <hyperlink ref="B13" r:id="rId14" xr:uid="{606A9D22-06A8-4411-AF53-94636BDA8B0B}"/>
+    <hyperlink ref="B14" r:id="rId15" xr:uid="{718BA5FA-370B-411B-9711-23728E9B5A8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
--- a/striver-a2z-sheet.xlsx
+++ b/striver-a2z-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code\striver-a2z-workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0F49DD-47BE-4D06-BC87-EA02D0304EE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D45F7AD-8099-4162-922F-94F82FD6DE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,28 @@
     <sheet name="Arrays-Easy" sheetId="1" r:id="rId1"/>
     <sheet name="Arrays-Medium" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="55">
   <si>
     <t>S.no</t>
   </si>
@@ -188,6 +199,9 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>t, Read</t>
   </si>
 </sst>
 </file>
@@ -782,8 +796,8 @@
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>16</v>
+      <c r="F7" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>9</v>
@@ -917,7 +931,7 @@
         <v>22</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>9</v>
@@ -1021,7 +1035,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/striver-a2z-sheet.xlsx
+++ b/striver-a2z-sheet.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code\striver-a2z-workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D45F7AD-8099-4162-922F-94F82FD6DE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946E0270-EC0A-4CB7-80E7-C31754A9DC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-Easy" sheetId="1" r:id="rId1"/>
     <sheet name="Arrays-Medium" sheetId="2" r:id="rId2"/>
+    <sheet name="Arrays-Hard" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="66">
   <si>
     <t>S.no</t>
   </si>
@@ -202,6 +203,39 @@
   </si>
   <si>
     <t>t, Read</t>
+  </si>
+  <si>
+    <t>Pascals Traingle</t>
+  </si>
+  <si>
+    <t>31-12-2023</t>
+  </si>
+  <si>
+    <t>Majority Elements(&gt;N/3 times)</t>
+  </si>
+  <si>
+    <t>3 Sum</t>
+  </si>
+  <si>
+    <t>4 Sum</t>
+  </si>
+  <si>
+    <t>Length of the longest subarray with zero Sum</t>
+  </si>
+  <si>
+    <t>Similar concept as Longest subarr with sum K</t>
+  </si>
+  <si>
+    <t>Count the number of subarrays with given xor K</t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array w/o extra space</t>
+  </si>
+  <si>
+    <t>Learn both approaches</t>
   </si>
 </sst>
 </file>
@@ -325,7 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -353,6 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -637,7 +672,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E5AF8F-8D3A-420E-A423-57198BC56D6F}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1409,4 +1444,1058 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96699F9A-B078-41D6-BA58-96E1DF1DD8B0}">
+  <dimension ref="A1:I80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="19">
+        <v>45292</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="19">
+        <v>45292</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="19">
+        <v>45292</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="19">
+        <v>45323</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="19">
+        <v>45323</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="19">
+        <v>45323</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{CBDBC36B-105C-47AD-80AE-7F30C29C592F}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{C5E14F8A-BE1F-4BEB-8D7C-EB5BC70C7F31}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{A325C2F7-C3BE-4ECA-862B-7862E8DC27CC}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{24FE1E58-1B59-4D5D-B922-DDE4204AC8C1}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{AAF92567-A84E-4A7D-A845-29279CC64152}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{CA076557-71E8-4A9C-99B0-E654ACC9FE8B}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{D0EB014C-9F2E-4242-8BAE-D7A2BF854395}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{4F3516A2-6A0E-43B0-83CA-63543BD44725}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{497CA1E5-3A8C-4A42-BEA4-315BA3C7C713}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
+</worksheet>
 </file>
--- a/striver-a2z-sheet.xlsx
+++ b/striver-a2z-sheet.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code\striver-a2z-workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946E0270-EC0A-4CB7-80E7-C31754A9DC7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C06283-F749-44B9-A93D-4F360A64CC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-Easy" sheetId="1" r:id="rId1"/>
     <sheet name="Arrays-Medium" sheetId="2" r:id="rId2"/>
     <sheet name="Arrays-Hard" sheetId="3" r:id="rId3"/>
+    <sheet name="BinarySearch - 1D Arrays" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="75">
   <si>
     <t>S.no</t>
   </si>
@@ -236,13 +237,40 @@
   </si>
   <si>
     <t>Learn both approaches</t>
+  </si>
+  <si>
+    <t>Find Missing and Repeating numbers</t>
+  </si>
+  <si>
+    <t>Maximum Product Subarray in an Array</t>
+  </si>
+  <si>
+    <t>Count inversions in an array</t>
+  </si>
+  <si>
+    <t>Reverse Pairs</t>
+  </si>
+  <si>
+    <t>Modification of Inversion count</t>
+  </si>
+  <si>
+    <t>Binary Search to find X in sorted Arrays</t>
+  </si>
+  <si>
+    <t>Implement Lower Bound</t>
+  </si>
+  <si>
+    <t>Implement Upper Bound</t>
+  </si>
+  <si>
+    <t>Search Insert Position</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +297,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -359,22 +393,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -388,6 +417,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -672,7 +707,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,28 +719,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -721,10 +756,10 @@
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -743,10 +778,10 @@
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -765,10 +800,10 @@
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -787,10 +822,10 @@
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -809,7 +844,7 @@
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -831,7 +866,7 @@
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="15" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -853,7 +888,7 @@
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="17" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -875,7 +910,7 @@
       <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -897,7 +932,7 @@
       <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="17" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -911,7 +946,7 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2"/>
@@ -919,7 +954,7 @@
       <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -943,7 +978,7 @@
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="18" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -965,7 +1000,7 @@
       <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="17" t="s">
         <v>54</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1070,43 +1105,43 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:G6"/>
+      <selection activeCell="F8" sqref="F8:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="18"/>
+    <col min="4" max="4" width="9.140625" style="13"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1118,14 +1153,14 @@
         <v>29</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="16"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1143,16 +1178,16 @@
       <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1170,14 +1205,14 @@
         <v>35</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="16"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -1193,14 +1228,14 @@
         <v>36</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="16"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -1216,14 +1251,14 @@
         <v>38</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="16"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -1239,14 +1274,14 @@
         <v>40</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="16"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -1264,16 +1299,16 @@
       <c r="C8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -1289,14 +1324,14 @@
         <v>44</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="16"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -1305,27 +1340,27 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="11" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="11" t="s">
+      <c r="G10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="11"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1335,19 +1370,19 @@
         <v>47</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="11" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="11" t="s">
+      <c r="G11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>46</v>
       </c>
       <c r="I11" s="2"/>
@@ -1360,43 +1395,43 @@
         <v>48</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="16"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="G12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>49</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="11" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="11" t="s">
+      <c r="G13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1406,14 +1441,14 @@
         <v>51</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="16"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -1448,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96699F9A-B078-41D6-BA58-96E1DF1DD8B0}">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1462,31 +1497,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1502,10 +1537,10 @@
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1525,10 +1560,10 @@
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1548,10 +1583,10 @@
       <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="9" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -1571,13 +1606,13 @@
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="19">
+      <c r="G5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="14">
         <v>45292</v>
       </c>
       <c r="I5" s="2"/>
@@ -1594,13 +1629,13 @@
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="G6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="14">
         <v>45292</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1619,13 +1654,13 @@
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="19">
+      <c r="G7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="14">
         <v>45292</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -1644,13 +1679,13 @@
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="19">
+      <c r="G8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="14">
         <v>45323</v>
       </c>
       <c r="I8" s="2"/>
@@ -1665,38 +1700,40 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="19">
+        <v>18</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="14">
         <v>45323</v>
       </c>
-      <c r="I9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="19">
+      <c r="G10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="14">
         <v>45323</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -1707,45 +1744,75 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="14">
+        <v>45352</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="14">
+        <v>45352</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="3" t="s">
+        <v>69</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="14">
+        <v>45413</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1756,9 +1823,7 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2472,17 +2537,6 @@
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{CBDBC36B-105C-47AD-80AE-7F30C29C592F}"/>
@@ -2492,10 +2546,248 @@
     <hyperlink ref="B6" r:id="rId5" xr:uid="{AAF92567-A84E-4A7D-A845-29279CC64152}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{CA076557-71E8-4A9C-99B0-E654ACC9FE8B}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{D0EB014C-9F2E-4242-8BAE-D7A2BF854395}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{4F3516A2-6A0E-43B0-83CA-63543BD44725}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{497CA1E5-3A8C-4A42-BEA4-315BA3C7C713}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{497CA1E5-3A8C-4A42-BEA4-315BA3C7C713}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{C8208A4C-7034-4A74-AEBE-04BE10A5B8BB}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{8FE5D25D-984B-423B-85E3-C3728D3BFA19}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{B77A9B7A-48D4-4874-81B8-C6E4F2C08571}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{F9350CAE-6A6D-441A-98BB-E39A25694382}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AF0D50-963F-4938-A68F-979C677948E1}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="14">
+        <v>45444</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="14">
+        <v>45444</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="14">
+        <v>45444</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="14">
+        <v>45444</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{E98D7E32-C0C5-4ACE-80BA-D0E20343F015}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{83BF74BC-CC15-4A82-91F1-320BF72FC7A5}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{1E68AAB6-138B-4945-965C-B25631A51528}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{C67439B4-4AA6-4F78-9D06-ED017ED18DFC}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/striver-a2z-sheet.xlsx
+++ b/striver-a2z-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code\striver-a2z-workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C06283-F749-44B9-A93D-4F360A64CC28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FAB1F5-D1C6-430C-A7E6-82A9547485A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="78">
   <si>
     <t>S.no</t>
   </si>
@@ -264,6 +264,15 @@
   </si>
   <si>
     <t>Search Insert Position</t>
+  </si>
+  <si>
+    <t>Floor and Ceil in Sorted Array</t>
+  </si>
+  <si>
+    <t>First and Last Occurrences in Array</t>
+  </si>
+  <si>
+    <t>Count Occurrences in Sorted Array</t>
   </si>
 </sst>
 </file>
@@ -2562,7 +2571,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2696,39 +2705,69 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="14">
+        <v>45474</v>
+      </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="14">
+        <v>45474</v>
+      </c>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="14">
+        <v>45474</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2787,7 +2826,11 @@
     <hyperlink ref="B3" r:id="rId2" xr:uid="{83BF74BC-CC15-4A82-91F1-320BF72FC7A5}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{1E68AAB6-138B-4945-965C-B25631A51528}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{C67439B4-4AA6-4F78-9D06-ED017ED18DFC}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{B91DB037-86B5-4E27-871B-004F59A2E93F}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{9004B5A7-A011-4E8C-A2FE-1359ECAC55B0}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{8C987E24-A751-4131-9E8B-3673F828CE12}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/striver-a2z-sheet.xlsx
+++ b/striver-a2z-sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code\striver-a2z-workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FAB1F5-D1C6-430C-A7E6-82A9547485A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FB379C-A709-46C6-AEA8-A952F85F32E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="84">
   <si>
     <t>S.no</t>
   </si>
@@ -273,6 +273,24 @@
   </si>
   <si>
     <t>Count Occurrences in Sorted Array</t>
+  </si>
+  <si>
+    <t>Search in Rotated sorted array (unique)</t>
+  </si>
+  <si>
+    <t>13/1/2024</t>
+  </si>
+  <si>
+    <t>Search in Rotated sorted array (repeating)</t>
+  </si>
+  <si>
+    <t>Find minimum in rotated sorted array</t>
+  </si>
+  <si>
+    <t>14/1/2024</t>
+  </si>
+  <si>
+    <t>Single element in a Sorted array</t>
   </si>
 </sst>
 </file>
@@ -402,7 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -432,6 +450,9 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1495,7 +1516,7 @@
   <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2568,16 +2589,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AF0D50-963F-4938-A68F-979C677948E1}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.140625" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2602,7 +2623,7 @@
       <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -2627,7 +2648,7 @@
       <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="21">
         <v>45444</v>
       </c>
       <c r="I2" s="2"/>
@@ -2650,7 +2671,7 @@
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="21">
         <v>45444</v>
       </c>
       <c r="I3" s="2"/>
@@ -2673,7 +2694,7 @@
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="21">
         <v>45444</v>
       </c>
       <c r="I4" s="2"/>
@@ -2696,7 +2717,7 @@
       <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="21">
         <v>45444</v>
       </c>
       <c r="I5" s="2"/>
@@ -2719,7 +2740,7 @@
       <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="21">
         <v>45474</v>
       </c>
       <c r="I6" s="2"/>
@@ -2742,7 +2763,7 @@
       <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="21">
         <v>45474</v>
       </c>
       <c r="I7" s="2"/>
@@ -2765,7 +2786,7 @@
       <c r="G8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="21">
         <v>45474</v>
       </c>
       <c r="I8" s="2"/>
@@ -2774,51 +2795,126 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>82</v>
+      </c>
       <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2829,8 +2925,12 @@
     <hyperlink ref="B6" r:id="rId5" xr:uid="{B91DB037-86B5-4E27-871B-004F59A2E93F}"/>
     <hyperlink ref="B7" r:id="rId6" xr:uid="{9004B5A7-A011-4E8C-A2FE-1359ECAC55B0}"/>
     <hyperlink ref="B8" r:id="rId7" xr:uid="{8C987E24-A751-4131-9E8B-3673F828CE12}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{49868438-744F-4A83-B385-CCD208D8BCAD}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{3A08DB53-105B-4A96-BE94-228DFD93F491}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{EF7E9D86-B4C3-44E3-A325-9A2FE511DE5A}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{77054E2E-EFE9-45D8-B463-CB99483F3965}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/striver-a2z-sheet.xlsx
+++ b/striver-a2z-sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code\striver-a2z-workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FB379C-A709-46C6-AEA8-A952F85F32E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D16FCD-E51C-4327-8644-98FF872200E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,28 +18,17 @@
     <sheet name="Arrays-Hard" sheetId="3" r:id="rId3"/>
     <sheet name="BinarySearch - 1D Arrays" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="87">
   <si>
     <t>S.no</t>
   </si>
@@ -291,6 +280,15 @@
   </si>
   <si>
     <t>Single element in a Sorted array</t>
+  </si>
+  <si>
+    <t>Find Peak element</t>
+  </si>
+  <si>
+    <t>18/2/2024</t>
+  </si>
+  <si>
+    <t>Find out how many times the array has been rotated</t>
   </si>
 </sst>
 </file>
@@ -737,7 +735,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2592,12 +2590,12 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2884,25 +2882,49 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>84</v>
+      </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="11"/>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="11"/>
+      <c r="E14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>85</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2929,8 +2951,10 @@
     <hyperlink ref="B10" r:id="rId9" xr:uid="{3A08DB53-105B-4A96-BE94-228DFD93F491}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{EF7E9D86-B4C3-44E3-A325-9A2FE511DE5A}"/>
     <hyperlink ref="B12" r:id="rId11" xr:uid="{77054E2E-EFE9-45D8-B463-CB99483F3965}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{B7C28823-81D1-41C9-B229-23891E1EBD8C}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{FBD47377-0AC7-4125-B045-323439AA9BEC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/striver-a2z-sheet.xlsx
+++ b/striver-a2z-sheet.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code\striver-a2z-workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D16FCD-E51C-4327-8644-98FF872200E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89732B6B-6F16-4697-B2FF-07AB0BB6FDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-Easy" sheetId="1" r:id="rId1"/>
     <sheet name="Arrays-Medium" sheetId="2" r:id="rId2"/>
     <sheet name="Arrays-Hard" sheetId="3" r:id="rId3"/>
     <sheet name="BinarySearch - 1D Arrays" sheetId="4" r:id="rId4"/>
+    <sheet name="Binary Search - Answers" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="93">
   <si>
     <t>S.no</t>
   </si>
@@ -289,6 +290,24 @@
   </si>
   <si>
     <t>Find out how many times the array has been rotated</t>
+  </si>
+  <si>
+    <t>Koko  Eating Bananas</t>
+  </si>
+  <si>
+    <t>19/2/2024</t>
+  </si>
+  <si>
+    <t>Finding Sqrt of a number using Binary Search</t>
+  </si>
+  <si>
+    <t>Nth Root of a Number using Binary Search</t>
+  </si>
+  <si>
+    <t>Minimum days to make M bouquets</t>
+  </si>
+  <si>
+    <t>Find the Smallest Divisor Given a Threshold</t>
   </si>
 </sst>
 </file>
@@ -418,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -451,6 +470,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2589,8 +2609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AF0D50-963F-4938-A68F-979C677948E1}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2957,4 +2977,343 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A89263-B576-4ED2-B3B2-7E23ED72548B}">
+  <dimension ref="A1:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{896C5F8D-FB0F-4DAF-A4C3-B325C761F976}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{ADA25173-F706-4508-AE75-0D9DF5AFE0B2}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{57B00E68-32FB-44C3-BE47-8BD8FBC72F20}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{47399862-5E8F-4824-A98F-6F73606A84A0}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{4021A606-0F49-4205-AEB3-09575DD03CA7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
 </file>
--- a/striver-a2z-sheet.xlsx
+++ b/striver-a2z-sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code\striver-a2z-workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89732B6B-6F16-4697-B2FF-07AB0BB6FDC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E827EC7-0AC8-48C8-BECA-9D6856E5E689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="98">
   <si>
     <t>S.no</t>
   </si>
@@ -308,6 +308,21 @@
   </si>
   <si>
     <t>Find the Smallest Divisor Given a Threshold</t>
+  </si>
+  <si>
+    <t>Capacity to Ship Packages within D Days</t>
+  </si>
+  <si>
+    <t>Kth Missing Positive Number</t>
+  </si>
+  <si>
+    <t>21/2/2024</t>
+  </si>
+  <si>
+    <t>make note</t>
+  </si>
+  <si>
+    <t>Aggressive Cows</t>
   </si>
 </sst>
 </file>
@@ -444,7 +459,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -471,6 +485,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -755,7 +770,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +819,7 @@
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -826,7 +841,7 @@
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -848,7 +863,7 @@
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -870,7 +885,7 @@
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -892,7 +907,7 @@
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -914,7 +929,7 @@
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -936,7 +951,7 @@
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -958,7 +973,7 @@
       <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -980,7 +995,7 @@
       <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -994,7 +1009,7 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="22" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="2"/>
@@ -1002,7 +1017,7 @@
       <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="17" t="s">
         <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1026,7 +1041,7 @@
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="1" t="s">
@@ -1048,7 +1063,7 @@
       <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>54</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1159,7 +1174,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="13"/>
+    <col min="4" max="4" width="9.140625" style="12"/>
     <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
@@ -1174,7 +1189,7 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -1201,11 +1216,11 @@
         <v>29</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="11"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="16" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1226,13 +1241,13 @@
       <c r="C3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1253,11 +1268,11 @@
         <v>35</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="11"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1276,11 +1291,11 @@
         <v>36</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="11"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -1299,11 +1314,11 @@
         <v>38</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="11"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -1322,11 +1337,11 @@
         <v>40</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
@@ -1347,13 +1362,13 @@
       <c r="C8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="17" t="s">
         <v>25</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -1372,11 +1387,11 @@
         <v>44</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="11"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="4" t="s">
@@ -1388,27 +1403,27 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="16" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="G10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1418,19 +1433,19 @@
         <v>47</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="G11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>46</v>
       </c>
       <c r="I11" s="2"/>
@@ -1443,43 +1458,43 @@
         <v>48</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="11"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="G12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="6" t="s">
         <v>49</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="19" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="7"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -1489,11 +1504,11 @@
         <v>51</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" s="11"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="4" t="s">
@@ -1554,7 +1569,7 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -1585,7 +1600,7 @@
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1608,10 +1623,10 @@
       <c r="E3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1631,10 +1646,10 @@
       <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -1654,13 +1669,13 @@
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="14">
+      <c r="G5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="13">
         <v>45292</v>
       </c>
       <c r="I5" s="2"/>
@@ -1677,13 +1692,13 @@
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="14">
+      <c r="G6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="13">
         <v>45292</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -1702,13 +1717,13 @@
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>45292</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -1727,13 +1742,13 @@
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="14">
+      <c r="G8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="13">
         <v>45323</v>
       </c>
       <c r="I8" s="2"/>
@@ -1750,13 +1765,13 @@
       <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>45323</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -1775,13 +1790,13 @@
       <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>45323</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -1800,13 +1815,13 @@
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>45352</v>
       </c>
       <c r="I11" s="2"/>
@@ -1823,13 +1838,13 @@
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>45352</v>
       </c>
       <c r="I12" s="2"/>
@@ -1846,13 +1861,13 @@
       <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="17" t="s">
         <v>25</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>45413</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -2610,13 +2625,13 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:H15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2629,7 +2644,7 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -2641,7 +2656,7 @@
       <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -2660,13 +2675,13 @@
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H2" s="20">
         <v>45444</v>
       </c>
       <c r="I2" s="2"/>
@@ -2683,13 +2698,13 @@
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="21">
+      <c r="H3" s="20">
         <v>45444</v>
       </c>
       <c r="I3" s="2"/>
@@ -2706,13 +2721,13 @@
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="21">
+      <c r="H4" s="20">
         <v>45444</v>
       </c>
       <c r="I4" s="2"/>
@@ -2729,13 +2744,13 @@
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="16" t="s">
         <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H5" s="20">
         <v>45444</v>
       </c>
       <c r="I5" s="2"/>
@@ -2752,13 +2767,13 @@
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="21">
+      <c r="H6" s="20">
         <v>45474</v>
       </c>
       <c r="I6" s="2"/>
@@ -2775,13 +2790,13 @@
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="20">
         <v>45474</v>
       </c>
       <c r="I7" s="2"/>
@@ -2798,13 +2813,13 @@
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="20">
         <v>45474</v>
       </c>
       <c r="I8" s="2"/>
@@ -2821,13 +2836,13 @@
       <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="17" t="s">
         <v>25</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>79</v>
       </c>
       <c r="I9" s="2"/>
@@ -2844,13 +2859,13 @@
       <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="10" t="s">
         <v>79</v>
       </c>
       <c r="I10" s="2"/>
@@ -2867,13 +2882,13 @@
       <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>82</v>
       </c>
       <c r="I11" s="2"/>
@@ -2890,13 +2905,13 @@
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="17" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H12" s="10" t="s">
         <v>82</v>
       </c>
       <c r="I12" s="2"/>
@@ -2913,13 +2928,13 @@
       <c r="E13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="10" t="s">
         <v>85</v>
       </c>
       <c r="I13" s="2"/>
@@ -2936,13 +2951,13 @@
       <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H14" s="10" t="s">
         <v>85</v>
       </c>
       <c r="I14" s="2"/>
@@ -2955,7 +2970,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="11"/>
+      <c r="H15" s="10"/>
       <c r="I15" s="2"/>
     </row>
   </sheetData>
@@ -2984,7 +2999,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:H6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3006,7 +3021,7 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -3018,7 +3033,7 @@
       <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -3037,13 +3052,13 @@
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="20" t="s">
         <v>88</v>
       </c>
       <c r="I2" s="2"/>
@@ -3060,13 +3075,13 @@
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="20" t="s">
         <v>88</v>
       </c>
       <c r="I3" s="2"/>
@@ -3083,13 +3098,13 @@
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>88</v>
       </c>
       <c r="I4" s="2"/>
@@ -3106,13 +3121,13 @@
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="21" t="s">
         <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="20" t="s">
         <v>88</v>
       </c>
       <c r="I5" s="2"/>
@@ -3129,49 +3144,89 @@
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="20" t="s">
         <v>88</v>
       </c>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>93</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>97</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3312,8 +3367,11 @@
     <hyperlink ref="B4" r:id="rId3" xr:uid="{57B00E68-32FB-44C3-BE47-8BD8FBC72F20}"/>
     <hyperlink ref="B5" r:id="rId4" xr:uid="{47399862-5E8F-4824-A98F-6F73606A84A0}"/>
     <hyperlink ref="B6" r:id="rId5" xr:uid="{4021A606-0F49-4205-AEB3-09575DD03CA7}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{16F09965-898C-4353-96FF-21D22809831A}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{56B782D3-4F77-413F-8DE5-A23DBA7DC0C1}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{1D98D242-B066-4A31-B4BC-79A85A9D8184}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
--- a/striver-a2z-sheet.xlsx
+++ b/striver-a2z-sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code\striver-a2z-workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E827EC7-0AC8-48C8-BECA-9D6856E5E689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B7C501-4105-4E1A-B77F-C4CF2F81FA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-Easy" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,10 @@
     <sheet name="Arrays-Hard" sheetId="3" r:id="rId3"/>
     <sheet name="BinarySearch - 1D Arrays" sheetId="4" r:id="rId4"/>
     <sheet name="Binary Search - Answers" sheetId="5" r:id="rId5"/>
+    <sheet name="Binary  Search - 2D Arrays" sheetId="7" r:id="rId6"/>
+    <sheet name="Strings - Basic and Easy" sheetId="6" r:id="rId7"/>
+    <sheet name="Strings - Medium" sheetId="8" r:id="rId8"/>
+    <sheet name="Linked List" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="169">
   <si>
     <t>S.no</t>
   </si>
@@ -323,6 +327,219 @@
   </si>
   <si>
     <t>Aggressive Cows</t>
+  </si>
+  <si>
+    <t>Book Allocation Problem</t>
+  </si>
+  <si>
+    <t>24/2/2024</t>
+  </si>
+  <si>
+    <t>make note - instead of checking no of students possible, check if student count exceeds max student limit</t>
+  </si>
+  <si>
+    <t>V Imp, T</t>
+  </si>
+  <si>
+    <t>Painter’s Partition Problem</t>
+  </si>
+  <si>
+    <t>Same as Book allocation</t>
+  </si>
+  <si>
+    <t>25/2/2024</t>
+  </si>
+  <si>
+    <t>Read all 3 methods</t>
+  </si>
+  <si>
+    <t>Minimise Maximum Distance between Gas Stations</t>
+  </si>
+  <si>
+    <t>Remove outermost parenthesis</t>
+  </si>
+  <si>
+    <t>27/2/2024</t>
+  </si>
+  <si>
+    <t>Largest odd number in a string</t>
+  </si>
+  <si>
+    <t>Median of two sorted arrays</t>
+  </si>
+  <si>
+    <t>29/2/2024</t>
+  </si>
+  <si>
+    <t>Kth element of 2 sorted aarrays</t>
+  </si>
+  <si>
+    <t>same as Median of 2 sorted arrays</t>
+  </si>
+  <si>
+    <t>Split Array – Largest Sum</t>
+  </si>
+  <si>
+    <t>Same as Book allocation - note the is_possible method, only return false if count exceeds limit</t>
+  </si>
+  <si>
+    <t>Find the row with maximum number of 1’s</t>
+  </si>
+  <si>
+    <t>Search in a sorted 2D matrix</t>
+  </si>
+  <si>
+    <t>Search in a row and column-wise sorted matrix</t>
+  </si>
+  <si>
+    <t>Find Peak Element 2D Matrix</t>
+  </si>
+  <si>
+    <t>Imp, T</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Notes?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Extension of find peak element</t>
+  </si>
+  <si>
+    <t>Matrix Median</t>
+  </si>
+  <si>
+    <t>Reverse Words in a String</t>
+  </si>
+  <si>
+    <t>Longest common prefix</t>
+  </si>
+  <si>
+    <t>Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>Rotate String</t>
+  </si>
+  <si>
+    <t>Check if two Strings are anagrams of each other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sort Characters by frequency </t>
+  </si>
+  <si>
+    <t>Maximum Nesting Depth of Paranthesis</t>
+  </si>
+  <si>
+    <t>Roman to Int</t>
+  </si>
+  <si>
+    <t>Int to Roman</t>
+  </si>
+  <si>
+    <t>Count With K Different Characters</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Subsequence</t>
+  </si>
+  <si>
+    <t>Reverse Every Word in A String</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sum of Beauty of all substring </t>
+  </si>
+  <si>
+    <t>Delete a node in Linked List</t>
+  </si>
+  <si>
+    <t>Reverse a DLL</t>
+  </si>
+  <si>
+    <t>Find middle element in a Linked List</t>
+  </si>
+  <si>
+    <t>Reverse a Linked List (Iterative)</t>
+  </si>
+  <si>
+    <t>Detect a Cycle in a Linked List</t>
+  </si>
+  <si>
+    <t>13/3/2024</t>
+  </si>
+  <si>
+    <t>Find the starting point in LL</t>
+  </si>
+  <si>
+    <t>Length of Loop in LL</t>
+  </si>
+  <si>
+    <t>Check if LL is palindrome or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segrregate odd and even nodes in LL </t>
+  </si>
+  <si>
+    <t>Remove N-th node from the end of a Linked List</t>
+  </si>
+  <si>
+    <t>14/3/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete the middle node of LL </t>
+  </si>
+  <si>
+    <t>Sort LL</t>
+  </si>
+  <si>
+    <t>Sort linked list of 0s 1s 2s</t>
+  </si>
+  <si>
+    <t>Find intersection of Two Linked Lists</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Add two numbers in LL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add 1 to a number represented by LL </t>
+  </si>
+  <si>
+    <t>17/3/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Delete all occurrences of a given key in a doubly linked list</t>
+  </si>
+  <si>
+    <t>18/3/2024</t>
+  </si>
+  <si>
+    <t>Find pairs with given sum in doubly linked list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove duplicates from sorted DLL </t>
+  </si>
+  <si>
+    <t>19/3/2024</t>
+  </si>
+  <si>
+    <t>Rotate Linked List</t>
+  </si>
+  <si>
+    <t>Reverse Nodes in K Group</t>
+  </si>
+  <si>
+    <t>20/3/2024</t>
+  </si>
+  <si>
+    <t>Flattening of LL</t>
   </si>
 </sst>
 </file>
@@ -411,7 +628,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -447,12 +664,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -486,6 +714,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -770,7 +1002,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,8 +1023,8 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
+      <c r="D1" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>17</v>
@@ -903,7 +1135,9 @@
         <v>15</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1013,7 +1247,9 @@
         <v>24</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1036,7 +1272,7 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1167,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E5AF8F-8D3A-420E-A423-57198BC56D6F}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:G8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1426,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>17</v>
@@ -1548,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96699F9A-B078-41D6-BA58-96E1DF1DD8B0}">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:G9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2622,19 +2858,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AF0D50-963F-4938-A68F-979C677948E1}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="48.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2645,7 +2882,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>17</v>
@@ -2662,8 +2899,11 @@
       <c r="I1" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2686,7 +2926,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2709,7 +2949,7 @@
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2732,7 +2972,7 @@
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2754,8 +2994,11 @@
         <v>45444</v>
       </c>
       <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2778,7 +3021,7 @@
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2801,7 +3044,7 @@
       </c>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2823,8 +3066,11 @@
         <v>45474</v>
       </c>
       <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2832,7 +3078,9 @@
         <v>78</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>22</v>
       </c>
@@ -2846,8 +3094,11 @@
         <v>79</v>
       </c>
       <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2855,7 +3106,9 @@
         <v>80</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
@@ -2869,8 +3122,11 @@
         <v>79</v>
       </c>
       <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2892,8 +3148,11 @@
         <v>82</v>
       </c>
       <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2901,7 +3160,9 @@
         <v>83</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2915,8 +3176,11 @@
         <v>82</v>
       </c>
       <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2938,8 +3202,11 @@
         <v>85</v>
       </c>
       <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2960,9 +3227,14 @@
       <c r="H14" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2996,17 +3268,738 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08A89263-B576-4ED2-B3B2-7E23ED72548B}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="20">
+        <v>45325</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{896C5F8D-FB0F-4DAF-A4C3-B325C761F976}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{ADA25173-F706-4508-AE75-0D9DF5AFE0B2}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{57B00E68-32FB-44C3-BE47-8BD8FBC72F20}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{47399862-5E8F-4824-A98F-6F73606A84A0}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{4021A606-0F49-4205-AEB3-09575DD03CA7}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{16F09965-898C-4353-96FF-21D22809831A}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{56B782D3-4F77-413F-8DE5-A23DBA7DC0C1}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{1D98D242-B066-4A31-B4BC-79A85A9D8184}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{A09DFE14-8D15-4A3A-911A-590B88BA9EE3}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{2F31FA46-FA84-4D87-AE36-EFF3E7C3BC30}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{C8BD93CC-C982-4DEB-A65B-86C6AF339F7B}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{52DA27A7-BF5C-4578-AF9F-A8509C740EF1}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{AAA24C0E-41F5-4108-8738-4ED0B10959C8}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{90CC9934-0CF5-49FD-B914-184CF19E7BDA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FFA161F-7E8F-49D6-B82F-0CA7D53B4E0B}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="20">
+        <v>45354</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="20">
+        <v>45354</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="20">
+        <v>45354</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="20">
+        <v>45354</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="13">
+        <v>45507</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7599CC07-5E13-4480-ACC4-2A72CD1084BD}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{9A3D35DF-B526-4212-ACEF-669C0081542A}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{9A9B967D-D720-448B-AD63-336352E35C4D}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{8C09A972-DA10-465D-AEBF-8DB4F7FCAD85}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{F707772D-F81B-4505-816C-45B3EF546670}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A66556A-123D-497C-90B4-0F04F7885444}">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
     <col min="2" max="2" width="41.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3022,7 +4015,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>17</v>
@@ -3045,21 +4038,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>16</v>
+      <c r="F2" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="I2" s="2"/>
     </row>
@@ -3068,12 +4061,12 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>12</v>
@@ -3082,7 +4075,7 @@
         <v>9</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -3091,12 +4084,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F4" s="16" t="s">
         <v>8</v>
@@ -3104,8 +4099,8 @@
       <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="20" t="s">
-        <v>88</v>
+      <c r="H4" s="20">
+        <v>45538</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -3114,21 +4109,23 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="21" t="s">
-        <v>16</v>
+      <c r="F5" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="20" t="s">
-        <v>88</v>
+      <c r="H5" s="20">
+        <v>45538</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -3137,21 +4134,21 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>8</v>
+      <c r="F6" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="20" t="s">
-        <v>88</v>
+      <c r="H6" s="20">
+        <v>45538</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -3160,21 +4157,23 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>16</v>
+      <c r="F7" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="20" t="s">
-        <v>88</v>
+      <c r="H7" s="20">
+        <v>45538</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -3183,50 +4182,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>25</v>
+      <c r="F8" s="19" t="s">
+        <v>12</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="H8" s="20">
+        <v>45568</v>
+      </c>
+      <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>97</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
@@ -3305,6 +4288,332 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{95DA75B3-10B7-437A-A2DB-403804D69D3E}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{514C9B4E-7ED9-41F7-8B9D-D86684467156}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{7BE5628D-5521-425F-9988-3015A3F3C689}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{3608C518-756D-4001-A21B-C0F8ACA2D6DC}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{C2FC6310-B6B3-4EC2-959B-78C5A6E93A40}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{B8646E9B-8644-42CE-A4E2-37CA1934E0C4}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{2376AE57-9550-43E4-ACD6-7338AD2331EA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD98D7B0-1297-44A6-B375-20A30518486E}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="20">
+        <v>45568</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="20">
+        <v>45568</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="20">
+        <v>45568</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="20">
+        <v>45568</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="20">
+        <v>45599</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="20">
+        <v>45599</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="20">
+        <v>45599</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="20">
+        <v>45599</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
@@ -3327,51 +4636,626 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{896C5F8D-FB0F-4DAF-A4C3-B325C761F976}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{ADA25173-F706-4508-AE75-0D9DF5AFE0B2}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{57B00E68-32FB-44C3-BE47-8BD8FBC72F20}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{47399862-5E8F-4824-A98F-6F73606A84A0}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{4021A606-0F49-4205-AEB3-09575DD03CA7}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{16F09965-898C-4353-96FF-21D22809831A}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{56B782D3-4F77-413F-8DE5-A23DBA7DC0C1}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{1D98D242-B066-4A31-B4BC-79A85A9D8184}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3E4D543D-C98B-4F21-BB92-956F4F15A6D1}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{2DD860B0-53BA-4178-AF02-B5BBA463931E}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{576DE249-40F8-450D-A3F1-CDD827AE37B1}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{7A3AE213-8A3F-4AAF-A782-604CA3C0065F}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{87B1E7A2-2EF7-4758-A953-D9F54A6CD12A}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{D245D984-C0F6-4D66-8386-E308BE6D1D0D}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{DF901BB9-C8CB-4DAC-923F-021C130B2F44}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{83CEF91E-5AAD-4718-80CD-8A03274918FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECA50A1-6E41-4AA5-849A-E39E49E5520E}">
+  <dimension ref="A1:I24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="20">
+        <v>45629</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="20">
+        <v>45629</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="20">
+        <v>45629</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="20">
+        <v>45629</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{000C5C22-A9EB-4D8F-83BD-D3A3AB2E2373}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{84A83D34-0234-4437-84E2-77108F28FAE7}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{F08305ED-392E-40BF-A91F-F9D4934ABFFA}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{BAA797CD-8854-44DE-9488-1EBAA1C11769}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{E8D6963C-60DD-4A43-A4AD-FAF3ED9EAECF}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{F850EAD2-2B90-4BC5-A41C-E70A1E0E8382}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{E3AD97BC-5985-4776-880D-B520D6E8C196}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{C240A6D1-0EF2-421C-96A7-D128D0011DB9}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{F6FA4134-7E12-4C82-B045-18417158AFC4}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{50F92480-DAA2-4C91-9727-D57A21960FA5}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{459D76C9-EC68-4E81-BA85-E19F2E3AF650}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{E9F469F7-10FD-485A-9AC3-3204DDC63BE9}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{5308D28B-2A4D-4FE3-A1A0-2B5518B235DD}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{DDEC8882-A6EF-495C-991E-3564C05B7D93}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{8FBC8E06-6560-423E-A9E0-7987FF415C92}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{D7B7AB48-AE88-4856-978C-BE49FD7276DE}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{8A491AFB-03DD-462C-868E-1674E149830D}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{8B8F96CC-4251-414D-96B6-B42553B04B41}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{41D0FEFE-D22D-4F57-96BE-13DE813E4BC0}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{CC7C9399-51EE-44C8-B5D7-7CFEEA911E2C}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{86AC4F97-B289-4309-827F-D3E182EF3799}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{4F7369E3-5F9A-407D-89A1-6F9026E529F7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
+</worksheet>
 </file>
--- a/striver-a2z-sheet.xlsx
+++ b/striver-a2z-sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code\striver-a2z-workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B7C501-4105-4E1A-B77F-C4CF2F81FA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C155A3A3-4FBC-4C2C-BFCA-25C2BACA41FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-Easy" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Strings - Basic and Easy" sheetId="6" r:id="rId7"/>
     <sheet name="Strings - Medium" sheetId="8" r:id="rId8"/>
     <sheet name="Linked List" sheetId="9" r:id="rId9"/>
+    <sheet name="Bit manipulation" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="188">
   <si>
     <t>S.no</t>
   </si>
@@ -540,13 +541,70 @@
   </si>
   <si>
     <t>Flattening of LL</t>
+  </si>
+  <si>
+    <t>Introduction to Bit Manipulation [Theory]</t>
+  </si>
+  <si>
+    <t>Power of Two</t>
+  </si>
+  <si>
+    <t>Count total Set Bits</t>
+  </si>
+  <si>
+    <t>Set The Rightmost Unset Bit</t>
+  </si>
+  <si>
+    <t>Swap two numbers</t>
+  </si>
+  <si>
+    <t>Divide two integers without using multiplication, division and mod operator</t>
+  </si>
+  <si>
+    <t>Count number of bits to be flipped to convert A to B</t>
+  </si>
+  <si>
+    <t>14/4/2024</t>
+  </si>
+  <si>
+    <t>Find the number that appears odd number of times</t>
+  </si>
+  <si>
+    <t>Subsets</t>
+  </si>
+  <si>
+    <t>15/4/2024</t>
+  </si>
+  <si>
+    <t>Notes in recursion intro</t>
+  </si>
+  <si>
+    <t>Find xor of numbers from L to R</t>
+  </si>
+  <si>
+    <t>Two Numbers With Odd Occurrences</t>
+  </si>
+  <si>
+    <t>Print Prime Factors of a Number</t>
+  </si>
+  <si>
+    <t>All Divisors of a Number</t>
+  </si>
+  <si>
+    <t>Sieve of Eratosthenes</t>
+  </si>
+  <si>
+    <t>16/4/2024</t>
+  </si>
+  <si>
+    <t>Power(n, x)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -583,8 +641,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Titillium Web"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -627,8 +690,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -675,12 +744,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFE5E7EB"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -717,6 +795,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1399,6 +1483,486 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{961DD920-9BBF-4FD5-BCE0-8DC84BFB312C}">
+  <dimension ref="A1:I20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="20">
+        <v>45539</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="20">
+        <v>45539</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="13">
+        <v>45600</v>
+      </c>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="13">
+        <v>45600</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="13">
+        <v>45600</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="13">
+        <v>45600</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{DD7F673B-69EC-40E1-BA35-851000174C20}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{B0D47537-0C5A-4634-9B2B-E6A287DCBE2E}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{E80D0843-243A-4681-89F4-7448C21DA4F6}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{F0069FA8-9E09-460F-8968-7866C47087CD}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{3CA2CA3B-66AE-4510-BBF3-709F21D7BDF6}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{A8144B7D-A916-4CCC-BCB8-14505731B9A7}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{B4F49803-BD41-47B6-8FBC-5ABF59183282}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{21CF61D4-CEBD-4709-9942-56D484478B7C}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{E4AE3D19-4E34-4B44-8068-F7B34BD6332F}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{29086C2C-76B3-4B0C-B3E3-CF0005831E27}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{0C8E52CA-8BE4-4484-8538-8CA2504E5252}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{9E82DE00-4C57-488C-BA6F-A05CD0FEBF82}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{ACCD079B-DB11-455F-9172-EAB6F1DF0515}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{B0FEE14B-005A-4FCB-850B-46BC9903D709}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{81F61CA3-15F0-466C-A101-63310D6098C4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E5AF8F-8D3A-420E-A423-57198BC56D6F}">
   <dimension ref="A1:I14"/>
@@ -1784,7 +2348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96699F9A-B078-41D6-BA58-96E1DF1DD8B0}">
   <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -4656,8 +5220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECA50A1-6E41-4AA5-849A-E39E49E5520E}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/striver-a2z-sheet.xlsx
+++ b/striver-a2z-sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code\striver-a2z-workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112501C5-4C93-4FCC-A404-AC05FEC5C6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD697F1B-669C-46EB-A6DD-7B0FE82CDB64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="9" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arrays-Easy" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <sheet name="Linked List" sheetId="9" r:id="rId9"/>
     <sheet name="Bit manipulation" sheetId="10" r:id="rId10"/>
     <sheet name="Recursion" sheetId="11" r:id="rId11"/>
-    <sheet name="Dynamic Programming" sheetId="12" r:id="rId12"/>
+    <sheet name="Stacks and Queues" sheetId="14" r:id="rId12"/>
+    <sheet name="Sliding Window" sheetId="15" r:id="rId13"/>
+    <sheet name="Dynamic Programming" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="276">
   <si>
     <t>S.no</t>
   </si>
@@ -687,6 +689,183 @@
   </si>
   <si>
     <t>Count distinct subsequences</t>
+  </si>
+  <si>
+    <t>Implement Stack using Arrays</t>
+  </si>
+  <si>
+    <t>Implement Queue using Arrays</t>
+  </si>
+  <si>
+    <t>Implement Stack using Queue</t>
+  </si>
+  <si>
+    <t>Implement Queue using Stacks</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>Infix to Postfix using stack</t>
+  </si>
+  <si>
+    <t>Prefix to Infix Conversion</t>
+  </si>
+  <si>
+    <t>Postfix to Infix Conversion</t>
+  </si>
+  <si>
+    <t>Learn the concept</t>
+  </si>
+  <si>
+    <t>Prefix to Postfix Conversion</t>
+  </si>
+  <si>
+    <t>Postfix to Prefix Conversion</t>
+  </si>
+  <si>
+    <t>Infix to Prefix</t>
+  </si>
+  <si>
+    <t>only notes</t>
+  </si>
+  <si>
+    <t>Next Greater Element 1</t>
+  </si>
+  <si>
+    <t>Next Greater Element 2</t>
+  </si>
+  <si>
+    <t>Nearest smaller element</t>
+  </si>
+  <si>
+    <t>InterviewBit</t>
+  </si>
+  <si>
+    <t>Number of NGEs to the right</t>
+  </si>
+  <si>
+    <t>Trapping rain water</t>
+  </si>
+  <si>
+    <t>Sum of subarray Minimums</t>
+  </si>
+  <si>
+    <t>13/5/2024</t>
+  </si>
+  <si>
+    <t>Asteroid Collision</t>
+  </si>
+  <si>
+    <t>14/5/2024</t>
+  </si>
+  <si>
+    <t>Remove K Digits</t>
+  </si>
+  <si>
+    <t>monotonic stack</t>
+  </si>
+  <si>
+    <t>Largest rectangle in histogram</t>
+  </si>
+  <si>
+    <t>Sum of subarray ranges</t>
+  </si>
+  <si>
+    <t>17/5/2024</t>
+  </si>
+  <si>
+    <t>Maximal Rectangle</t>
+  </si>
+  <si>
+    <t>Reverse Linked List (recursive)</t>
+  </si>
+  <si>
+    <t>21/5/2024</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>22/5/2024</t>
+  </si>
+  <si>
+    <t>LFU Cache</t>
+  </si>
+  <si>
+    <t>Stock span problem</t>
+  </si>
+  <si>
+    <t>23/5/2024</t>
+  </si>
+  <si>
+    <t>The Celebrity Problem</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Sliding Window maximum</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>27/5/2024</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones III</t>
+  </si>
+  <si>
+    <t>Fruit Into Baskets</t>
+  </si>
+  <si>
+    <t>28/5/2024</t>
+  </si>
+  <si>
+    <t>Binary subarray with sum</t>
+  </si>
+  <si>
+    <t>Longest repeating character replacement</t>
+  </si>
+  <si>
+    <t>29/5/2024</t>
+  </si>
+  <si>
+    <t>Count number of nice subarrays</t>
+  </si>
+  <si>
+    <t>Similar to Binary subarray with sum</t>
+  </si>
+  <si>
+    <t>Number of substring containing all three characters</t>
+  </si>
+  <si>
+    <t>30/5/2024</t>
+  </si>
+  <si>
+    <t>Maximum point you can obtain from cards</t>
+  </si>
+  <si>
+    <t>Longest Substring with At Most K Distinct Characters</t>
+  </si>
+  <si>
+    <t>31/5/2024</t>
+  </si>
+  <si>
+    <t>Minimum Window Substring</t>
+  </si>
+  <si>
+    <t>subscription required</t>
+  </si>
+  <si>
+    <t>Minimum Window Subsequence</t>
+  </si>
+  <si>
+    <t>read code and write soln</t>
   </si>
 </sst>
 </file>
@@ -696,11 +875,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -812,7 +998,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -888,59 +1074,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1159,7 +1447,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2542,7 +2832,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4002,8 +4294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5709,23 +6001,1139 @@
     <hyperlink ref="C23" r:id="rId23" xr:uid="{00000000-0004-0000-0A00-000016000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349F3243-BF1C-43C9-878C-5FBA90C1EC02}">
+  <dimension ref="A1:I29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="33">
+        <v>45478</v>
+      </c>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="33">
+        <v>45478</v>
+      </c>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="33">
+        <v>45478</v>
+      </c>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="33">
+        <v>45478</v>
+      </c>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="33">
+        <v>45540</v>
+      </c>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>6</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="33">
+        <v>45540</v>
+      </c>
+      <c r="I7" s="31"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>7</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="33">
+        <v>45540</v>
+      </c>
+      <c r="I8" s="47" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="33">
+        <v>45570</v>
+      </c>
+      <c r="I9" s="48"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>9</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="33">
+        <v>45570</v>
+      </c>
+      <c r="I10" s="48"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
+        <v>10</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="33">
+        <v>45570</v>
+      </c>
+      <c r="I11" s="48"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="33">
+        <v>45570</v>
+      </c>
+      <c r="I12" s="48"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <v>12</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="33">
+        <v>45570</v>
+      </c>
+      <c r="I13" s="49"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <v>13</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>231</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="33">
+        <v>45601</v>
+      </c>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
+        <v>14</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="33">
+        <v>45601</v>
+      </c>
+      <c r="I15" s="31"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
+        <v>15</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31" t="s">
+        <v>234</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="33">
+        <v>45601</v>
+      </c>
+      <c r="I16" s="31"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
+        <v>16</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="33">
+        <v>45601</v>
+      </c>
+      <c r="I17" s="31"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>17</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>238</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <v>18</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="I19" s="31"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
+        <v>19</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <v>20</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="31" t="s">
+        <v>240</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
+        <v>21</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="I22" s="31"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
+        <v>22</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="I23" s="31"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
+        <v>23</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="I24" s="31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>24</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="I25" s="31"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <v>25</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>253</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
+        <v>26</v>
+      </c>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
+        <v>27</v>
+      </c>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
+        <v>28</v>
+      </c>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I8:I13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{DA102657-E94B-48EE-BFFC-83D285FE49B3}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{B1A70736-90C1-4327-BBED-7B6250FBA11D}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{67EB4515-2EFD-4CE8-A073-48AFB54B6F72}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{C942389C-973F-4D80-91FB-5154B6AEFC52}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{93187212-1478-4F4B-9F4D-F2AC34DE8938}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{12C7ACEB-A3E8-41A1-9487-D1F3BC645E54}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{564D286E-172C-4379-B9E7-D3E716B9D02D}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{49D70BF8-E4FA-49D6-97DA-B1AFEB3CB793}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{C0B84D43-C684-446F-BB00-C970F7EB5AA6}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{52B097AA-525D-438A-9BE4-46E8C4F57B74}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{193CCC03-2803-4EB8-A713-464585DFD12C}"/>
+    <hyperlink ref="B14" r:id="rId12" display="Next Greater Element" xr:uid="{388ACCD3-0F7C-4B28-901D-778C94D5052D}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{F0573884-F4F8-4F3D-8EA0-30072FB9F2A4}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{9D314CF6-0E1F-4E76-8BCA-8A04388A8749}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{4038B9BA-5831-46AE-937D-F30B4C479828}"/>
+    <hyperlink ref="C18" r:id="rId16" xr:uid="{FE553D0E-6C61-49D0-BF65-09262A5BB70E}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{F7D19A98-A079-4B2C-B8A2-57320543B76A}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{D3D31468-D7E3-4ABC-9466-35F9F3924FF2}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{603E4F12-3FB4-4E78-AF07-39E3D4C1E3A6}"/>
+    <hyperlink ref="C20" r:id="rId20" xr:uid="{1DAD8EE9-DAA0-40E5-88FA-4AFE15FE7FF5}"/>
+    <hyperlink ref="B21" r:id="rId21" xr:uid="{075EC3F4-9D8A-4B1A-89D1-D245BB2BDB78}"/>
+    <hyperlink ref="B22" r:id="rId22" xr:uid="{ABE2AB72-B1EF-4099-A215-2C20759319E6}"/>
+    <hyperlink ref="B23" r:id="rId23" xr:uid="{8928490E-1C5D-4323-9787-4F9819777015}"/>
+    <hyperlink ref="B24" r:id="rId24" xr:uid="{5FC3202C-6214-4DD9-B083-C96E7A2BC030}"/>
+    <hyperlink ref="B25" r:id="rId25" xr:uid="{5DB55156-9F0B-4760-96F9-64DD8765B564}"/>
+    <hyperlink ref="C25" r:id="rId26" xr:uid="{1B83D244-F5FC-46C5-8B79-C16E1E8BE8B8}"/>
+    <hyperlink ref="B26" r:id="rId27" xr:uid="{9C8B79DD-304F-41DA-9E9D-1BE476B8111F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B044B48D-799A-414E-B0F2-FF78134EDD0D}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" s="31"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="I3" s="31"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="I4" s="31"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="31" t="s">
+        <v>261</v>
+      </c>
+      <c r="I5" s="31"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="I6" s="31"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="31">
+        <v>6</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>265</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>264</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="31">
+        <v>7</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="I8" s="31"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>268</v>
+      </c>
+      <c r="I9" s="31"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="31">
+        <v>9</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
+        <v>10</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="33">
+        <v>45297</v>
+      </c>
+      <c r="I11" s="31"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="33">
+        <v>45328</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="31"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="31"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F77F2F9D-7215-4572-8C58-D00CFD516460}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{BD5EFE02-6E71-40C9-A73C-0459BA1A82E6}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{7D332936-2725-4067-8C65-405910924700}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{269CB490-CDE5-4BA2-8744-8719CE001560}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{3E3562F9-B363-45F2-8321-F435099859CB}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{EEF4BFEA-AC46-4FA9-9D51-36856CE093D0}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{AA4854B1-30D3-47FE-9917-F4B320954E98}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{BC00D48B-E84C-4221-9912-0EF255B208C6}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{8A2AC746-1D6C-4C5F-ADF3-502906EEA41A}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{155CCAAD-EB16-4A4F-A94B-C258CDDCFD24}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{3502F4F6-C7C6-4361-BF1C-408AEF0FD478}"/>
+    <hyperlink ref="B12" r:id="rId12" xr:uid="{489CD3D5-1BF2-4ABA-AC1C-6E063BDCF837}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.85546875" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="8" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" style="38" customWidth="1"/>
+    <col min="5" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
     <col min="10" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -5740,7 +7148,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -5767,7 +7175,7 @@
         <v>215</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -5784,7 +7192,7 @@
       <c r="C3" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -5792,21 +7200,35 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>236</v>
+      </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="D4" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="35">
+        <v>45631</v>
+      </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -5817,7 +7239,7 @@
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="37"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -5828,7 +7250,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="D7" s="37"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -5839,7 +7261,7 @@
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="37"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -5850,7 +7272,7 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="D9" s="37"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -5861,7 +7283,7 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="37"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -5872,7 +7294,7 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="D11" s="37"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -5883,7 +7305,7 @@
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="D12" s="37"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -5894,7 +7316,7 @@
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="D13" s="37"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -5905,7 +7327,7 @@
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="D14" s="37"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -5916,7 +7338,7 @@
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="D15" s="37"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -5927,7 +7349,7 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -5938,7 +7360,7 @@
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -5949,7 +7371,7 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -5960,7 +7382,7 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -5971,7 +7393,7 @@
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -5982,7 +7404,7 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -5993,7 +7415,7 @@
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -6004,7 +7426,7 @@
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="D23" s="37"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -6015,7 +7437,7 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="37"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -6026,7 +7448,7 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -6037,7 +7459,7 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
+      <c r="D26" s="37"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -6048,7 +7470,7 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -6059,7 +7481,7 @@
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
+      <c r="D28" s="37"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -6070,7 +7492,7 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -6081,7 +7503,7 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="37"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -6092,7 +7514,7 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="37"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -6103,7 +7525,7 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="D32" s="37"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -6114,7 +7536,7 @@
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="D33" s="37"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -6125,7 +7547,7 @@
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="D34" s="37"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -6136,7 +7558,7 @@
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="D35" s="37"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -6147,7 +7569,7 @@
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -6158,7 +7580,7 @@
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -6169,7 +7591,7 @@
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="D38" s="37"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -6180,7 +7602,7 @@
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="D39" s="37"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -6191,7 +7613,7 @@
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="D40" s="37"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -6202,7 +7624,7 @@
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="D41" s="37"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -6213,7 +7635,7 @@
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -6224,7 +7646,7 @@
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="D43" s="37"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -6235,7 +7657,7 @@
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="D44" s="37"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -6246,7 +7668,7 @@
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="D45" s="37"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -6257,7 +7679,7 @@
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="D46" s="37"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -6268,7 +7690,7 @@
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="D47" s="37"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -7233,6 +8655,7 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0B00-000000000000}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{9DDE1FD4-7BEC-4F13-AFFB-BB6C2F020962}"/>
     <hyperlink ref="B3" r:id="rId3" xr:uid="{9627334B-BFCC-4765-B035-C45BFDF0DB30}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{54FCF323-F747-48C0-943D-06B5AC4D7D0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -7243,7 +8666,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10588,7 +12013,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -10660,7 +12087,9 @@
         <v>59</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="E3" s="3" t="s">
         <v>23</v>
       </c>
@@ -12586,7 +14015,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15952,7 +17383,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -17446,7 +18879,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -18633,7 +20068,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -19928,7 +21365,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21262,7 +22701,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -21380,12 +22821,14 @@
         <v>145</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="E5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
+      <c r="F5" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>11</v>
@@ -21783,8 +23226,12 @@
       <c r="B22" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
+      <c r="C22" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="E22" s="3" t="s">
         <v>23</v>
       </c>
@@ -21827,18 +23274,78 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A24" s="39">
+        <v>23</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>248</v>
+      </c>
+      <c r="I24" s="39"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>24</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="I25" s="31"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <v>25</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>250</v>
+      </c>
+      <c r="I26" s="31"/>
+    </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22837,8 +24344,12 @@
     <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0800-000013000000}"/>
     <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0800-000014000000}"/>
     <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0800-000015000000}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{2546F7AD-35A1-4EDB-A18C-F06925C9CC15}"/>
+    <hyperlink ref="C22" r:id="rId24" xr:uid="{57BF425E-2D1D-4E46-8B74-5F09F3A066DF}"/>
+    <hyperlink ref="B25" r:id="rId25" xr:uid="{603A698F-34B4-49B4-83EF-DE8F4BC406E0}"/>
+    <hyperlink ref="B26" r:id="rId26" xr:uid="{08EAF9B7-59DA-4F95-BA62-37992D3658FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
--- a/striver-a2z-sheet.xlsx
+++ b/striver-a2z-sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Code\striver-a2z-workspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEA6A1C1-FB6A-451E-980E-9F4BFCDDE86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB64EF72-A569-46EC-A274-865F2EC7BC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revsision" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,7 @@
     <sheet name="Stacks and Queues" sheetId="13" r:id="rId13"/>
     <sheet name="Sliding Window" sheetId="14" r:id="rId14"/>
     <sheet name="Dynamic Programming" sheetId="15" r:id="rId15"/>
+    <sheet name="Trie" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="306">
   <si>
     <t>S. No.</t>
   </si>
@@ -954,6 +955,9 @@
   </si>
   <si>
     <t>25/6/2024</t>
+  </si>
+  <si>
+    <t>Implement Trie</t>
   </si>
 </sst>
 </file>
@@ -1247,7 +1251,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1323,6 +1327,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9346,7 +9359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:G10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -10694,7 +10709,7 @@
     <hyperlink ref="B12" r:id="rId12" xr:uid="{00000000-0004-0000-0D00-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -10702,7 +10717,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:I1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -14140,7 +14157,203 @@
     <hyperlink ref="B4" r:id="rId4" xr:uid="{00000000-0004-0000-0E00-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBC028E-9826-40C3-AE80-2CD8F5BB3478}">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="49" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="42">
+        <v>1</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="53">
+        <v>45604</v>
+      </c>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="42">
+        <v>2</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="42">
+        <v>3</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="42">
+        <v>4</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="42">
+        <v>5</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="42">
+        <v>6</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="42">
+        <v>7</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{8201E85F-4C3E-4903-AF56-519D923A7B99}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -28250,8 +28463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/striver-a2z-sheet.xlsx
+++ b/striver-a2z-sheet.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="338">
   <si>
     <t>S. No.</t>
   </si>
@@ -1015,6 +1015,9 @@
   </si>
   <si>
     <t>all 3 methods</t>
+  </si>
+  <si>
+    <t>Maximum Sum Combination</t>
   </si>
   <si>
     <t>Word Break</t>
@@ -13791,13 +13794,27 @@
       <c r="A16" s="11">
         <v>15.0</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="B16" s="47" t="s">
+        <v>327</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="50" t="s">
+        <v>318</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="51">
+        <v>45564.0</v>
+      </c>
       <c r="I16" s="12"/>
     </row>
     <row r="17">
@@ -16782,8 +16799,10 @@
     <hyperlink r:id="rId16" ref="B14"/>
     <hyperlink r:id="rId17" ref="C14"/>
     <hyperlink r:id="rId18" ref="B15"/>
+    <hyperlink r:id="rId19" ref="B16"/>
+    <hyperlink r:id="rId20" ref="C16"/>
   </hyperlinks>
-  <drawing r:id="rId19"/>
+  <drawing r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -16839,7 +16858,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="54"/>
@@ -16854,7 +16873,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>77</v>
@@ -16871,7 +16890,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="54" t="s">
@@ -20288,7 +20307,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -20311,7 +20330,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -20334,7 +20353,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="57" t="s">
@@ -20359,7 +20378,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="3"/>
@@ -20382,7 +20401,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="57" t="s">
@@ -20407,7 +20426,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -20430,7 +20449,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="57" t="s">

--- a/striver-a2z-sheet.xlsx
+++ b/striver-a2z-sheet.xlsx
@@ -27,14 +27,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId23" roundtripDataChecksum="UpE/Zel4XEAxk2OEvgfvWDRsjH4SUGtUTCuO5z9wxPw="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId23" roundtripDataChecksum="6Yd2siFrBDMkdqj+gggjvpJllfPPgLPhYN20VOssv+c="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="338">
   <si>
     <t>S. No.</t>
   </si>
@@ -990,9 +990,6 @@
     <t>Sort K sorted array</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>Merge M sorted Lists</t>
   </si>
   <si>
@@ -1002,13 +999,13 @@
     <t>Task Scheduler</t>
   </si>
   <si>
+    <t>??</t>
+  </si>
+  <si>
     <t>Design Twitter</t>
   </si>
   <si>
     <t>Kth largest element in a stream of running integers</t>
-  </si>
-  <si>
-    <t>heapify time complexity proof</t>
   </si>
   <si>
     <t>K most frequent elements</t>
@@ -1018,6 +1015,9 @@
   </si>
   <si>
     <t>Maximum Sum Combination</t>
+  </si>
+  <si>
+    <t>Find Median from Data Stream</t>
   </si>
   <si>
     <t>Word Break</t>
@@ -13603,7 +13603,7 @@
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="50" t="s">
-        <v>318</v>
+        <v>68</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>171</v>
@@ -13624,7 +13624,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="48"/>
@@ -13647,13 +13647,13 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="47" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C10" s="47" t="s">
         <v>77</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>318</v>
+        <v>68</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>55</v>
@@ -13674,13 +13674,13 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="47" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C11" s="47" t="s">
         <v>77</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>55</v>
@@ -13705,7 +13705,7 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="50" t="s">
-        <v>318</v>
+        <v>68</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>55</v>
@@ -13751,34 +13751,44 @@
       <c r="B14" s="47" t="s">
         <v>324</v>
       </c>
-      <c r="C14" s="47" t="s">
-        <v>77</v>
-      </c>
+      <c r="C14" s="12"/>
       <c r="D14" s="50" t="s">
-        <v>318</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" s="51">
+        <v>45564.0</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="11">
         <v>14.0</v>
       </c>
       <c r="B15" s="47" t="s">
-        <v>325</v>
-      </c>
-      <c r="C15" s="12"/>
+        <v>326</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>77</v>
+      </c>
       <c r="D15" s="50" t="s">
-        <v>318</v>
+        <v>68</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>42</v>
+        <v>171</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>58</v>
       </c>
       <c r="G15" s="17" t="s">
         <v>43</v>
@@ -13786,9 +13796,7 @@
       <c r="H15" s="51">
         <v>45564.0</v>
       </c>
-      <c r="I15" s="11" t="s">
-        <v>326</v>
-      </c>
+      <c r="I15" s="12"/>
     </row>
     <row r="16">
       <c r="A16" s="11">
@@ -13797,14 +13805,12 @@
       <c r="B16" s="47" t="s">
         <v>327</v>
       </c>
-      <c r="C16" s="47" t="s">
-        <v>77</v>
-      </c>
+      <c r="C16" s="12"/>
       <c r="D16" s="50" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>171</v>
+        <v>55</v>
       </c>
       <c r="F16" s="21" t="s">
         <v>58</v>
@@ -13818,17 +13824,7 @@
       <c r="I16" s="12"/>
     </row>
     <row r="17">
-      <c r="A17" s="11">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
+      <c r="D17" s="52"/>
     </row>
     <row r="18">
       <c r="D18" s="52"/>
@@ -16775,9 +16771,6 @@
     </row>
     <row r="999">
       <c r="D999" s="52"/>
-    </row>
-    <row r="1000">
-      <c r="D1000" s="52"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -16797,12 +16790,11 @@
     <hyperlink r:id="rId14" ref="B12"/>
     <hyperlink r:id="rId15" ref="B13"/>
     <hyperlink r:id="rId16" ref="B14"/>
-    <hyperlink r:id="rId17" ref="C14"/>
-    <hyperlink r:id="rId18" ref="B15"/>
+    <hyperlink r:id="rId17" ref="B15"/>
+    <hyperlink r:id="rId18" ref="C15"/>
     <hyperlink r:id="rId19" ref="B16"/>
-    <hyperlink r:id="rId20" ref="C16"/>
   </hyperlinks>
-  <drawing r:id="rId21"/>
+  <drawing r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/striver-a2z-sheet.xlsx
+++ b/striver-a2z-sheet.xlsx
@@ -22,21 +22,22 @@
     <sheet state="visible" name="Heaps" sheetId="17" r:id="rId20"/>
     <sheet state="visible" name="Binary Trees-Traversal" sheetId="18" r:id="rId21"/>
     <sheet state="visible" name="Binary Trees-Medium" sheetId="19" r:id="rId22"/>
-    <sheet state="visible" name="Dynamic Programming" sheetId="20" r:id="rId23"/>
-    <sheet state="visible" name="Trie" sheetId="21" r:id="rId24"/>
+    <sheet state="visible" name="Binary Trees-Hard" sheetId="20" r:id="rId23"/>
+    <sheet state="visible" name="Dynamic Programming" sheetId="21" r:id="rId24"/>
+    <sheet state="visible" name="Trie" sheetId="22" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId25" roundtripDataChecksum="NbV8WAYs+jiaMuhIat1nvaNV7JPV0Kx632o7TvyiD5g="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId26" roundtripDataChecksum="8ocQP2xWNixeQVZRH/oc4Ni8+5jPwovCx2+bonTUpN4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1459" uniqueCount="371">
   <si>
     <t>S. No.</t>
   </si>
@@ -1055,6 +1056,72 @@
     <t>Diameter of Binary Tree</t>
   </si>
   <si>
+    <t>Check if two trees are identical or not</t>
+  </si>
+  <si>
+    <t>Zig Zag Traversal of Binary Tree</t>
+  </si>
+  <si>
+    <t>Boundary Traversal of Binary Tree</t>
+  </si>
+  <si>
+    <t>Vertical Order Traversal of Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">? check striver soln too </t>
+  </si>
+  <si>
+    <t>Top View of Binary Tree</t>
+  </si>
+  <si>
+    <t>Pre-req: Vertical order</t>
+  </si>
+  <si>
+    <t>Bottom View of Binary Tree</t>
+  </si>
+  <si>
+    <t>Right/Left View of Binary Tree</t>
+  </si>
+  <si>
+    <t>Symmetric Binary Tree</t>
+  </si>
+  <si>
+    <t>Maximum path sum</t>
+  </si>
+  <si>
+    <t>Root to Node Path in Binary Tree</t>
+  </si>
+  <si>
+    <t>LCA in Binary Tree</t>
+  </si>
+  <si>
+    <t>Maximum width of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Check for Children Sum Property</t>
+  </si>
+  <si>
+    <t>Print all the Nodes at a distance of K in a Binary Tree</t>
+  </si>
+  <si>
+    <t>Count total Nodes in a COMPLETE Binary Tree</t>
+  </si>
+  <si>
+    <t>Requirements needed to construct a Unique Binary Tree | Theory</t>
+  </si>
+  <si>
+    <t>Construct Binary Tree from inorder and preorder</t>
+  </si>
+  <si>
+    <t>Construct the Binary Tree from Postorder and Inorder Traversal</t>
+  </si>
+  <si>
+    <t>Similar to construct tree from inorder and preorder</t>
+  </si>
+  <si>
+    <t>Morris Inorder Traversal of a Binary Tree</t>
+  </si>
+  <si>
     <t>Word Break</t>
   </si>
   <si>
@@ -1430,11 +1497,11 @@
     <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
@@ -1452,14 +1519,14 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="15" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -1537,6 +1604,10 @@
 </file>
 
 <file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -17023,8 +17094,8 @@
         <v>331</v>
       </c>
       <c r="C6" s="44"/>
-      <c r="D6" s="44" t="s">
-        <v>170</v>
+      <c r="D6" s="48" t="s">
+        <v>68</v>
       </c>
       <c r="E6" s="44" t="s">
         <v>55</v>
@@ -17044,14 +17115,14 @@
       <c r="A7" s="44">
         <v>6.0</v>
       </c>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="49" t="s">
         <v>332</v>
       </c>
       <c r="C7" s="44"/>
-      <c r="D7" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="E7" s="49" t="s">
+      <c r="D7" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="48" t="s">
         <v>55</v>
       </c>
       <c r="F7" s="13" t="s">
@@ -17069,14 +17140,14 @@
       <c r="A8" s="44">
         <v>7.0</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="49" t="s">
         <v>333</v>
       </c>
       <c r="C8" s="44"/>
-      <c r="D8" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" s="49" t="s">
+      <c r="D8" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="48" t="s">
         <v>55</v>
       </c>
       <c r="F8" s="30" t="s">
@@ -17088,7 +17159,7 @@
       <c r="H8" s="46">
         <v>45568.0</v>
       </c>
-      <c r="I8" s="49" t="s">
+      <c r="I8" s="48" t="s">
         <v>334</v>
       </c>
     </row>
@@ -28059,6 +28130,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="9.0"/>
     <col customWidth="1" min="2" max="2" width="42.57"/>
+    <col customWidth="1" min="4" max="4" width="21.14"/>
+    <col customWidth="1" min="9" max="9" width="20.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -28098,7 +28171,7 @@
         <v>335</v>
       </c>
       <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="D2" s="56"/>
       <c r="E2" s="44" t="s">
         <v>55</v>
       </c>
@@ -28108,7 +28181,7 @@
       <c r="G2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="56">
+      <c r="H2" s="57">
         <v>45569.0</v>
       </c>
       <c r="I2" s="55"/>
@@ -28121,7 +28194,7 @@
         <v>336</v>
       </c>
       <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="53" t="s">
         <v>55</v>
       </c>
@@ -28131,10 +28204,10 @@
       <c r="G3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="56">
+      <c r="H3" s="57">
         <v>45569.0</v>
       </c>
-      <c r="I3" s="57" t="s">
+      <c r="I3" s="58" t="s">
         <v>337</v>
       </c>
     </row>
@@ -28146,7 +28219,7 @@
         <v>338</v>
       </c>
       <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="53" t="s">
         <v>55</v>
       </c>
@@ -28156,10 +28229,10 @@
       <c r="G4" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="56">
+      <c r="H4" s="57">
         <v>45569.0</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="58" t="s">
         <v>337</v>
       </c>
     </row>
@@ -28167,4137 +28240,5137 @@
       <c r="A5" s="53">
         <v>4.0</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="54" t="s">
+        <v>339</v>
+      </c>
       <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="57">
+        <v>45569.0</v>
+      </c>
       <c r="I5" s="55"/>
     </row>
     <row r="6">
       <c r="A6" s="53">
         <v>5.0</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="54" t="s">
+        <v>340</v>
+      </c>
       <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="57">
+        <v>45569.0</v>
+      </c>
       <c r="I6" s="55"/>
     </row>
     <row r="7">
       <c r="A7" s="53">
         <v>6.0</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="54" t="s">
+        <v>341</v>
+      </c>
       <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
+      <c r="D7" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="57">
+        <v>45569.0</v>
+      </c>
       <c r="I7" s="55"/>
     </row>
     <row r="8">
       <c r="A8" s="53">
         <v>7.0</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="54" t="s">
+        <v>342</v>
+      </c>
       <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
+      <c r="D8" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="57">
+        <v>45569.0</v>
+      </c>
       <c r="I8" s="55"/>
     </row>
     <row r="9">
       <c r="A9" s="53">
         <v>8.0</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="54" t="s">
+        <v>344</v>
+      </c>
       <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
+      <c r="D9" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="57">
+        <v>45569.0</v>
+      </c>
+      <c r="I9" s="58" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="53">
         <v>9.0</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="54" t="s">
+        <v>346</v>
+      </c>
       <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="57">
+        <v>45569.0</v>
+      </c>
       <c r="I10" s="55"/>
     </row>
     <row r="11">
       <c r="A11" s="53">
         <v>10.0</v>
       </c>
-      <c r="B11" s="55"/>
+      <c r="B11" s="54" t="s">
+        <v>347</v>
+      </c>
       <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
+      <c r="D11" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="57">
+        <v>45569.0</v>
+      </c>
       <c r="I11" s="55"/>
     </row>
     <row r="12">
       <c r="A12" s="53">
         <v>11.0</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="54" t="s">
+        <v>348</v>
+      </c>
       <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="57">
+        <v>45572.0</v>
+      </c>
       <c r="I12" s="55"/>
     </row>
     <row r="13">
       <c r="A13" s="53">
         <v>12.0</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="54" t="s">
+        <v>349</v>
+      </c>
       <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
+      <c r="D13" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="57">
+        <v>45572.0</v>
+      </c>
       <c r="I13" s="55"/>
     </row>
     <row r="14">
-      <c r="A14" s="53">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
+      <c r="A14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
     </row>
     <row r="15">
-      <c r="A15" s="53">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
+      <c r="A15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
     </row>
     <row r="16">
-      <c r="A16" s="53">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
+      <c r="A16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
     </row>
     <row r="17">
-      <c r="A17" s="53">
-        <v>16.0</v>
-      </c>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
+      <c r="A17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
     </row>
     <row r="18">
-      <c r="A18" s="53">
-        <v>17.0</v>
-      </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
+      <c r="A18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
     </row>
     <row r="19">
-      <c r="A19" s="53">
-        <v>18.0</v>
-      </c>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
+      <c r="A19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
     </row>
     <row r="20">
-      <c r="A20" s="53">
-        <v>19.0</v>
-      </c>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
+      <c r="A20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
     </row>
     <row r="21">
       <c r="A21" s="59"/>
+      <c r="D21" s="59"/>
       <c r="E21" s="59"/>
     </row>
     <row r="22">
       <c r="A22" s="59"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="59"/>
     </row>
     <row r="23">
       <c r="A23" s="59"/>
+      <c r="D23" s="59"/>
       <c r="E23" s="59"/>
     </row>
     <row r="24">
       <c r="A24" s="59"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="59"/>
     </row>
     <row r="25">
       <c r="A25" s="59"/>
+      <c r="D25" s="59"/>
       <c r="E25" s="59"/>
     </row>
     <row r="26">
       <c r="A26" s="59"/>
+      <c r="D26" s="59"/>
       <c r="E26" s="59"/>
     </row>
     <row r="27">
       <c r="A27" s="59"/>
+      <c r="D27" s="59"/>
       <c r="E27" s="59"/>
     </row>
     <row r="28">
       <c r="A28" s="59"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="59"/>
     </row>
     <row r="29">
       <c r="A29" s="59"/>
+      <c r="D29" s="59"/>
       <c r="E29" s="59"/>
     </row>
     <row r="30">
       <c r="A30" s="59"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="59"/>
     </row>
     <row r="31">
       <c r="A31" s="59"/>
+      <c r="D31" s="59"/>
       <c r="E31" s="59"/>
     </row>
     <row r="32">
       <c r="A32" s="59"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="59"/>
     </row>
     <row r="33">
       <c r="A33" s="59"/>
+      <c r="D33" s="59"/>
       <c r="E33" s="59"/>
     </row>
     <row r="34">
       <c r="A34" s="59"/>
+      <c r="D34" s="59"/>
       <c r="E34" s="59"/>
     </row>
     <row r="35">
       <c r="A35" s="59"/>
+      <c r="D35" s="59"/>
       <c r="E35" s="59"/>
     </row>
     <row r="36">
       <c r="A36" s="59"/>
+      <c r="D36" s="59"/>
       <c r="E36" s="59"/>
     </row>
     <row r="37">
       <c r="A37" s="59"/>
+      <c r="D37" s="59"/>
       <c r="E37" s="59"/>
     </row>
     <row r="38">
       <c r="A38" s="59"/>
+      <c r="D38" s="59"/>
       <c r="E38" s="59"/>
     </row>
     <row r="39">
       <c r="A39" s="59"/>
+      <c r="D39" s="59"/>
       <c r="E39" s="59"/>
     </row>
     <row r="40">
       <c r="A40" s="59"/>
+      <c r="D40" s="59"/>
       <c r="E40" s="59"/>
     </row>
     <row r="41">
       <c r="A41" s="59"/>
+      <c r="D41" s="59"/>
       <c r="E41" s="59"/>
     </row>
     <row r="42">
       <c r="A42" s="59"/>
+      <c r="D42" s="59"/>
       <c r="E42" s="59"/>
     </row>
     <row r="43">
       <c r="A43" s="59"/>
+      <c r="D43" s="59"/>
       <c r="E43" s="59"/>
     </row>
     <row r="44">
       <c r="A44" s="59"/>
+      <c r="D44" s="59"/>
       <c r="E44" s="59"/>
     </row>
     <row r="45">
       <c r="A45" s="59"/>
+      <c r="D45" s="59"/>
       <c r="E45" s="59"/>
     </row>
     <row r="46">
       <c r="A46" s="59"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="59"/>
     </row>
     <row r="47">
       <c r="A47" s="59"/>
+      <c r="D47" s="59"/>
       <c r="E47" s="59"/>
     </row>
     <row r="48">
       <c r="A48" s="59"/>
+      <c r="D48" s="59"/>
       <c r="E48" s="59"/>
     </row>
     <row r="49">
       <c r="A49" s="59"/>
+      <c r="D49" s="59"/>
       <c r="E49" s="59"/>
     </row>
     <row r="50">
       <c r="A50" s="59"/>
+      <c r="D50" s="59"/>
       <c r="E50" s="59"/>
     </row>
     <row r="51">
       <c r="A51" s="59"/>
+      <c r="D51" s="59"/>
       <c r="E51" s="59"/>
     </row>
     <row r="52">
       <c r="A52" s="59"/>
+      <c r="D52" s="59"/>
       <c r="E52" s="59"/>
     </row>
     <row r="53">
       <c r="A53" s="59"/>
+      <c r="D53" s="59"/>
       <c r="E53" s="59"/>
     </row>
     <row r="54">
       <c r="A54" s="59"/>
+      <c r="D54" s="59"/>
       <c r="E54" s="59"/>
     </row>
     <row r="55">
       <c r="A55" s="59"/>
+      <c r="D55" s="59"/>
       <c r="E55" s="59"/>
     </row>
     <row r="56">
       <c r="A56" s="59"/>
+      <c r="D56" s="59"/>
       <c r="E56" s="59"/>
     </row>
     <row r="57">
       <c r="A57" s="59"/>
+      <c r="D57" s="59"/>
       <c r="E57" s="59"/>
     </row>
     <row r="58">
       <c r="A58" s="59"/>
+      <c r="D58" s="59"/>
       <c r="E58" s="59"/>
     </row>
     <row r="59">
       <c r="A59" s="59"/>
+      <c r="D59" s="59"/>
       <c r="E59" s="59"/>
     </row>
     <row r="60">
       <c r="A60" s="59"/>
+      <c r="D60" s="59"/>
       <c r="E60" s="59"/>
     </row>
     <row r="61">
       <c r="A61" s="59"/>
+      <c r="D61" s="59"/>
       <c r="E61" s="59"/>
     </row>
     <row r="62">
       <c r="A62" s="59"/>
+      <c r="D62" s="59"/>
       <c r="E62" s="59"/>
     </row>
     <row r="63">
       <c r="A63" s="59"/>
+      <c r="D63" s="59"/>
       <c r="E63" s="59"/>
     </row>
     <row r="64">
       <c r="A64" s="59"/>
+      <c r="D64" s="59"/>
       <c r="E64" s="59"/>
     </row>
     <row r="65">
       <c r="A65" s="59"/>
+      <c r="D65" s="59"/>
       <c r="E65" s="59"/>
     </row>
     <row r="66">
       <c r="A66" s="59"/>
+      <c r="D66" s="59"/>
       <c r="E66" s="59"/>
     </row>
     <row r="67">
       <c r="A67" s="59"/>
+      <c r="D67" s="59"/>
       <c r="E67" s="59"/>
     </row>
     <row r="68">
       <c r="A68" s="59"/>
+      <c r="D68" s="59"/>
       <c r="E68" s="59"/>
     </row>
     <row r="69">
       <c r="A69" s="59"/>
+      <c r="D69" s="59"/>
       <c r="E69" s="59"/>
     </row>
     <row r="70">
       <c r="A70" s="59"/>
+      <c r="D70" s="59"/>
       <c r="E70" s="59"/>
     </row>
     <row r="71">
       <c r="A71" s="59"/>
+      <c r="D71" s="59"/>
       <c r="E71" s="59"/>
     </row>
     <row r="72">
       <c r="A72" s="59"/>
+      <c r="D72" s="59"/>
       <c r="E72" s="59"/>
     </row>
     <row r="73">
       <c r="A73" s="59"/>
+      <c r="D73" s="59"/>
       <c r="E73" s="59"/>
     </row>
     <row r="74">
       <c r="A74" s="59"/>
+      <c r="D74" s="59"/>
       <c r="E74" s="59"/>
     </row>
     <row r="75">
       <c r="A75" s="59"/>
+      <c r="D75" s="59"/>
       <c r="E75" s="59"/>
     </row>
     <row r="76">
       <c r="A76" s="59"/>
+      <c r="D76" s="59"/>
       <c r="E76" s="59"/>
     </row>
     <row r="77">
       <c r="A77" s="59"/>
+      <c r="D77" s="59"/>
       <c r="E77" s="59"/>
     </row>
     <row r="78">
       <c r="A78" s="59"/>
+      <c r="D78" s="59"/>
       <c r="E78" s="59"/>
     </row>
     <row r="79">
       <c r="A79" s="59"/>
+      <c r="D79" s="59"/>
       <c r="E79" s="59"/>
     </row>
     <row r="80">
       <c r="A80" s="59"/>
+      <c r="D80" s="59"/>
       <c r="E80" s="59"/>
     </row>
     <row r="81">
       <c r="A81" s="59"/>
+      <c r="D81" s="59"/>
       <c r="E81" s="59"/>
     </row>
     <row r="82">
       <c r="A82" s="59"/>
+      <c r="D82" s="59"/>
       <c r="E82" s="59"/>
     </row>
     <row r="83">
       <c r="A83" s="59"/>
+      <c r="D83" s="59"/>
       <c r="E83" s="59"/>
     </row>
     <row r="84">
       <c r="A84" s="59"/>
+      <c r="D84" s="59"/>
       <c r="E84" s="59"/>
     </row>
     <row r="85">
       <c r="A85" s="59"/>
+      <c r="D85" s="59"/>
       <c r="E85" s="59"/>
     </row>
     <row r="86">
       <c r="A86" s="59"/>
+      <c r="D86" s="59"/>
       <c r="E86" s="59"/>
     </row>
     <row r="87">
       <c r="A87" s="59"/>
+      <c r="D87" s="59"/>
       <c r="E87" s="59"/>
     </row>
     <row r="88">
       <c r="A88" s="59"/>
+      <c r="D88" s="59"/>
       <c r="E88" s="59"/>
     </row>
     <row r="89">
       <c r="A89" s="59"/>
+      <c r="D89" s="59"/>
       <c r="E89" s="59"/>
     </row>
     <row r="90">
       <c r="A90" s="59"/>
+      <c r="D90" s="59"/>
       <c r="E90" s="59"/>
     </row>
     <row r="91">
       <c r="A91" s="59"/>
+      <c r="D91" s="59"/>
       <c r="E91" s="59"/>
     </row>
     <row r="92">
       <c r="A92" s="59"/>
+      <c r="D92" s="59"/>
       <c r="E92" s="59"/>
     </row>
     <row r="93">
       <c r="A93" s="59"/>
+      <c r="D93" s="59"/>
       <c r="E93" s="59"/>
     </row>
     <row r="94">
       <c r="A94" s="59"/>
+      <c r="D94" s="59"/>
       <c r="E94" s="59"/>
     </row>
     <row r="95">
       <c r="A95" s="59"/>
+      <c r="D95" s="59"/>
       <c r="E95" s="59"/>
     </row>
     <row r="96">
       <c r="A96" s="59"/>
+      <c r="D96" s="59"/>
       <c r="E96" s="59"/>
     </row>
     <row r="97">
       <c r="A97" s="59"/>
+      <c r="D97" s="59"/>
       <c r="E97" s="59"/>
     </row>
     <row r="98">
       <c r="A98" s="59"/>
+      <c r="D98" s="59"/>
       <c r="E98" s="59"/>
     </row>
     <row r="99">
       <c r="A99" s="59"/>
+      <c r="D99" s="59"/>
       <c r="E99" s="59"/>
     </row>
     <row r="100">
       <c r="A100" s="59"/>
+      <c r="D100" s="59"/>
       <c r="E100" s="59"/>
     </row>
     <row r="101">
       <c r="A101" s="59"/>
+      <c r="D101" s="59"/>
       <c r="E101" s="59"/>
     </row>
     <row r="102">
       <c r="A102" s="59"/>
+      <c r="D102" s="59"/>
       <c r="E102" s="59"/>
     </row>
     <row r="103">
       <c r="A103" s="59"/>
+      <c r="D103" s="59"/>
       <c r="E103" s="59"/>
     </row>
     <row r="104">
       <c r="A104" s="59"/>
+      <c r="D104" s="59"/>
       <c r="E104" s="59"/>
     </row>
     <row r="105">
       <c r="A105" s="59"/>
+      <c r="D105" s="59"/>
       <c r="E105" s="59"/>
     </row>
     <row r="106">
       <c r="A106" s="59"/>
+      <c r="D106" s="59"/>
       <c r="E106" s="59"/>
     </row>
     <row r="107">
       <c r="A107" s="59"/>
+      <c r="D107" s="59"/>
       <c r="E107" s="59"/>
     </row>
     <row r="108">
       <c r="A108" s="59"/>
+      <c r="D108" s="59"/>
       <c r="E108" s="59"/>
     </row>
     <row r="109">
       <c r="A109" s="59"/>
+      <c r="D109" s="59"/>
       <c r="E109" s="59"/>
     </row>
     <row r="110">
       <c r="A110" s="59"/>
+      <c r="D110" s="59"/>
       <c r="E110" s="59"/>
     </row>
     <row r="111">
       <c r="A111" s="59"/>
+      <c r="D111" s="59"/>
       <c r="E111" s="59"/>
     </row>
     <row r="112">
       <c r="A112" s="59"/>
+      <c r="D112" s="59"/>
       <c r="E112" s="59"/>
     </row>
     <row r="113">
       <c r="A113" s="59"/>
+      <c r="D113" s="59"/>
       <c r="E113" s="59"/>
     </row>
     <row r="114">
       <c r="A114" s="59"/>
+      <c r="D114" s="59"/>
       <c r="E114" s="59"/>
     </row>
     <row r="115">
       <c r="A115" s="59"/>
+      <c r="D115" s="59"/>
       <c r="E115" s="59"/>
     </row>
     <row r="116">
       <c r="A116" s="59"/>
+      <c r="D116" s="59"/>
       <c r="E116" s="59"/>
     </row>
     <row r="117">
       <c r="A117" s="59"/>
+      <c r="D117" s="59"/>
       <c r="E117" s="59"/>
     </row>
     <row r="118">
       <c r="A118" s="59"/>
+      <c r="D118" s="59"/>
       <c r="E118" s="59"/>
     </row>
     <row r="119">
       <c r="A119" s="59"/>
+      <c r="D119" s="59"/>
       <c r="E119" s="59"/>
     </row>
     <row r="120">
       <c r="A120" s="59"/>
+      <c r="D120" s="59"/>
       <c r="E120" s="59"/>
     </row>
     <row r="121">
       <c r="A121" s="59"/>
+      <c r="D121" s="59"/>
       <c r="E121" s="59"/>
     </row>
     <row r="122">
       <c r="A122" s="59"/>
+      <c r="D122" s="59"/>
       <c r="E122" s="59"/>
     </row>
     <row r="123">
       <c r="A123" s="59"/>
+      <c r="D123" s="59"/>
       <c r="E123" s="59"/>
     </row>
     <row r="124">
       <c r="A124" s="59"/>
+      <c r="D124" s="59"/>
       <c r="E124" s="59"/>
     </row>
     <row r="125">
       <c r="A125" s="59"/>
+      <c r="D125" s="59"/>
       <c r="E125" s="59"/>
     </row>
     <row r="126">
       <c r="A126" s="59"/>
+      <c r="D126" s="59"/>
       <c r="E126" s="59"/>
     </row>
     <row r="127">
       <c r="A127" s="59"/>
+      <c r="D127" s="59"/>
       <c r="E127" s="59"/>
     </row>
     <row r="128">
       <c r="A128" s="59"/>
+      <c r="D128" s="59"/>
       <c r="E128" s="59"/>
     </row>
     <row r="129">
       <c r="A129" s="59"/>
+      <c r="D129" s="59"/>
       <c r="E129" s="59"/>
     </row>
     <row r="130">
       <c r="A130" s="59"/>
+      <c r="D130" s="59"/>
       <c r="E130" s="59"/>
     </row>
     <row r="131">
       <c r="A131" s="59"/>
+      <c r="D131" s="59"/>
       <c r="E131" s="59"/>
     </row>
     <row r="132">
       <c r="A132" s="59"/>
+      <c r="D132" s="59"/>
       <c r="E132" s="59"/>
     </row>
     <row r="133">
       <c r="A133" s="59"/>
+      <c r="D133" s="59"/>
       <c r="E133" s="59"/>
     </row>
     <row r="134">
       <c r="A134" s="59"/>
+      <c r="D134" s="59"/>
       <c r="E134" s="59"/>
     </row>
     <row r="135">
       <c r="A135" s="59"/>
+      <c r="D135" s="59"/>
       <c r="E135" s="59"/>
     </row>
     <row r="136">
       <c r="A136" s="59"/>
+      <c r="D136" s="59"/>
       <c r="E136" s="59"/>
     </row>
     <row r="137">
       <c r="A137" s="59"/>
+      <c r="D137" s="59"/>
       <c r="E137" s="59"/>
     </row>
     <row r="138">
       <c r="A138" s="59"/>
+      <c r="D138" s="59"/>
       <c r="E138" s="59"/>
     </row>
     <row r="139">
       <c r="A139" s="59"/>
+      <c r="D139" s="59"/>
       <c r="E139" s="59"/>
     </row>
     <row r="140">
       <c r="A140" s="59"/>
+      <c r="D140" s="59"/>
       <c r="E140" s="59"/>
     </row>
     <row r="141">
       <c r="A141" s="59"/>
+      <c r="D141" s="59"/>
       <c r="E141" s="59"/>
     </row>
     <row r="142">
       <c r="A142" s="59"/>
+      <c r="D142" s="59"/>
       <c r="E142" s="59"/>
     </row>
     <row r="143">
       <c r="A143" s="59"/>
+      <c r="D143" s="59"/>
       <c r="E143" s="59"/>
     </row>
     <row r="144">
       <c r="A144" s="59"/>
+      <c r="D144" s="59"/>
       <c r="E144" s="59"/>
     </row>
     <row r="145">
       <c r="A145" s="59"/>
+      <c r="D145" s="59"/>
       <c r="E145" s="59"/>
     </row>
     <row r="146">
       <c r="A146" s="59"/>
+      <c r="D146" s="59"/>
       <c r="E146" s="59"/>
     </row>
     <row r="147">
       <c r="A147" s="59"/>
+      <c r="D147" s="59"/>
       <c r="E147" s="59"/>
     </row>
     <row r="148">
       <c r="A148" s="59"/>
+      <c r="D148" s="59"/>
       <c r="E148" s="59"/>
     </row>
     <row r="149">
       <c r="A149" s="59"/>
+      <c r="D149" s="59"/>
       <c r="E149" s="59"/>
     </row>
     <row r="150">
       <c r="A150" s="59"/>
+      <c r="D150" s="59"/>
       <c r="E150" s="59"/>
     </row>
     <row r="151">
       <c r="A151" s="59"/>
+      <c r="D151" s="59"/>
       <c r="E151" s="59"/>
     </row>
     <row r="152">
       <c r="A152" s="59"/>
+      <c r="D152" s="59"/>
       <c r="E152" s="59"/>
     </row>
     <row r="153">
       <c r="A153" s="59"/>
+      <c r="D153" s="59"/>
       <c r="E153" s="59"/>
     </row>
     <row r="154">
       <c r="A154" s="59"/>
+      <c r="D154" s="59"/>
       <c r="E154" s="59"/>
     </row>
     <row r="155">
       <c r="A155" s="59"/>
+      <c r="D155" s="59"/>
       <c r="E155" s="59"/>
     </row>
     <row r="156">
       <c r="A156" s="59"/>
+      <c r="D156" s="59"/>
       <c r="E156" s="59"/>
     </row>
     <row r="157">
       <c r="A157" s="59"/>
+      <c r="D157" s="59"/>
       <c r="E157" s="59"/>
     </row>
     <row r="158">
       <c r="A158" s="59"/>
+      <c r="D158" s="59"/>
       <c r="E158" s="59"/>
     </row>
     <row r="159">
       <c r="A159" s="59"/>
+      <c r="D159" s="59"/>
       <c r="E159" s="59"/>
     </row>
     <row r="160">
       <c r="A160" s="59"/>
+      <c r="D160" s="59"/>
       <c r="E160" s="59"/>
     </row>
     <row r="161">
       <c r="A161" s="59"/>
+      <c r="D161" s="59"/>
       <c r="E161" s="59"/>
     </row>
     <row r="162">
       <c r="A162" s="59"/>
+      <c r="D162" s="59"/>
       <c r="E162" s="59"/>
     </row>
     <row r="163">
       <c r="A163" s="59"/>
+      <c r="D163" s="59"/>
       <c r="E163" s="59"/>
     </row>
     <row r="164">
       <c r="A164" s="59"/>
+      <c r="D164" s="59"/>
       <c r="E164" s="59"/>
     </row>
     <row r="165">
       <c r="A165" s="59"/>
+      <c r="D165" s="59"/>
       <c r="E165" s="59"/>
     </row>
     <row r="166">
       <c r="A166" s="59"/>
+      <c r="D166" s="59"/>
       <c r="E166" s="59"/>
     </row>
     <row r="167">
       <c r="A167" s="59"/>
+      <c r="D167" s="59"/>
       <c r="E167" s="59"/>
     </row>
     <row r="168">
       <c r="A168" s="59"/>
+      <c r="D168" s="59"/>
       <c r="E168" s="59"/>
     </row>
     <row r="169">
       <c r="A169" s="59"/>
+      <c r="D169" s="59"/>
       <c r="E169" s="59"/>
     </row>
     <row r="170">
       <c r="A170" s="59"/>
+      <c r="D170" s="59"/>
       <c r="E170" s="59"/>
     </row>
     <row r="171">
       <c r="A171" s="59"/>
+      <c r="D171" s="59"/>
       <c r="E171" s="59"/>
     </row>
     <row r="172">
       <c r="A172" s="59"/>
+      <c r="D172" s="59"/>
       <c r="E172" s="59"/>
     </row>
     <row r="173">
       <c r="A173" s="59"/>
+      <c r="D173" s="59"/>
       <c r="E173" s="59"/>
     </row>
     <row r="174">
       <c r="A174" s="59"/>
+      <c r="D174" s="59"/>
       <c r="E174" s="59"/>
     </row>
     <row r="175">
       <c r="A175" s="59"/>
+      <c r="D175" s="59"/>
       <c r="E175" s="59"/>
     </row>
     <row r="176">
       <c r="A176" s="59"/>
+      <c r="D176" s="59"/>
       <c r="E176" s="59"/>
     </row>
     <row r="177">
       <c r="A177" s="59"/>
+      <c r="D177" s="59"/>
       <c r="E177" s="59"/>
     </row>
     <row r="178">
       <c r="A178" s="59"/>
+      <c r="D178" s="59"/>
       <c r="E178" s="59"/>
     </row>
     <row r="179">
       <c r="A179" s="59"/>
+      <c r="D179" s="59"/>
       <c r="E179" s="59"/>
     </row>
     <row r="180">
       <c r="A180" s="59"/>
+      <c r="D180" s="59"/>
       <c r="E180" s="59"/>
     </row>
     <row r="181">
       <c r="A181" s="59"/>
+      <c r="D181" s="59"/>
       <c r="E181" s="59"/>
     </row>
     <row r="182">
       <c r="A182" s="59"/>
+      <c r="D182" s="59"/>
       <c r="E182" s="59"/>
     </row>
     <row r="183">
       <c r="A183" s="59"/>
+      <c r="D183" s="59"/>
       <c r="E183" s="59"/>
     </row>
     <row r="184">
       <c r="A184" s="59"/>
+      <c r="D184" s="59"/>
       <c r="E184" s="59"/>
     </row>
     <row r="185">
       <c r="A185" s="59"/>
+      <c r="D185" s="59"/>
       <c r="E185" s="59"/>
     </row>
     <row r="186">
       <c r="A186" s="59"/>
+      <c r="D186" s="59"/>
       <c r="E186" s="59"/>
     </row>
     <row r="187">
       <c r="A187" s="59"/>
+      <c r="D187" s="59"/>
       <c r="E187" s="59"/>
     </row>
     <row r="188">
       <c r="A188" s="59"/>
+      <c r="D188" s="59"/>
       <c r="E188" s="59"/>
     </row>
     <row r="189">
       <c r="A189" s="59"/>
+      <c r="D189" s="59"/>
       <c r="E189" s="59"/>
     </row>
     <row r="190">
       <c r="A190" s="59"/>
+      <c r="D190" s="59"/>
       <c r="E190" s="59"/>
     </row>
     <row r="191">
       <c r="A191" s="59"/>
+      <c r="D191" s="59"/>
       <c r="E191" s="59"/>
     </row>
     <row r="192">
       <c r="A192" s="59"/>
+      <c r="D192" s="59"/>
       <c r="E192" s="59"/>
     </row>
     <row r="193">
       <c r="A193" s="59"/>
+      <c r="D193" s="59"/>
       <c r="E193" s="59"/>
     </row>
     <row r="194">
       <c r="A194" s="59"/>
+      <c r="D194" s="59"/>
       <c r="E194" s="59"/>
     </row>
     <row r="195">
       <c r="A195" s="59"/>
+      <c r="D195" s="59"/>
       <c r="E195" s="59"/>
     </row>
     <row r="196">
       <c r="A196" s="59"/>
+      <c r="D196" s="59"/>
       <c r="E196" s="59"/>
     </row>
     <row r="197">
       <c r="A197" s="59"/>
+      <c r="D197" s="59"/>
       <c r="E197" s="59"/>
     </row>
     <row r="198">
       <c r="A198" s="59"/>
+      <c r="D198" s="59"/>
       <c r="E198" s="59"/>
     </row>
     <row r="199">
       <c r="A199" s="59"/>
+      <c r="D199" s="59"/>
       <c r="E199" s="59"/>
     </row>
     <row r="200">
       <c r="A200" s="59"/>
+      <c r="D200" s="59"/>
       <c r="E200" s="59"/>
     </row>
     <row r="201">
       <c r="A201" s="59"/>
+      <c r="D201" s="59"/>
       <c r="E201" s="59"/>
     </row>
     <row r="202">
       <c r="A202" s="59"/>
+      <c r="D202" s="59"/>
       <c r="E202" s="59"/>
     </row>
     <row r="203">
       <c r="A203" s="59"/>
+      <c r="D203" s="59"/>
       <c r="E203" s="59"/>
     </row>
     <row r="204">
       <c r="A204" s="59"/>
+      <c r="D204" s="59"/>
       <c r="E204" s="59"/>
     </row>
     <row r="205">
       <c r="A205" s="59"/>
+      <c r="D205" s="59"/>
       <c r="E205" s="59"/>
     </row>
     <row r="206">
       <c r="A206" s="59"/>
+      <c r="D206" s="59"/>
       <c r="E206" s="59"/>
     </row>
     <row r="207">
       <c r="A207" s="59"/>
+      <c r="D207" s="59"/>
       <c r="E207" s="59"/>
     </row>
     <row r="208">
       <c r="A208" s="59"/>
+      <c r="D208" s="59"/>
       <c r="E208" s="59"/>
     </row>
     <row r="209">
       <c r="A209" s="59"/>
+      <c r="D209" s="59"/>
       <c r="E209" s="59"/>
     </row>
     <row r="210">
       <c r="A210" s="59"/>
+      <c r="D210" s="59"/>
       <c r="E210" s="59"/>
     </row>
     <row r="211">
       <c r="A211" s="59"/>
+      <c r="D211" s="59"/>
       <c r="E211" s="59"/>
     </row>
     <row r="212">
       <c r="A212" s="59"/>
+      <c r="D212" s="59"/>
       <c r="E212" s="59"/>
     </row>
     <row r="213">
       <c r="A213" s="59"/>
+      <c r="D213" s="59"/>
       <c r="E213" s="59"/>
     </row>
     <row r="214">
       <c r="A214" s="59"/>
+      <c r="D214" s="59"/>
       <c r="E214" s="59"/>
     </row>
     <row r="215">
       <c r="A215" s="59"/>
+      <c r="D215" s="59"/>
       <c r="E215" s="59"/>
     </row>
     <row r="216">
       <c r="A216" s="59"/>
+      <c r="D216" s="59"/>
       <c r="E216" s="59"/>
     </row>
     <row r="217">
       <c r="A217" s="59"/>
+      <c r="D217" s="59"/>
       <c r="E217" s="59"/>
     </row>
     <row r="218">
       <c r="A218" s="59"/>
+      <c r="D218" s="59"/>
       <c r="E218" s="59"/>
     </row>
     <row r="219">
       <c r="A219" s="59"/>
+      <c r="D219" s="59"/>
       <c r="E219" s="59"/>
     </row>
     <row r="220">
       <c r="A220" s="59"/>
+      <c r="D220" s="59"/>
       <c r="E220" s="59"/>
     </row>
     <row r="221">
       <c r="A221" s="59"/>
+      <c r="D221" s="59"/>
       <c r="E221" s="59"/>
     </row>
     <row r="222">
       <c r="A222" s="59"/>
+      <c r="D222" s="59"/>
       <c r="E222" s="59"/>
     </row>
     <row r="223">
       <c r="A223" s="59"/>
+      <c r="D223" s="59"/>
       <c r="E223" s="59"/>
     </row>
     <row r="224">
       <c r="A224" s="59"/>
+      <c r="D224" s="59"/>
       <c r="E224" s="59"/>
     </row>
     <row r="225">
       <c r="A225" s="59"/>
+      <c r="D225" s="59"/>
       <c r="E225" s="59"/>
     </row>
     <row r="226">
       <c r="A226" s="59"/>
+      <c r="D226" s="59"/>
       <c r="E226" s="59"/>
     </row>
     <row r="227">
       <c r="A227" s="59"/>
+      <c r="D227" s="59"/>
       <c r="E227" s="59"/>
     </row>
     <row r="228">
       <c r="A228" s="59"/>
+      <c r="D228" s="59"/>
       <c r="E228" s="59"/>
     </row>
     <row r="229">
       <c r="A229" s="59"/>
+      <c r="D229" s="59"/>
       <c r="E229" s="59"/>
     </row>
     <row r="230">
       <c r="A230" s="59"/>
+      <c r="D230" s="59"/>
       <c r="E230" s="59"/>
     </row>
     <row r="231">
       <c r="A231" s="59"/>
+      <c r="D231" s="59"/>
       <c r="E231" s="59"/>
     </row>
     <row r="232">
       <c r="A232" s="59"/>
+      <c r="D232" s="59"/>
       <c r="E232" s="59"/>
     </row>
     <row r="233">
       <c r="A233" s="59"/>
+      <c r="D233" s="59"/>
       <c r="E233" s="59"/>
     </row>
     <row r="234">
       <c r="A234" s="59"/>
+      <c r="D234" s="59"/>
       <c r="E234" s="59"/>
     </row>
     <row r="235">
       <c r="A235" s="59"/>
+      <c r="D235" s="59"/>
       <c r="E235" s="59"/>
     </row>
     <row r="236">
       <c r="A236" s="59"/>
+      <c r="D236" s="59"/>
       <c r="E236" s="59"/>
     </row>
     <row r="237">
       <c r="A237" s="59"/>
+      <c r="D237" s="59"/>
       <c r="E237" s="59"/>
     </row>
     <row r="238">
       <c r="A238" s="59"/>
+      <c r="D238" s="59"/>
       <c r="E238" s="59"/>
     </row>
     <row r="239">
       <c r="A239" s="59"/>
+      <c r="D239" s="59"/>
       <c r="E239" s="59"/>
     </row>
     <row r="240">
       <c r="A240" s="59"/>
+      <c r="D240" s="59"/>
       <c r="E240" s="59"/>
     </row>
     <row r="241">
       <c r="A241" s="59"/>
+      <c r="D241" s="59"/>
       <c r="E241" s="59"/>
     </row>
     <row r="242">
       <c r="A242" s="59"/>
+      <c r="D242" s="59"/>
       <c r="E242" s="59"/>
     </row>
     <row r="243">
       <c r="A243" s="59"/>
+      <c r="D243" s="59"/>
       <c r="E243" s="59"/>
     </row>
     <row r="244">
       <c r="A244" s="59"/>
+      <c r="D244" s="59"/>
       <c r="E244" s="59"/>
     </row>
     <row r="245">
       <c r="A245" s="59"/>
+      <c r="D245" s="59"/>
       <c r="E245" s="59"/>
     </row>
     <row r="246">
       <c r="A246" s="59"/>
+      <c r="D246" s="59"/>
       <c r="E246" s="59"/>
     </row>
     <row r="247">
       <c r="A247" s="59"/>
+      <c r="D247" s="59"/>
       <c r="E247" s="59"/>
     </row>
     <row r="248">
       <c r="A248" s="59"/>
+      <c r="D248" s="59"/>
       <c r="E248" s="59"/>
     </row>
     <row r="249">
       <c r="A249" s="59"/>
+      <c r="D249" s="59"/>
       <c r="E249" s="59"/>
     </row>
     <row r="250">
       <c r="A250" s="59"/>
+      <c r="D250" s="59"/>
       <c r="E250" s="59"/>
     </row>
     <row r="251">
       <c r="A251" s="59"/>
+      <c r="D251" s="59"/>
       <c r="E251" s="59"/>
     </row>
     <row r="252">
       <c r="A252" s="59"/>
+      <c r="D252" s="59"/>
       <c r="E252" s="59"/>
     </row>
     <row r="253">
       <c r="A253" s="59"/>
+      <c r="D253" s="59"/>
       <c r="E253" s="59"/>
     </row>
     <row r="254">
       <c r="A254" s="59"/>
+      <c r="D254" s="59"/>
       <c r="E254" s="59"/>
     </row>
     <row r="255">
       <c r="A255" s="59"/>
+      <c r="D255" s="59"/>
       <c r="E255" s="59"/>
     </row>
     <row r="256">
       <c r="A256" s="59"/>
+      <c r="D256" s="59"/>
       <c r="E256" s="59"/>
     </row>
     <row r="257">
       <c r="A257" s="59"/>
+      <c r="D257" s="59"/>
       <c r="E257" s="59"/>
     </row>
     <row r="258">
       <c r="A258" s="59"/>
+      <c r="D258" s="59"/>
       <c r="E258" s="59"/>
     </row>
     <row r="259">
       <c r="A259" s="59"/>
+      <c r="D259" s="59"/>
       <c r="E259" s="59"/>
     </row>
     <row r="260">
       <c r="A260" s="59"/>
+      <c r="D260" s="59"/>
       <c r="E260" s="59"/>
     </row>
     <row r="261">
       <c r="A261" s="59"/>
+      <c r="D261" s="59"/>
       <c r="E261" s="59"/>
     </row>
     <row r="262">
       <c r="A262" s="59"/>
+      <c r="D262" s="59"/>
       <c r="E262" s="59"/>
     </row>
     <row r="263">
       <c r="A263" s="59"/>
+      <c r="D263" s="59"/>
       <c r="E263" s="59"/>
     </row>
     <row r="264">
       <c r="A264" s="59"/>
+      <c r="D264" s="59"/>
       <c r="E264" s="59"/>
     </row>
     <row r="265">
       <c r="A265" s="59"/>
+      <c r="D265" s="59"/>
       <c r="E265" s="59"/>
     </row>
     <row r="266">
       <c r="A266" s="59"/>
+      <c r="D266" s="59"/>
       <c r="E266" s="59"/>
     </row>
     <row r="267">
       <c r="A267" s="59"/>
+      <c r="D267" s="59"/>
       <c r="E267" s="59"/>
     </row>
     <row r="268">
       <c r="A268" s="59"/>
+      <c r="D268" s="59"/>
       <c r="E268" s="59"/>
     </row>
     <row r="269">
       <c r="A269" s="59"/>
+      <c r="D269" s="59"/>
       <c r="E269" s="59"/>
     </row>
     <row r="270">
       <c r="A270" s="59"/>
+      <c r="D270" s="59"/>
       <c r="E270" s="59"/>
     </row>
     <row r="271">
       <c r="A271" s="59"/>
+      <c r="D271" s="59"/>
       <c r="E271" s="59"/>
     </row>
     <row r="272">
       <c r="A272" s="59"/>
+      <c r="D272" s="59"/>
       <c r="E272" s="59"/>
     </row>
     <row r="273">
       <c r="A273" s="59"/>
+      <c r="D273" s="59"/>
       <c r="E273" s="59"/>
     </row>
     <row r="274">
       <c r="A274" s="59"/>
+      <c r="D274" s="59"/>
       <c r="E274" s="59"/>
     </row>
     <row r="275">
       <c r="A275" s="59"/>
+      <c r="D275" s="59"/>
       <c r="E275" s="59"/>
     </row>
     <row r="276">
       <c r="A276" s="59"/>
+      <c r="D276" s="59"/>
       <c r="E276" s="59"/>
     </row>
     <row r="277">
       <c r="A277" s="59"/>
+      <c r="D277" s="59"/>
       <c r="E277" s="59"/>
     </row>
     <row r="278">
       <c r="A278" s="59"/>
+      <c r="D278" s="59"/>
       <c r="E278" s="59"/>
     </row>
     <row r="279">
       <c r="A279" s="59"/>
+      <c r="D279" s="59"/>
       <c r="E279" s="59"/>
     </row>
     <row r="280">
       <c r="A280" s="59"/>
+      <c r="D280" s="59"/>
       <c r="E280" s="59"/>
     </row>
     <row r="281">
       <c r="A281" s="59"/>
+      <c r="D281" s="59"/>
       <c r="E281" s="59"/>
     </row>
     <row r="282">
       <c r="A282" s="59"/>
+      <c r="D282" s="59"/>
       <c r="E282" s="59"/>
     </row>
     <row r="283">
       <c r="A283" s="59"/>
+      <c r="D283" s="59"/>
       <c r="E283" s="59"/>
     </row>
     <row r="284">
       <c r="A284" s="59"/>
+      <c r="D284" s="59"/>
       <c r="E284" s="59"/>
     </row>
     <row r="285">
       <c r="A285" s="59"/>
+      <c r="D285" s="59"/>
       <c r="E285" s="59"/>
     </row>
     <row r="286">
       <c r="A286" s="59"/>
+      <c r="D286" s="59"/>
       <c r="E286" s="59"/>
     </row>
     <row r="287">
       <c r="A287" s="59"/>
+      <c r="D287" s="59"/>
       <c r="E287" s="59"/>
     </row>
     <row r="288">
       <c r="A288" s="59"/>
+      <c r="D288" s="59"/>
       <c r="E288" s="59"/>
     </row>
     <row r="289">
       <c r="A289" s="59"/>
+      <c r="D289" s="59"/>
       <c r="E289" s="59"/>
     </row>
     <row r="290">
       <c r="A290" s="59"/>
+      <c r="D290" s="59"/>
       <c r="E290" s="59"/>
     </row>
     <row r="291">
       <c r="A291" s="59"/>
+      <c r="D291" s="59"/>
       <c r="E291" s="59"/>
     </row>
     <row r="292">
       <c r="A292" s="59"/>
+      <c r="D292" s="59"/>
       <c r="E292" s="59"/>
     </row>
     <row r="293">
       <c r="A293" s="59"/>
+      <c r="D293" s="59"/>
       <c r="E293" s="59"/>
     </row>
     <row r="294">
       <c r="A294" s="59"/>
+      <c r="D294" s="59"/>
       <c r="E294" s="59"/>
     </row>
     <row r="295">
       <c r="A295" s="59"/>
+      <c r="D295" s="59"/>
       <c r="E295" s="59"/>
     </row>
     <row r="296">
       <c r="A296" s="59"/>
+      <c r="D296" s="59"/>
       <c r="E296" s="59"/>
     </row>
     <row r="297">
       <c r="A297" s="59"/>
+      <c r="D297" s="59"/>
       <c r="E297" s="59"/>
     </row>
     <row r="298">
       <c r="A298" s="59"/>
+      <c r="D298" s="59"/>
       <c r="E298" s="59"/>
     </row>
     <row r="299">
       <c r="A299" s="59"/>
+      <c r="D299" s="59"/>
       <c r="E299" s="59"/>
     </row>
     <row r="300">
       <c r="A300" s="59"/>
+      <c r="D300" s="59"/>
       <c r="E300" s="59"/>
     </row>
     <row r="301">
       <c r="A301" s="59"/>
+      <c r="D301" s="59"/>
       <c r="E301" s="59"/>
     </row>
     <row r="302">
       <c r="A302" s="59"/>
+      <c r="D302" s="59"/>
       <c r="E302" s="59"/>
     </row>
     <row r="303">
       <c r="A303" s="59"/>
+      <c r="D303" s="59"/>
       <c r="E303" s="59"/>
     </row>
     <row r="304">
       <c r="A304" s="59"/>
+      <c r="D304" s="59"/>
       <c r="E304" s="59"/>
     </row>
     <row r="305">
       <c r="A305" s="59"/>
+      <c r="D305" s="59"/>
       <c r="E305" s="59"/>
     </row>
     <row r="306">
       <c r="A306" s="59"/>
+      <c r="D306" s="59"/>
       <c r="E306" s="59"/>
     </row>
     <row r="307">
       <c r="A307" s="59"/>
+      <c r="D307" s="59"/>
       <c r="E307" s="59"/>
     </row>
     <row r="308">
       <c r="A308" s="59"/>
+      <c r="D308" s="59"/>
       <c r="E308" s="59"/>
     </row>
     <row r="309">
       <c r="A309" s="59"/>
+      <c r="D309" s="59"/>
       <c r="E309" s="59"/>
     </row>
     <row r="310">
       <c r="A310" s="59"/>
+      <c r="D310" s="59"/>
       <c r="E310" s="59"/>
     </row>
     <row r="311">
       <c r="A311" s="59"/>
+      <c r="D311" s="59"/>
       <c r="E311" s="59"/>
     </row>
     <row r="312">
       <c r="A312" s="59"/>
+      <c r="D312" s="59"/>
       <c r="E312" s="59"/>
     </row>
     <row r="313">
       <c r="A313" s="59"/>
+      <c r="D313" s="59"/>
       <c r="E313" s="59"/>
     </row>
     <row r="314">
       <c r="A314" s="59"/>
+      <c r="D314" s="59"/>
       <c r="E314" s="59"/>
     </row>
     <row r="315">
       <c r="A315" s="59"/>
+      <c r="D315" s="59"/>
       <c r="E315" s="59"/>
     </row>
     <row r="316">
       <c r="A316" s="59"/>
+      <c r="D316" s="59"/>
       <c r="E316" s="59"/>
     </row>
     <row r="317">
       <c r="A317" s="59"/>
+      <c r="D317" s="59"/>
       <c r="E317" s="59"/>
     </row>
     <row r="318">
       <c r="A318" s="59"/>
+      <c r="D318" s="59"/>
       <c r="E318" s="59"/>
     </row>
     <row r="319">
       <c r="A319" s="59"/>
+      <c r="D319" s="59"/>
       <c r="E319" s="59"/>
     </row>
     <row r="320">
       <c r="A320" s="59"/>
+      <c r="D320" s="59"/>
       <c r="E320" s="59"/>
     </row>
     <row r="321">
       <c r="A321" s="59"/>
+      <c r="D321" s="59"/>
       <c r="E321" s="59"/>
     </row>
     <row r="322">
       <c r="A322" s="59"/>
+      <c r="D322" s="59"/>
       <c r="E322" s="59"/>
     </row>
     <row r="323">
       <c r="A323" s="59"/>
+      <c r="D323" s="59"/>
       <c r="E323" s="59"/>
     </row>
     <row r="324">
       <c r="A324" s="59"/>
+      <c r="D324" s="59"/>
       <c r="E324" s="59"/>
     </row>
     <row r="325">
       <c r="A325" s="59"/>
+      <c r="D325" s="59"/>
       <c r="E325" s="59"/>
     </row>
     <row r="326">
       <c r="A326" s="59"/>
+      <c r="D326" s="59"/>
       <c r="E326" s="59"/>
     </row>
     <row r="327">
       <c r="A327" s="59"/>
+      <c r="D327" s="59"/>
       <c r="E327" s="59"/>
     </row>
     <row r="328">
       <c r="A328" s="59"/>
+      <c r="D328" s="59"/>
       <c r="E328" s="59"/>
     </row>
     <row r="329">
       <c r="A329" s="59"/>
+      <c r="D329" s="59"/>
       <c r="E329" s="59"/>
     </row>
     <row r="330">
       <c r="A330" s="59"/>
+      <c r="D330" s="59"/>
       <c r="E330" s="59"/>
     </row>
     <row r="331">
       <c r="A331" s="59"/>
+      <c r="D331" s="59"/>
       <c r="E331" s="59"/>
     </row>
     <row r="332">
       <c r="A332" s="59"/>
+      <c r="D332" s="59"/>
       <c r="E332" s="59"/>
     </row>
     <row r="333">
       <c r="A333" s="59"/>
+      <c r="D333" s="59"/>
       <c r="E333" s="59"/>
     </row>
     <row r="334">
       <c r="A334" s="59"/>
+      <c r="D334" s="59"/>
       <c r="E334" s="59"/>
     </row>
     <row r="335">
       <c r="A335" s="59"/>
+      <c r="D335" s="59"/>
       <c r="E335" s="59"/>
     </row>
     <row r="336">
       <c r="A336" s="59"/>
+      <c r="D336" s="59"/>
       <c r="E336" s="59"/>
     </row>
     <row r="337">
       <c r="A337" s="59"/>
+      <c r="D337" s="59"/>
       <c r="E337" s="59"/>
     </row>
     <row r="338">
       <c r="A338" s="59"/>
+      <c r="D338" s="59"/>
       <c r="E338" s="59"/>
     </row>
     <row r="339">
       <c r="A339" s="59"/>
+      <c r="D339" s="59"/>
       <c r="E339" s="59"/>
     </row>
     <row r="340">
       <c r="A340" s="59"/>
+      <c r="D340" s="59"/>
       <c r="E340" s="59"/>
     </row>
     <row r="341">
       <c r="A341" s="59"/>
+      <c r="D341" s="59"/>
       <c r="E341" s="59"/>
     </row>
     <row r="342">
       <c r="A342" s="59"/>
+      <c r="D342" s="59"/>
       <c r="E342" s="59"/>
     </row>
     <row r="343">
       <c r="A343" s="59"/>
+      <c r="D343" s="59"/>
       <c r="E343" s="59"/>
     </row>
     <row r="344">
       <c r="A344" s="59"/>
+      <c r="D344" s="59"/>
       <c r="E344" s="59"/>
     </row>
     <row r="345">
       <c r="A345" s="59"/>
+      <c r="D345" s="59"/>
       <c r="E345" s="59"/>
     </row>
     <row r="346">
       <c r="A346" s="59"/>
+      <c r="D346" s="59"/>
       <c r="E346" s="59"/>
     </row>
     <row r="347">
       <c r="A347" s="59"/>
+      <c r="D347" s="59"/>
       <c r="E347" s="59"/>
     </row>
     <row r="348">
       <c r="A348" s="59"/>
+      <c r="D348" s="59"/>
       <c r="E348" s="59"/>
     </row>
     <row r="349">
       <c r="A349" s="59"/>
+      <c r="D349" s="59"/>
       <c r="E349" s="59"/>
     </row>
     <row r="350">
       <c r="A350" s="59"/>
+      <c r="D350" s="59"/>
       <c r="E350" s="59"/>
     </row>
     <row r="351">
       <c r="A351" s="59"/>
+      <c r="D351" s="59"/>
       <c r="E351" s="59"/>
     </row>
     <row r="352">
       <c r="A352" s="59"/>
+      <c r="D352" s="59"/>
       <c r="E352" s="59"/>
     </row>
     <row r="353">
       <c r="A353" s="59"/>
+      <c r="D353" s="59"/>
       <c r="E353" s="59"/>
     </row>
     <row r="354">
       <c r="A354" s="59"/>
+      <c r="D354" s="59"/>
       <c r="E354" s="59"/>
     </row>
     <row r="355">
       <c r="A355" s="59"/>
+      <c r="D355" s="59"/>
       <c r="E355" s="59"/>
     </row>
     <row r="356">
       <c r="A356" s="59"/>
+      <c r="D356" s="59"/>
       <c r="E356" s="59"/>
     </row>
     <row r="357">
       <c r="A357" s="59"/>
+      <c r="D357" s="59"/>
       <c r="E357" s="59"/>
     </row>
     <row r="358">
       <c r="A358" s="59"/>
+      <c r="D358" s="59"/>
       <c r="E358" s="59"/>
     </row>
     <row r="359">
       <c r="A359" s="59"/>
+      <c r="D359" s="59"/>
       <c r="E359" s="59"/>
     </row>
     <row r="360">
       <c r="A360" s="59"/>
+      <c r="D360" s="59"/>
       <c r="E360" s="59"/>
     </row>
     <row r="361">
       <c r="A361" s="59"/>
+      <c r="D361" s="59"/>
       <c r="E361" s="59"/>
     </row>
     <row r="362">
       <c r="A362" s="59"/>
+      <c r="D362" s="59"/>
       <c r="E362" s="59"/>
     </row>
     <row r="363">
       <c r="A363" s="59"/>
+      <c r="D363" s="59"/>
       <c r="E363" s="59"/>
     </row>
     <row r="364">
       <c r="A364" s="59"/>
+      <c r="D364" s="59"/>
       <c r="E364" s="59"/>
     </row>
     <row r="365">
       <c r="A365" s="59"/>
+      <c r="D365" s="59"/>
       <c r="E365" s="59"/>
     </row>
     <row r="366">
       <c r="A366" s="59"/>
+      <c r="D366" s="59"/>
       <c r="E366" s="59"/>
     </row>
     <row r="367">
       <c r="A367" s="59"/>
+      <c r="D367" s="59"/>
       <c r="E367" s="59"/>
     </row>
     <row r="368">
       <c r="A368" s="59"/>
+      <c r="D368" s="59"/>
       <c r="E368" s="59"/>
     </row>
     <row r="369">
       <c r="A369" s="59"/>
+      <c r="D369" s="59"/>
       <c r="E369" s="59"/>
     </row>
     <row r="370">
       <c r="A370" s="59"/>
+      <c r="D370" s="59"/>
       <c r="E370" s="59"/>
     </row>
     <row r="371">
       <c r="A371" s="59"/>
+      <c r="D371" s="59"/>
       <c r="E371" s="59"/>
     </row>
     <row r="372">
       <c r="A372" s="59"/>
+      <c r="D372" s="59"/>
       <c r="E372" s="59"/>
     </row>
     <row r="373">
       <c r="A373" s="59"/>
+      <c r="D373" s="59"/>
       <c r="E373" s="59"/>
     </row>
     <row r="374">
       <c r="A374" s="59"/>
+      <c r="D374" s="59"/>
       <c r="E374" s="59"/>
     </row>
     <row r="375">
       <c r="A375" s="59"/>
+      <c r="D375" s="59"/>
       <c r="E375" s="59"/>
     </row>
     <row r="376">
       <c r="A376" s="59"/>
+      <c r="D376" s="59"/>
       <c r="E376" s="59"/>
     </row>
     <row r="377">
       <c r="A377" s="59"/>
+      <c r="D377" s="59"/>
       <c r="E377" s="59"/>
     </row>
     <row r="378">
       <c r="A378" s="59"/>
+      <c r="D378" s="59"/>
       <c r="E378" s="59"/>
     </row>
     <row r="379">
       <c r="A379" s="59"/>
+      <c r="D379" s="59"/>
       <c r="E379" s="59"/>
     </row>
     <row r="380">
       <c r="A380" s="59"/>
+      <c r="D380" s="59"/>
       <c r="E380" s="59"/>
     </row>
     <row r="381">
       <c r="A381" s="59"/>
+      <c r="D381" s="59"/>
       <c r="E381" s="59"/>
     </row>
     <row r="382">
       <c r="A382" s="59"/>
+      <c r="D382" s="59"/>
       <c r="E382" s="59"/>
     </row>
     <row r="383">
       <c r="A383" s="59"/>
+      <c r="D383" s="59"/>
       <c r="E383" s="59"/>
     </row>
     <row r="384">
       <c r="A384" s="59"/>
+      <c r="D384" s="59"/>
       <c r="E384" s="59"/>
     </row>
     <row r="385">
       <c r="A385" s="59"/>
+      <c r="D385" s="59"/>
       <c r="E385" s="59"/>
     </row>
     <row r="386">
       <c r="A386" s="59"/>
+      <c r="D386" s="59"/>
       <c r="E386" s="59"/>
     </row>
     <row r="387">
       <c r="A387" s="59"/>
+      <c r="D387" s="59"/>
       <c r="E387" s="59"/>
     </row>
     <row r="388">
       <c r="A388" s="59"/>
+      <c r="D388" s="59"/>
       <c r="E388" s="59"/>
     </row>
     <row r="389">
       <c r="A389" s="59"/>
+      <c r="D389" s="59"/>
       <c r="E389" s="59"/>
     </row>
     <row r="390">
       <c r="A390" s="59"/>
+      <c r="D390" s="59"/>
       <c r="E390" s="59"/>
     </row>
     <row r="391">
       <c r="A391" s="59"/>
+      <c r="D391" s="59"/>
       <c r="E391" s="59"/>
     </row>
     <row r="392">
       <c r="A392" s="59"/>
+      <c r="D392" s="59"/>
       <c r="E392" s="59"/>
     </row>
     <row r="393">
       <c r="A393" s="59"/>
+      <c r="D393" s="59"/>
       <c r="E393" s="59"/>
     </row>
     <row r="394">
       <c r="A394" s="59"/>
+      <c r="D394" s="59"/>
       <c r="E394" s="59"/>
     </row>
     <row r="395">
       <c r="A395" s="59"/>
+      <c r="D395" s="59"/>
       <c r="E395" s="59"/>
     </row>
     <row r="396">
       <c r="A396" s="59"/>
+      <c r="D396" s="59"/>
       <c r="E396" s="59"/>
     </row>
     <row r="397">
       <c r="A397" s="59"/>
+      <c r="D397" s="59"/>
       <c r="E397" s="59"/>
     </row>
     <row r="398">
       <c r="A398" s="59"/>
+      <c r="D398" s="59"/>
       <c r="E398" s="59"/>
     </row>
     <row r="399">
       <c r="A399" s="59"/>
+      <c r="D399" s="59"/>
       <c r="E399" s="59"/>
     </row>
     <row r="400">
       <c r="A400" s="59"/>
+      <c r="D400" s="59"/>
       <c r="E400" s="59"/>
     </row>
     <row r="401">
       <c r="A401" s="59"/>
+      <c r="D401" s="59"/>
       <c r="E401" s="59"/>
     </row>
     <row r="402">
       <c r="A402" s="59"/>
+      <c r="D402" s="59"/>
       <c r="E402" s="59"/>
     </row>
     <row r="403">
       <c r="A403" s="59"/>
+      <c r="D403" s="59"/>
       <c r="E403" s="59"/>
     </row>
     <row r="404">
       <c r="A404" s="59"/>
+      <c r="D404" s="59"/>
       <c r="E404" s="59"/>
     </row>
     <row r="405">
       <c r="A405" s="59"/>
+      <c r="D405" s="59"/>
       <c r="E405" s="59"/>
     </row>
     <row r="406">
       <c r="A406" s="59"/>
+      <c r="D406" s="59"/>
       <c r="E406" s="59"/>
     </row>
     <row r="407">
       <c r="A407" s="59"/>
+      <c r="D407" s="59"/>
       <c r="E407" s="59"/>
     </row>
     <row r="408">
       <c r="A408" s="59"/>
+      <c r="D408" s="59"/>
       <c r="E408" s="59"/>
     </row>
     <row r="409">
       <c r="A409" s="59"/>
+      <c r="D409" s="59"/>
       <c r="E409" s="59"/>
     </row>
     <row r="410">
       <c r="A410" s="59"/>
+      <c r="D410" s="59"/>
       <c r="E410" s="59"/>
     </row>
     <row r="411">
       <c r="A411" s="59"/>
+      <c r="D411" s="59"/>
       <c r="E411" s="59"/>
     </row>
     <row r="412">
       <c r="A412" s="59"/>
+      <c r="D412" s="59"/>
       <c r="E412" s="59"/>
     </row>
     <row r="413">
       <c r="A413" s="59"/>
+      <c r="D413" s="59"/>
       <c r="E413" s="59"/>
     </row>
     <row r="414">
       <c r="A414" s="59"/>
+      <c r="D414" s="59"/>
       <c r="E414" s="59"/>
     </row>
     <row r="415">
       <c r="A415" s="59"/>
+      <c r="D415" s="59"/>
       <c r="E415" s="59"/>
     </row>
     <row r="416">
       <c r="A416" s="59"/>
+      <c r="D416" s="59"/>
       <c r="E416" s="59"/>
     </row>
     <row r="417">
       <c r="A417" s="59"/>
+      <c r="D417" s="59"/>
       <c r="E417" s="59"/>
     </row>
     <row r="418">
       <c r="A418" s="59"/>
+      <c r="D418" s="59"/>
       <c r="E418" s="59"/>
     </row>
     <row r="419">
       <c r="A419" s="59"/>
+      <c r="D419" s="59"/>
       <c r="E419" s="59"/>
     </row>
     <row r="420">
       <c r="A420" s="59"/>
+      <c r="D420" s="59"/>
       <c r="E420" s="59"/>
     </row>
     <row r="421">
       <c r="A421" s="59"/>
+      <c r="D421" s="59"/>
       <c r="E421" s="59"/>
     </row>
     <row r="422">
       <c r="A422" s="59"/>
+      <c r="D422" s="59"/>
       <c r="E422" s="59"/>
     </row>
     <row r="423">
       <c r="A423" s="59"/>
+      <c r="D423" s="59"/>
       <c r="E423" s="59"/>
     </row>
     <row r="424">
       <c r="A424" s="59"/>
+      <c r="D424" s="59"/>
       <c r="E424" s="59"/>
     </row>
     <row r="425">
       <c r="A425" s="59"/>
+      <c r="D425" s="59"/>
       <c r="E425" s="59"/>
     </row>
     <row r="426">
       <c r="A426" s="59"/>
+      <c r="D426" s="59"/>
       <c r="E426" s="59"/>
     </row>
     <row r="427">
       <c r="A427" s="59"/>
+      <c r="D427" s="59"/>
       <c r="E427" s="59"/>
     </row>
     <row r="428">
       <c r="A428" s="59"/>
+      <c r="D428" s="59"/>
       <c r="E428" s="59"/>
     </row>
     <row r="429">
       <c r="A429" s="59"/>
+      <c r="D429" s="59"/>
       <c r="E429" s="59"/>
     </row>
     <row r="430">
       <c r="A430" s="59"/>
+      <c r="D430" s="59"/>
       <c r="E430" s="59"/>
     </row>
     <row r="431">
       <c r="A431" s="59"/>
+      <c r="D431" s="59"/>
       <c r="E431" s="59"/>
     </row>
     <row r="432">
       <c r="A432" s="59"/>
+      <c r="D432" s="59"/>
       <c r="E432" s="59"/>
     </row>
     <row r="433">
       <c r="A433" s="59"/>
+      <c r="D433" s="59"/>
       <c r="E433" s="59"/>
     </row>
     <row r="434">
       <c r="A434" s="59"/>
+      <c r="D434" s="59"/>
       <c r="E434" s="59"/>
     </row>
     <row r="435">
       <c r="A435" s="59"/>
+      <c r="D435" s="59"/>
       <c r="E435" s="59"/>
     </row>
     <row r="436">
       <c r="A436" s="59"/>
+      <c r="D436" s="59"/>
       <c r="E436" s="59"/>
     </row>
     <row r="437">
       <c r="A437" s="59"/>
+      <c r="D437" s="59"/>
       <c r="E437" s="59"/>
     </row>
     <row r="438">
       <c r="A438" s="59"/>
+      <c r="D438" s="59"/>
       <c r="E438" s="59"/>
     </row>
     <row r="439">
       <c r="A439" s="59"/>
+      <c r="D439" s="59"/>
       <c r="E439" s="59"/>
     </row>
     <row r="440">
       <c r="A440" s="59"/>
+      <c r="D440" s="59"/>
       <c r="E440" s="59"/>
     </row>
     <row r="441">
       <c r="A441" s="59"/>
+      <c r="D441" s="59"/>
       <c r="E441" s="59"/>
     </row>
     <row r="442">
       <c r="A442" s="59"/>
+      <c r="D442" s="59"/>
       <c r="E442" s="59"/>
     </row>
     <row r="443">
       <c r="A443" s="59"/>
+      <c r="D443" s="59"/>
       <c r="E443" s="59"/>
     </row>
     <row r="444">
       <c r="A444" s="59"/>
+      <c r="D444" s="59"/>
       <c r="E444" s="59"/>
     </row>
     <row r="445">
       <c r="A445" s="59"/>
+      <c r="D445" s="59"/>
       <c r="E445" s="59"/>
     </row>
     <row r="446">
       <c r="A446" s="59"/>
+      <c r="D446" s="59"/>
       <c r="E446" s="59"/>
     </row>
     <row r="447">
       <c r="A447" s="59"/>
+      <c r="D447" s="59"/>
       <c r="E447" s="59"/>
     </row>
     <row r="448">
       <c r="A448" s="59"/>
+      <c r="D448" s="59"/>
       <c r="E448" s="59"/>
     </row>
     <row r="449">
       <c r="A449" s="59"/>
+      <c r="D449" s="59"/>
       <c r="E449" s="59"/>
     </row>
     <row r="450">
       <c r="A450" s="59"/>
+      <c r="D450" s="59"/>
       <c r="E450" s="59"/>
     </row>
     <row r="451">
       <c r="A451" s="59"/>
+      <c r="D451" s="59"/>
       <c r="E451" s="59"/>
     </row>
     <row r="452">
       <c r="A452" s="59"/>
+      <c r="D452" s="59"/>
       <c r="E452" s="59"/>
     </row>
     <row r="453">
       <c r="A453" s="59"/>
+      <c r="D453" s="59"/>
       <c r="E453" s="59"/>
     </row>
     <row r="454">
       <c r="A454" s="59"/>
+      <c r="D454" s="59"/>
       <c r="E454" s="59"/>
     </row>
     <row r="455">
       <c r="A455" s="59"/>
+      <c r="D455" s="59"/>
       <c r="E455" s="59"/>
     </row>
     <row r="456">
       <c r="A456" s="59"/>
+      <c r="D456" s="59"/>
       <c r="E456" s="59"/>
     </row>
     <row r="457">
       <c r="A457" s="59"/>
+      <c r="D457" s="59"/>
       <c r="E457" s="59"/>
     </row>
     <row r="458">
       <c r="A458" s="59"/>
+      <c r="D458" s="59"/>
       <c r="E458" s="59"/>
     </row>
     <row r="459">
       <c r="A459" s="59"/>
+      <c r="D459" s="59"/>
       <c r="E459" s="59"/>
     </row>
     <row r="460">
       <c r="A460" s="59"/>
+      <c r="D460" s="59"/>
       <c r="E460" s="59"/>
     </row>
     <row r="461">
       <c r="A461" s="59"/>
+      <c r="D461" s="59"/>
       <c r="E461" s="59"/>
     </row>
     <row r="462">
       <c r="A462" s="59"/>
+      <c r="D462" s="59"/>
       <c r="E462" s="59"/>
     </row>
     <row r="463">
       <c r="A463" s="59"/>
+      <c r="D463" s="59"/>
       <c r="E463" s="59"/>
     </row>
     <row r="464">
       <c r="A464" s="59"/>
+      <c r="D464" s="59"/>
       <c r="E464" s="59"/>
     </row>
     <row r="465">
       <c r="A465" s="59"/>
+      <c r="D465" s="59"/>
       <c r="E465" s="59"/>
     </row>
     <row r="466">
       <c r="A466" s="59"/>
+      <c r="D466" s="59"/>
       <c r="E466" s="59"/>
     </row>
     <row r="467">
       <c r="A467" s="59"/>
+      <c r="D467" s="59"/>
       <c r="E467" s="59"/>
     </row>
     <row r="468">
       <c r="A468" s="59"/>
+      <c r="D468" s="59"/>
       <c r="E468" s="59"/>
     </row>
     <row r="469">
       <c r="A469" s="59"/>
+      <c r="D469" s="59"/>
       <c r="E469" s="59"/>
     </row>
     <row r="470">
       <c r="A470" s="59"/>
+      <c r="D470" s="59"/>
       <c r="E470" s="59"/>
     </row>
     <row r="471">
       <c r="A471" s="59"/>
+      <c r="D471" s="59"/>
       <c r="E471" s="59"/>
     </row>
     <row r="472">
       <c r="A472" s="59"/>
+      <c r="D472" s="59"/>
       <c r="E472" s="59"/>
     </row>
     <row r="473">
       <c r="A473" s="59"/>
+      <c r="D473" s="59"/>
       <c r="E473" s="59"/>
     </row>
     <row r="474">
       <c r="A474" s="59"/>
+      <c r="D474" s="59"/>
       <c r="E474" s="59"/>
     </row>
     <row r="475">
       <c r="A475" s="59"/>
+      <c r="D475" s="59"/>
       <c r="E475" s="59"/>
     </row>
     <row r="476">
       <c r="A476" s="59"/>
+      <c r="D476" s="59"/>
       <c r="E476" s="59"/>
     </row>
     <row r="477">
       <c r="A477" s="59"/>
+      <c r="D477" s="59"/>
       <c r="E477" s="59"/>
     </row>
     <row r="478">
       <c r="A478" s="59"/>
+      <c r="D478" s="59"/>
       <c r="E478" s="59"/>
     </row>
     <row r="479">
       <c r="A479" s="59"/>
+      <c r="D479" s="59"/>
       <c r="E479" s="59"/>
     </row>
     <row r="480">
       <c r="A480" s="59"/>
+      <c r="D480" s="59"/>
       <c r="E480" s="59"/>
     </row>
     <row r="481">
       <c r="A481" s="59"/>
+      <c r="D481" s="59"/>
       <c r="E481" s="59"/>
     </row>
     <row r="482">
       <c r="A482" s="59"/>
+      <c r="D482" s="59"/>
       <c r="E482" s="59"/>
     </row>
     <row r="483">
       <c r="A483" s="59"/>
+      <c r="D483" s="59"/>
       <c r="E483" s="59"/>
     </row>
     <row r="484">
       <c r="A484" s="59"/>
+      <c r="D484" s="59"/>
       <c r="E484" s="59"/>
     </row>
     <row r="485">
       <c r="A485" s="59"/>
+      <c r="D485" s="59"/>
       <c r="E485" s="59"/>
     </row>
     <row r="486">
       <c r="A486" s="59"/>
+      <c r="D486" s="59"/>
       <c r="E486" s="59"/>
     </row>
     <row r="487">
       <c r="A487" s="59"/>
+      <c r="D487" s="59"/>
       <c r="E487" s="59"/>
     </row>
     <row r="488">
       <c r="A488" s="59"/>
+      <c r="D488" s="59"/>
       <c r="E488" s="59"/>
     </row>
     <row r="489">
       <c r="A489" s="59"/>
+      <c r="D489" s="59"/>
       <c r="E489" s="59"/>
     </row>
     <row r="490">
       <c r="A490" s="59"/>
+      <c r="D490" s="59"/>
       <c r="E490" s="59"/>
     </row>
     <row r="491">
       <c r="A491" s="59"/>
+      <c r="D491" s="59"/>
       <c r="E491" s="59"/>
     </row>
     <row r="492">
       <c r="A492" s="59"/>
+      <c r="D492" s="59"/>
       <c r="E492" s="59"/>
     </row>
     <row r="493">
       <c r="A493" s="59"/>
+      <c r="D493" s="59"/>
       <c r="E493" s="59"/>
     </row>
     <row r="494">
       <c r="A494" s="59"/>
+      <c r="D494" s="59"/>
       <c r="E494" s="59"/>
     </row>
     <row r="495">
       <c r="A495" s="59"/>
+      <c r="D495" s="59"/>
       <c r="E495" s="59"/>
     </row>
     <row r="496">
       <c r="A496" s="59"/>
+      <c r="D496" s="59"/>
       <c r="E496" s="59"/>
     </row>
     <row r="497">
       <c r="A497" s="59"/>
+      <c r="D497" s="59"/>
       <c r="E497" s="59"/>
     </row>
     <row r="498">
       <c r="A498" s="59"/>
+      <c r="D498" s="59"/>
       <c r="E498" s="59"/>
     </row>
     <row r="499">
       <c r="A499" s="59"/>
+      <c r="D499" s="59"/>
       <c r="E499" s="59"/>
     </row>
     <row r="500">
       <c r="A500" s="59"/>
+      <c r="D500" s="59"/>
       <c r="E500" s="59"/>
     </row>
     <row r="501">
       <c r="A501" s="59"/>
+      <c r="D501" s="59"/>
       <c r="E501" s="59"/>
     </row>
     <row r="502">
       <c r="A502" s="59"/>
+      <c r="D502" s="59"/>
       <c r="E502" s="59"/>
     </row>
     <row r="503">
       <c r="A503" s="59"/>
+      <c r="D503" s="59"/>
       <c r="E503" s="59"/>
     </row>
     <row r="504">
       <c r="A504" s="59"/>
+      <c r="D504" s="59"/>
       <c r="E504" s="59"/>
     </row>
     <row r="505">
       <c r="A505" s="59"/>
+      <c r="D505" s="59"/>
       <c r="E505" s="59"/>
     </row>
     <row r="506">
       <c r="A506" s="59"/>
+      <c r="D506" s="59"/>
       <c r="E506" s="59"/>
     </row>
     <row r="507">
       <c r="A507" s="59"/>
+      <c r="D507" s="59"/>
       <c r="E507" s="59"/>
     </row>
     <row r="508">
       <c r="A508" s="59"/>
+      <c r="D508" s="59"/>
       <c r="E508" s="59"/>
     </row>
     <row r="509">
       <c r="A509" s="59"/>
+      <c r="D509" s="59"/>
       <c r="E509" s="59"/>
     </row>
     <row r="510">
       <c r="A510" s="59"/>
+      <c r="D510" s="59"/>
       <c r="E510" s="59"/>
     </row>
     <row r="511">
       <c r="A511" s="59"/>
+      <c r="D511" s="59"/>
       <c r="E511" s="59"/>
     </row>
     <row r="512">
       <c r="A512" s="59"/>
+      <c r="D512" s="59"/>
       <c r="E512" s="59"/>
     </row>
     <row r="513">
       <c r="A513" s="59"/>
+      <c r="D513" s="59"/>
       <c r="E513" s="59"/>
     </row>
     <row r="514">
       <c r="A514" s="59"/>
+      <c r="D514" s="59"/>
       <c r="E514" s="59"/>
     </row>
     <row r="515">
       <c r="A515" s="59"/>
+      <c r="D515" s="59"/>
       <c r="E515" s="59"/>
     </row>
     <row r="516">
       <c r="A516" s="59"/>
+      <c r="D516" s="59"/>
       <c r="E516" s="59"/>
     </row>
     <row r="517">
       <c r="A517" s="59"/>
+      <c r="D517" s="59"/>
       <c r="E517" s="59"/>
     </row>
     <row r="518">
       <c r="A518" s="59"/>
+      <c r="D518" s="59"/>
       <c r="E518" s="59"/>
     </row>
     <row r="519">
       <c r="A519" s="59"/>
+      <c r="D519" s="59"/>
       <c r="E519" s="59"/>
     </row>
     <row r="520">
       <c r="A520" s="59"/>
+      <c r="D520" s="59"/>
       <c r="E520" s="59"/>
     </row>
     <row r="521">
       <c r="A521" s="59"/>
+      <c r="D521" s="59"/>
       <c r="E521" s="59"/>
     </row>
     <row r="522">
       <c r="A522" s="59"/>
+      <c r="D522" s="59"/>
       <c r="E522" s="59"/>
     </row>
     <row r="523">
       <c r="A523" s="59"/>
+      <c r="D523" s="59"/>
       <c r="E523" s="59"/>
     </row>
     <row r="524">
       <c r="A524" s="59"/>
+      <c r="D524" s="59"/>
       <c r="E524" s="59"/>
     </row>
     <row r="525">
       <c r="A525" s="59"/>
+      <c r="D525" s="59"/>
       <c r="E525" s="59"/>
     </row>
     <row r="526">
       <c r="A526" s="59"/>
+      <c r="D526" s="59"/>
       <c r="E526" s="59"/>
     </row>
     <row r="527">
       <c r="A527" s="59"/>
+      <c r="D527" s="59"/>
       <c r="E527" s="59"/>
     </row>
     <row r="528">
       <c r="A528" s="59"/>
+      <c r="D528" s="59"/>
       <c r="E528" s="59"/>
     </row>
     <row r="529">
       <c r="A529" s="59"/>
+      <c r="D529" s="59"/>
       <c r="E529" s="59"/>
     </row>
     <row r="530">
       <c r="A530" s="59"/>
+      <c r="D530" s="59"/>
       <c r="E530" s="59"/>
     </row>
     <row r="531">
       <c r="A531" s="59"/>
+      <c r="D531" s="59"/>
       <c r="E531" s="59"/>
     </row>
     <row r="532">
       <c r="A532" s="59"/>
+      <c r="D532" s="59"/>
       <c r="E532" s="59"/>
     </row>
     <row r="533">
       <c r="A533" s="59"/>
+      <c r="D533" s="59"/>
       <c r="E533" s="59"/>
     </row>
     <row r="534">
       <c r="A534" s="59"/>
+      <c r="D534" s="59"/>
       <c r="E534" s="59"/>
     </row>
     <row r="535">
       <c r="A535" s="59"/>
+      <c r="D535" s="59"/>
       <c r="E535" s="59"/>
     </row>
     <row r="536">
       <c r="A536" s="59"/>
+      <c r="D536" s="59"/>
       <c r="E536" s="59"/>
     </row>
     <row r="537">
       <c r="A537" s="59"/>
+      <c r="D537" s="59"/>
       <c r="E537" s="59"/>
     </row>
     <row r="538">
       <c r="A538" s="59"/>
+      <c r="D538" s="59"/>
       <c r="E538" s="59"/>
     </row>
     <row r="539">
       <c r="A539" s="59"/>
+      <c r="D539" s="59"/>
       <c r="E539" s="59"/>
     </row>
     <row r="540">
       <c r="A540" s="59"/>
+      <c r="D540" s="59"/>
       <c r="E540" s="59"/>
     </row>
     <row r="541">
       <c r="A541" s="59"/>
+      <c r="D541" s="59"/>
       <c r="E541" s="59"/>
     </row>
     <row r="542">
       <c r="A542" s="59"/>
+      <c r="D542" s="59"/>
       <c r="E542" s="59"/>
     </row>
     <row r="543">
       <c r="A543" s="59"/>
+      <c r="D543" s="59"/>
       <c r="E543" s="59"/>
     </row>
     <row r="544">
       <c r="A544" s="59"/>
+      <c r="D544" s="59"/>
       <c r="E544" s="59"/>
     </row>
     <row r="545">
       <c r="A545" s="59"/>
+      <c r="D545" s="59"/>
       <c r="E545" s="59"/>
     </row>
     <row r="546">
       <c r="A546" s="59"/>
+      <c r="D546" s="59"/>
       <c r="E546" s="59"/>
     </row>
     <row r="547">
       <c r="A547" s="59"/>
+      <c r="D547" s="59"/>
       <c r="E547" s="59"/>
     </row>
     <row r="548">
       <c r="A548" s="59"/>
+      <c r="D548" s="59"/>
       <c r="E548" s="59"/>
     </row>
     <row r="549">
       <c r="A549" s="59"/>
+      <c r="D549" s="59"/>
       <c r="E549" s="59"/>
     </row>
     <row r="550">
       <c r="A550" s="59"/>
+      <c r="D550" s="59"/>
       <c r="E550" s="59"/>
     </row>
     <row r="551">
       <c r="A551" s="59"/>
+      <c r="D551" s="59"/>
       <c r="E551" s="59"/>
     </row>
     <row r="552">
       <c r="A552" s="59"/>
+      <c r="D552" s="59"/>
       <c r="E552" s="59"/>
     </row>
     <row r="553">
       <c r="A553" s="59"/>
+      <c r="D553" s="59"/>
       <c r="E553" s="59"/>
     </row>
     <row r="554">
       <c r="A554" s="59"/>
+      <c r="D554" s="59"/>
       <c r="E554" s="59"/>
     </row>
     <row r="555">
       <c r="A555" s="59"/>
+      <c r="D555" s="59"/>
       <c r="E555" s="59"/>
     </row>
     <row r="556">
       <c r="A556" s="59"/>
+      <c r="D556" s="59"/>
       <c r="E556" s="59"/>
     </row>
     <row r="557">
       <c r="A557" s="59"/>
+      <c r="D557" s="59"/>
       <c r="E557" s="59"/>
     </row>
     <row r="558">
       <c r="A558" s="59"/>
+      <c r="D558" s="59"/>
       <c r="E558" s="59"/>
     </row>
     <row r="559">
       <c r="A559" s="59"/>
+      <c r="D559" s="59"/>
       <c r="E559" s="59"/>
     </row>
     <row r="560">
       <c r="A560" s="59"/>
+      <c r="D560" s="59"/>
       <c r="E560" s="59"/>
     </row>
     <row r="561">
       <c r="A561" s="59"/>
+      <c r="D561" s="59"/>
       <c r="E561" s="59"/>
     </row>
     <row r="562">
       <c r="A562" s="59"/>
+      <c r="D562" s="59"/>
       <c r="E562" s="59"/>
     </row>
     <row r="563">
       <c r="A563" s="59"/>
+      <c r="D563" s="59"/>
       <c r="E563" s="59"/>
     </row>
     <row r="564">
       <c r="A564" s="59"/>
+      <c r="D564" s="59"/>
       <c r="E564" s="59"/>
     </row>
     <row r="565">
       <c r="A565" s="59"/>
+      <c r="D565" s="59"/>
       <c r="E565" s="59"/>
     </row>
     <row r="566">
       <c r="A566" s="59"/>
+      <c r="D566" s="59"/>
       <c r="E566" s="59"/>
     </row>
     <row r="567">
       <c r="A567" s="59"/>
+      <c r="D567" s="59"/>
       <c r="E567" s="59"/>
     </row>
     <row r="568">
       <c r="A568" s="59"/>
+      <c r="D568" s="59"/>
       <c r="E568" s="59"/>
     </row>
     <row r="569">
       <c r="A569" s="59"/>
+      <c r="D569" s="59"/>
       <c r="E569" s="59"/>
     </row>
     <row r="570">
       <c r="A570" s="59"/>
+      <c r="D570" s="59"/>
       <c r="E570" s="59"/>
     </row>
     <row r="571">
       <c r="A571" s="59"/>
+      <c r="D571" s="59"/>
       <c r="E571" s="59"/>
     </row>
     <row r="572">
       <c r="A572" s="59"/>
+      <c r="D572" s="59"/>
       <c r="E572" s="59"/>
     </row>
     <row r="573">
       <c r="A573" s="59"/>
+      <c r="D573" s="59"/>
       <c r="E573" s="59"/>
     </row>
     <row r="574">
       <c r="A574" s="59"/>
+      <c r="D574" s="59"/>
       <c r="E574" s="59"/>
     </row>
     <row r="575">
       <c r="A575" s="59"/>
+      <c r="D575" s="59"/>
       <c r="E575" s="59"/>
     </row>
     <row r="576">
       <c r="A576" s="59"/>
+      <c r="D576" s="59"/>
       <c r="E576" s="59"/>
     </row>
     <row r="577">
       <c r="A577" s="59"/>
+      <c r="D577" s="59"/>
       <c r="E577" s="59"/>
     </row>
     <row r="578">
       <c r="A578" s="59"/>
+      <c r="D578" s="59"/>
       <c r="E578" s="59"/>
     </row>
     <row r="579">
       <c r="A579" s="59"/>
+      <c r="D579" s="59"/>
       <c r="E579" s="59"/>
     </row>
     <row r="580">
       <c r="A580" s="59"/>
+      <c r="D580" s="59"/>
       <c r="E580" s="59"/>
     </row>
     <row r="581">
       <c r="A581" s="59"/>
+      <c r="D581" s="59"/>
       <c r="E581" s="59"/>
     </row>
     <row r="582">
       <c r="A582" s="59"/>
+      <c r="D582" s="59"/>
       <c r="E582" s="59"/>
     </row>
     <row r="583">
       <c r="A583" s="59"/>
+      <c r="D583" s="59"/>
       <c r="E583" s="59"/>
     </row>
     <row r="584">
       <c r="A584" s="59"/>
+      <c r="D584" s="59"/>
       <c r="E584" s="59"/>
     </row>
     <row r="585">
       <c r="A585" s="59"/>
+      <c r="D585" s="59"/>
       <c r="E585" s="59"/>
     </row>
     <row r="586">
       <c r="A586" s="59"/>
+      <c r="D586" s="59"/>
       <c r="E586" s="59"/>
     </row>
     <row r="587">
       <c r="A587" s="59"/>
+      <c r="D587" s="59"/>
       <c r="E587" s="59"/>
     </row>
     <row r="588">
       <c r="A588" s="59"/>
+      <c r="D588" s="59"/>
       <c r="E588" s="59"/>
     </row>
     <row r="589">
       <c r="A589" s="59"/>
+      <c r="D589" s="59"/>
       <c r="E589" s="59"/>
     </row>
     <row r="590">
       <c r="A590" s="59"/>
+      <c r="D590" s="59"/>
       <c r="E590" s="59"/>
     </row>
     <row r="591">
       <c r="A591" s="59"/>
+      <c r="D591" s="59"/>
       <c r="E591" s="59"/>
     </row>
     <row r="592">
       <c r="A592" s="59"/>
+      <c r="D592" s="59"/>
       <c r="E592" s="59"/>
     </row>
     <row r="593">
       <c r="A593" s="59"/>
+      <c r="D593" s="59"/>
       <c r="E593" s="59"/>
     </row>
     <row r="594">
       <c r="A594" s="59"/>
+      <c r="D594" s="59"/>
       <c r="E594" s="59"/>
     </row>
     <row r="595">
       <c r="A595" s="59"/>
+      <c r="D595" s="59"/>
       <c r="E595" s="59"/>
     </row>
     <row r="596">
       <c r="A596" s="59"/>
+      <c r="D596" s="59"/>
       <c r="E596" s="59"/>
     </row>
     <row r="597">
       <c r="A597" s="59"/>
+      <c r="D597" s="59"/>
       <c r="E597" s="59"/>
     </row>
     <row r="598">
       <c r="A598" s="59"/>
+      <c r="D598" s="59"/>
       <c r="E598" s="59"/>
     </row>
     <row r="599">
       <c r="A599" s="59"/>
+      <c r="D599" s="59"/>
       <c r="E599" s="59"/>
     </row>
     <row r="600">
       <c r="A600" s="59"/>
+      <c r="D600" s="59"/>
       <c r="E600" s="59"/>
     </row>
     <row r="601">
       <c r="A601" s="59"/>
+      <c r="D601" s="59"/>
       <c r="E601" s="59"/>
     </row>
     <row r="602">
       <c r="A602" s="59"/>
+      <c r="D602" s="59"/>
       <c r="E602" s="59"/>
     </row>
     <row r="603">
       <c r="A603" s="59"/>
+      <c r="D603" s="59"/>
       <c r="E603" s="59"/>
     </row>
     <row r="604">
       <c r="A604" s="59"/>
+      <c r="D604" s="59"/>
       <c r="E604" s="59"/>
     </row>
     <row r="605">
       <c r="A605" s="59"/>
+      <c r="D605" s="59"/>
       <c r="E605" s="59"/>
     </row>
     <row r="606">
       <c r="A606" s="59"/>
+      <c r="D606" s="59"/>
       <c r="E606" s="59"/>
     </row>
     <row r="607">
       <c r="A607" s="59"/>
+      <c r="D607" s="59"/>
       <c r="E607" s="59"/>
     </row>
     <row r="608">
       <c r="A608" s="59"/>
+      <c r="D608" s="59"/>
       <c r="E608" s="59"/>
     </row>
     <row r="609">
       <c r="A609" s="59"/>
+      <c r="D609" s="59"/>
       <c r="E609" s="59"/>
     </row>
     <row r="610">
       <c r="A610" s="59"/>
+      <c r="D610" s="59"/>
       <c r="E610" s="59"/>
     </row>
     <row r="611">
       <c r="A611" s="59"/>
+      <c r="D611" s="59"/>
       <c r="E611" s="59"/>
     </row>
     <row r="612">
       <c r="A612" s="59"/>
+      <c r="D612" s="59"/>
       <c r="E612" s="59"/>
     </row>
     <row r="613">
       <c r="A613" s="59"/>
+      <c r="D613" s="59"/>
       <c r="E613" s="59"/>
     </row>
     <row r="614">
       <c r="A614" s="59"/>
+      <c r="D614" s="59"/>
       <c r="E614" s="59"/>
     </row>
     <row r="615">
       <c r="A615" s="59"/>
+      <c r="D615" s="59"/>
       <c r="E615" s="59"/>
     </row>
     <row r="616">
       <c r="A616" s="59"/>
+      <c r="D616" s="59"/>
       <c r="E616" s="59"/>
     </row>
     <row r="617">
       <c r="A617" s="59"/>
+      <c r="D617" s="59"/>
       <c r="E617" s="59"/>
     </row>
     <row r="618">
       <c r="A618" s="59"/>
+      <c r="D618" s="59"/>
       <c r="E618" s="59"/>
     </row>
     <row r="619">
       <c r="A619" s="59"/>
+      <c r="D619" s="59"/>
       <c r="E619" s="59"/>
     </row>
     <row r="620">
       <c r="A620" s="59"/>
+      <c r="D620" s="59"/>
       <c r="E620" s="59"/>
     </row>
     <row r="621">
       <c r="A621" s="59"/>
+      <c r="D621" s="59"/>
       <c r="E621" s="59"/>
     </row>
     <row r="622">
       <c r="A622" s="59"/>
+      <c r="D622" s="59"/>
       <c r="E622" s="59"/>
     </row>
     <row r="623">
       <c r="A623" s="59"/>
+      <c r="D623" s="59"/>
       <c r="E623" s="59"/>
     </row>
     <row r="624">
       <c r="A624" s="59"/>
+      <c r="D624" s="59"/>
       <c r="E624" s="59"/>
     </row>
     <row r="625">
       <c r="A625" s="59"/>
+      <c r="D625" s="59"/>
       <c r="E625" s="59"/>
     </row>
     <row r="626">
       <c r="A626" s="59"/>
+      <c r="D626" s="59"/>
       <c r="E626" s="59"/>
     </row>
     <row r="627">
       <c r="A627" s="59"/>
+      <c r="D627" s="59"/>
       <c r="E627" s="59"/>
     </row>
     <row r="628">
       <c r="A628" s="59"/>
+      <c r="D628" s="59"/>
       <c r="E628" s="59"/>
     </row>
     <row r="629">
       <c r="A629" s="59"/>
+      <c r="D629" s="59"/>
       <c r="E629" s="59"/>
     </row>
     <row r="630">
       <c r="A630" s="59"/>
+      <c r="D630" s="59"/>
       <c r="E630" s="59"/>
     </row>
     <row r="631">
       <c r="A631" s="59"/>
+      <c r="D631" s="59"/>
       <c r="E631" s="59"/>
     </row>
     <row r="632">
       <c r="A632" s="59"/>
+      <c r="D632" s="59"/>
       <c r="E632" s="59"/>
     </row>
     <row r="633">
       <c r="A633" s="59"/>
+      <c r="D633" s="59"/>
       <c r="E633" s="59"/>
     </row>
     <row r="634">
       <c r="A634" s="59"/>
+      <c r="D634" s="59"/>
       <c r="E634" s="59"/>
     </row>
     <row r="635">
       <c r="A635" s="59"/>
+      <c r="D635" s="59"/>
       <c r="E635" s="59"/>
     </row>
     <row r="636">
       <c r="A636" s="59"/>
+      <c r="D636" s="59"/>
       <c r="E636" s="59"/>
     </row>
     <row r="637">
       <c r="A637" s="59"/>
+      <c r="D637" s="59"/>
       <c r="E637" s="59"/>
     </row>
     <row r="638">
       <c r="A638" s="59"/>
+      <c r="D638" s="59"/>
       <c r="E638" s="59"/>
     </row>
     <row r="639">
       <c r="A639" s="59"/>
+      <c r="D639" s="59"/>
       <c r="E639" s="59"/>
     </row>
     <row r="640">
       <c r="A640" s="59"/>
+      <c r="D640" s="59"/>
       <c r="E640" s="59"/>
     </row>
     <row r="641">
       <c r="A641" s="59"/>
+      <c r="D641" s="59"/>
       <c r="E641" s="59"/>
     </row>
     <row r="642">
       <c r="A642" s="59"/>
+      <c r="D642" s="59"/>
       <c r="E642" s="59"/>
     </row>
     <row r="643">
       <c r="A643" s="59"/>
+      <c r="D643" s="59"/>
       <c r="E643" s="59"/>
     </row>
     <row r="644">
       <c r="A644" s="59"/>
+      <c r="D644" s="59"/>
       <c r="E644" s="59"/>
     </row>
     <row r="645">
       <c r="A645" s="59"/>
+      <c r="D645" s="59"/>
       <c r="E645" s="59"/>
     </row>
     <row r="646">
       <c r="A646" s="59"/>
+      <c r="D646" s="59"/>
       <c r="E646" s="59"/>
     </row>
     <row r="647">
       <c r="A647" s="59"/>
+      <c r="D647" s="59"/>
       <c r="E647" s="59"/>
     </row>
     <row r="648">
       <c r="A648" s="59"/>
+      <c r="D648" s="59"/>
       <c r="E648" s="59"/>
     </row>
     <row r="649">
       <c r="A649" s="59"/>
+      <c r="D649" s="59"/>
       <c r="E649" s="59"/>
     </row>
     <row r="650">
       <c r="A650" s="59"/>
+      <c r="D650" s="59"/>
       <c r="E650" s="59"/>
     </row>
     <row r="651">
       <c r="A651" s="59"/>
+      <c r="D651" s="59"/>
       <c r="E651" s="59"/>
     </row>
     <row r="652">
       <c r="A652" s="59"/>
+      <c r="D652" s="59"/>
       <c r="E652" s="59"/>
     </row>
     <row r="653">
       <c r="A653" s="59"/>
+      <c r="D653" s="59"/>
       <c r="E653" s="59"/>
     </row>
     <row r="654">
       <c r="A654" s="59"/>
+      <c r="D654" s="59"/>
       <c r="E654" s="59"/>
     </row>
     <row r="655">
       <c r="A655" s="59"/>
+      <c r="D655" s="59"/>
       <c r="E655" s="59"/>
     </row>
     <row r="656">
       <c r="A656" s="59"/>
+      <c r="D656" s="59"/>
       <c r="E656" s="59"/>
     </row>
     <row r="657">
       <c r="A657" s="59"/>
+      <c r="D657" s="59"/>
       <c r="E657" s="59"/>
     </row>
     <row r="658">
       <c r="A658" s="59"/>
+      <c r="D658" s="59"/>
       <c r="E658" s="59"/>
     </row>
     <row r="659">
       <c r="A659" s="59"/>
+      <c r="D659" s="59"/>
       <c r="E659" s="59"/>
     </row>
     <row r="660">
       <c r="A660" s="59"/>
+      <c r="D660" s="59"/>
       <c r="E660" s="59"/>
     </row>
     <row r="661">
       <c r="A661" s="59"/>
+      <c r="D661" s="59"/>
       <c r="E661" s="59"/>
     </row>
     <row r="662">
       <c r="A662" s="59"/>
+      <c r="D662" s="59"/>
       <c r="E662" s="59"/>
     </row>
     <row r="663">
       <c r="A663" s="59"/>
+      <c r="D663" s="59"/>
       <c r="E663" s="59"/>
     </row>
     <row r="664">
       <c r="A664" s="59"/>
+      <c r="D664" s="59"/>
       <c r="E664" s="59"/>
     </row>
     <row r="665">
       <c r="A665" s="59"/>
+      <c r="D665" s="59"/>
       <c r="E665" s="59"/>
     </row>
     <row r="666">
       <c r="A666" s="59"/>
+      <c r="D666" s="59"/>
       <c r="E666" s="59"/>
     </row>
     <row r="667">
       <c r="A667" s="59"/>
+      <c r="D667" s="59"/>
       <c r="E667" s="59"/>
     </row>
     <row r="668">
       <c r="A668" s="59"/>
+      <c r="D668" s="59"/>
       <c r="E668" s="59"/>
     </row>
     <row r="669">
       <c r="A669" s="59"/>
+      <c r="D669" s="59"/>
       <c r="E669" s="59"/>
     </row>
     <row r="670">
       <c r="A670" s="59"/>
+      <c r="D670" s="59"/>
       <c r="E670" s="59"/>
     </row>
     <row r="671">
       <c r="A671" s="59"/>
+      <c r="D671" s="59"/>
       <c r="E671" s="59"/>
     </row>
     <row r="672">
       <c r="A672" s="59"/>
+      <c r="D672" s="59"/>
       <c r="E672" s="59"/>
     </row>
     <row r="673">
       <c r="A673" s="59"/>
+      <c r="D673" s="59"/>
       <c r="E673" s="59"/>
     </row>
     <row r="674">
       <c r="A674" s="59"/>
+      <c r="D674" s="59"/>
       <c r="E674" s="59"/>
     </row>
     <row r="675">
       <c r="A675" s="59"/>
+      <c r="D675" s="59"/>
       <c r="E675" s="59"/>
     </row>
     <row r="676">
       <c r="A676" s="59"/>
+      <c r="D676" s="59"/>
       <c r="E676" s="59"/>
     </row>
     <row r="677">
       <c r="A677" s="59"/>
+      <c r="D677" s="59"/>
       <c r="E677" s="59"/>
     </row>
     <row r="678">
       <c r="A678" s="59"/>
+      <c r="D678" s="59"/>
       <c r="E678" s="59"/>
     </row>
     <row r="679">
       <c r="A679" s="59"/>
+      <c r="D679" s="59"/>
       <c r="E679" s="59"/>
     </row>
     <row r="680">
       <c r="A680" s="59"/>
+      <c r="D680" s="59"/>
       <c r="E680" s="59"/>
     </row>
     <row r="681">
       <c r="A681" s="59"/>
+      <c r="D681" s="59"/>
       <c r="E681" s="59"/>
     </row>
     <row r="682">
       <c r="A682" s="59"/>
+      <c r="D682" s="59"/>
       <c r="E682" s="59"/>
     </row>
     <row r="683">
       <c r="A683" s="59"/>
+      <c r="D683" s="59"/>
       <c r="E683" s="59"/>
     </row>
     <row r="684">
       <c r="A684" s="59"/>
+      <c r="D684" s="59"/>
       <c r="E684" s="59"/>
     </row>
     <row r="685">
       <c r="A685" s="59"/>
+      <c r="D685" s="59"/>
       <c r="E685" s="59"/>
     </row>
     <row r="686">
       <c r="A686" s="59"/>
+      <c r="D686" s="59"/>
       <c r="E686" s="59"/>
     </row>
     <row r="687">
       <c r="A687" s="59"/>
+      <c r="D687" s="59"/>
       <c r="E687" s="59"/>
     </row>
     <row r="688">
       <c r="A688" s="59"/>
+      <c r="D688" s="59"/>
       <c r="E688" s="59"/>
     </row>
     <row r="689">
       <c r="A689" s="59"/>
+      <c r="D689" s="59"/>
       <c r="E689" s="59"/>
     </row>
     <row r="690">
       <c r="A690" s="59"/>
+      <c r="D690" s="59"/>
       <c r="E690" s="59"/>
     </row>
     <row r="691">
       <c r="A691" s="59"/>
+      <c r="D691" s="59"/>
       <c r="E691" s="59"/>
     </row>
     <row r="692">
       <c r="A692" s="59"/>
+      <c r="D692" s="59"/>
       <c r="E692" s="59"/>
     </row>
     <row r="693">
       <c r="A693" s="59"/>
+      <c r="D693" s="59"/>
       <c r="E693" s="59"/>
     </row>
     <row r="694">
       <c r="A694" s="59"/>
+      <c r="D694" s="59"/>
       <c r="E694" s="59"/>
     </row>
     <row r="695">
       <c r="A695" s="59"/>
+      <c r="D695" s="59"/>
       <c r="E695" s="59"/>
     </row>
     <row r="696">
       <c r="A696" s="59"/>
+      <c r="D696" s="59"/>
       <c r="E696" s="59"/>
     </row>
     <row r="697">
       <c r="A697" s="59"/>
+      <c r="D697" s="59"/>
       <c r="E697" s="59"/>
     </row>
     <row r="698">
       <c r="A698" s="59"/>
+      <c r="D698" s="59"/>
       <c r="E698" s="59"/>
     </row>
     <row r="699">
       <c r="A699" s="59"/>
+      <c r="D699" s="59"/>
       <c r="E699" s="59"/>
     </row>
     <row r="700">
       <c r="A700" s="59"/>
+      <c r="D700" s="59"/>
       <c r="E700" s="59"/>
     </row>
     <row r="701">
       <c r="A701" s="59"/>
+      <c r="D701" s="59"/>
       <c r="E701" s="59"/>
     </row>
     <row r="702">
       <c r="A702" s="59"/>
+      <c r="D702" s="59"/>
       <c r="E702" s="59"/>
     </row>
     <row r="703">
       <c r="A703" s="59"/>
+      <c r="D703" s="59"/>
       <c r="E703" s="59"/>
     </row>
     <row r="704">
       <c r="A704" s="59"/>
+      <c r="D704" s="59"/>
       <c r="E704" s="59"/>
     </row>
     <row r="705">
       <c r="A705" s="59"/>
+      <c r="D705" s="59"/>
       <c r="E705" s="59"/>
     </row>
     <row r="706">
       <c r="A706" s="59"/>
+      <c r="D706" s="59"/>
       <c r="E706" s="59"/>
     </row>
     <row r="707">
       <c r="A707" s="59"/>
+      <c r="D707" s="59"/>
       <c r="E707" s="59"/>
     </row>
     <row r="708">
       <c r="A708" s="59"/>
+      <c r="D708" s="59"/>
       <c r="E708" s="59"/>
     </row>
     <row r="709">
       <c r="A709" s="59"/>
+      <c r="D709" s="59"/>
       <c r="E709" s="59"/>
     </row>
     <row r="710">
       <c r="A710" s="59"/>
+      <c r="D710" s="59"/>
       <c r="E710" s="59"/>
     </row>
     <row r="711">
       <c r="A711" s="59"/>
+      <c r="D711" s="59"/>
       <c r="E711" s="59"/>
     </row>
     <row r="712">
       <c r="A712" s="59"/>
+      <c r="D712" s="59"/>
       <c r="E712" s="59"/>
     </row>
     <row r="713">
       <c r="A713" s="59"/>
+      <c r="D713" s="59"/>
       <c r="E713" s="59"/>
     </row>
     <row r="714">
       <c r="A714" s="59"/>
+      <c r="D714" s="59"/>
       <c r="E714" s="59"/>
     </row>
     <row r="715">
       <c r="A715" s="59"/>
+      <c r="D715" s="59"/>
       <c r="E715" s="59"/>
     </row>
     <row r="716">
       <c r="A716" s="59"/>
+      <c r="D716" s="59"/>
       <c r="E716" s="59"/>
     </row>
     <row r="717">
       <c r="A717" s="59"/>
+      <c r="D717" s="59"/>
       <c r="E717" s="59"/>
     </row>
     <row r="718">
       <c r="A718" s="59"/>
+      <c r="D718" s="59"/>
       <c r="E718" s="59"/>
     </row>
     <row r="719">
       <c r="A719" s="59"/>
+      <c r="D719" s="59"/>
       <c r="E719" s="59"/>
     </row>
     <row r="720">
       <c r="A720" s="59"/>
+      <c r="D720" s="59"/>
       <c r="E720" s="59"/>
     </row>
     <row r="721">
       <c r="A721" s="59"/>
+      <c r="D721" s="59"/>
       <c r="E721" s="59"/>
     </row>
     <row r="722">
       <c r="A722" s="59"/>
+      <c r="D722" s="59"/>
       <c r="E722" s="59"/>
     </row>
     <row r="723">
       <c r="A723" s="59"/>
+      <c r="D723" s="59"/>
       <c r="E723" s="59"/>
     </row>
     <row r="724">
       <c r="A724" s="59"/>
+      <c r="D724" s="59"/>
       <c r="E724" s="59"/>
     </row>
     <row r="725">
       <c r="A725" s="59"/>
+      <c r="D725" s="59"/>
       <c r="E725" s="59"/>
     </row>
     <row r="726">
       <c r="A726" s="59"/>
+      <c r="D726" s="59"/>
       <c r="E726" s="59"/>
     </row>
     <row r="727">
       <c r="A727" s="59"/>
+      <c r="D727" s="59"/>
       <c r="E727" s="59"/>
     </row>
     <row r="728">
       <c r="A728" s="59"/>
+      <c r="D728" s="59"/>
       <c r="E728" s="59"/>
     </row>
     <row r="729">
       <c r="A729" s="59"/>
+      <c r="D729" s="59"/>
       <c r="E729" s="59"/>
     </row>
     <row r="730">
       <c r="A730" s="59"/>
+      <c r="D730" s="59"/>
       <c r="E730" s="59"/>
     </row>
     <row r="731">
       <c r="A731" s="59"/>
+      <c r="D731" s="59"/>
       <c r="E731" s="59"/>
     </row>
     <row r="732">
       <c r="A732" s="59"/>
+      <c r="D732" s="59"/>
       <c r="E732" s="59"/>
     </row>
     <row r="733">
       <c r="A733" s="59"/>
+      <c r="D733" s="59"/>
       <c r="E733" s="59"/>
     </row>
     <row r="734">
       <c r="A734" s="59"/>
+      <c r="D734" s="59"/>
       <c r="E734" s="59"/>
     </row>
     <row r="735">
       <c r="A735" s="59"/>
+      <c r="D735" s="59"/>
       <c r="E735" s="59"/>
     </row>
     <row r="736">
       <c r="A736" s="59"/>
+      <c r="D736" s="59"/>
       <c r="E736" s="59"/>
     </row>
     <row r="737">
       <c r="A737" s="59"/>
+      <c r="D737" s="59"/>
       <c r="E737" s="59"/>
     </row>
     <row r="738">
       <c r="A738" s="59"/>
+      <c r="D738" s="59"/>
       <c r="E738" s="59"/>
     </row>
     <row r="739">
       <c r="A739" s="59"/>
+      <c r="D739" s="59"/>
       <c r="E739" s="59"/>
     </row>
     <row r="740">
       <c r="A740" s="59"/>
+      <c r="D740" s="59"/>
       <c r="E740" s="59"/>
     </row>
     <row r="741">
       <c r="A741" s="59"/>
+      <c r="D741" s="59"/>
       <c r="E741" s="59"/>
     </row>
     <row r="742">
       <c r="A742" s="59"/>
+      <c r="D742" s="59"/>
       <c r="E742" s="59"/>
     </row>
     <row r="743">
       <c r="A743" s="59"/>
+      <c r="D743" s="59"/>
       <c r="E743" s="59"/>
     </row>
     <row r="744">
       <c r="A744" s="59"/>
+      <c r="D744" s="59"/>
       <c r="E744" s="59"/>
     </row>
     <row r="745">
       <c r="A745" s="59"/>
+      <c r="D745" s="59"/>
       <c r="E745" s="59"/>
     </row>
     <row r="746">
       <c r="A746" s="59"/>
+      <c r="D746" s="59"/>
       <c r="E746" s="59"/>
     </row>
     <row r="747">
       <c r="A747" s="59"/>
+      <c r="D747" s="59"/>
       <c r="E747" s="59"/>
     </row>
     <row r="748">
       <c r="A748" s="59"/>
+      <c r="D748" s="59"/>
       <c r="E748" s="59"/>
     </row>
     <row r="749">
       <c r="A749" s="59"/>
+      <c r="D749" s="59"/>
       <c r="E749" s="59"/>
     </row>
     <row r="750">
       <c r="A750" s="59"/>
+      <c r="D750" s="59"/>
       <c r="E750" s="59"/>
     </row>
     <row r="751">
       <c r="A751" s="59"/>
+      <c r="D751" s="59"/>
       <c r="E751" s="59"/>
     </row>
     <row r="752">
       <c r="A752" s="59"/>
+      <c r="D752" s="59"/>
       <c r="E752" s="59"/>
     </row>
     <row r="753">
       <c r="A753" s="59"/>
+      <c r="D753" s="59"/>
       <c r="E753" s="59"/>
     </row>
     <row r="754">
       <c r="A754" s="59"/>
+      <c r="D754" s="59"/>
       <c r="E754" s="59"/>
     </row>
     <row r="755">
       <c r="A755" s="59"/>
+      <c r="D755" s="59"/>
       <c r="E755" s="59"/>
     </row>
     <row r="756">
       <c r="A756" s="59"/>
+      <c r="D756" s="59"/>
       <c r="E756" s="59"/>
     </row>
     <row r="757">
       <c r="A757" s="59"/>
+      <c r="D757" s="59"/>
       <c r="E757" s="59"/>
     </row>
     <row r="758">
       <c r="A758" s="59"/>
+      <c r="D758" s="59"/>
       <c r="E758" s="59"/>
     </row>
     <row r="759">
       <c r="A759" s="59"/>
+      <c r="D759" s="59"/>
       <c r="E759" s="59"/>
     </row>
     <row r="760">
       <c r="A760" s="59"/>
+      <c r="D760" s="59"/>
       <c r="E760" s="59"/>
     </row>
     <row r="761">
       <c r="A761" s="59"/>
+      <c r="D761" s="59"/>
       <c r="E761" s="59"/>
     </row>
     <row r="762">
       <c r="A762" s="59"/>
+      <c r="D762" s="59"/>
       <c r="E762" s="59"/>
     </row>
     <row r="763">
       <c r="A763" s="59"/>
+      <c r="D763" s="59"/>
       <c r="E763" s="59"/>
     </row>
     <row r="764">
       <c r="A764" s="59"/>
+      <c r="D764" s="59"/>
       <c r="E764" s="59"/>
     </row>
     <row r="765">
       <c r="A765" s="59"/>
+      <c r="D765" s="59"/>
       <c r="E765" s="59"/>
     </row>
     <row r="766">
       <c r="A766" s="59"/>
+      <c r="D766" s="59"/>
       <c r="E766" s="59"/>
     </row>
     <row r="767">
       <c r="A767" s="59"/>
+      <c r="D767" s="59"/>
       <c r="E767" s="59"/>
     </row>
     <row r="768">
       <c r="A768" s="59"/>
+      <c r="D768" s="59"/>
       <c r="E768" s="59"/>
     </row>
     <row r="769">
       <c r="A769" s="59"/>
+      <c r="D769" s="59"/>
       <c r="E769" s="59"/>
     </row>
     <row r="770">
       <c r="A770" s="59"/>
+      <c r="D770" s="59"/>
       <c r="E770" s="59"/>
     </row>
     <row r="771">
       <c r="A771" s="59"/>
+      <c r="D771" s="59"/>
       <c r="E771" s="59"/>
     </row>
     <row r="772">
       <c r="A772" s="59"/>
+      <c r="D772" s="59"/>
       <c r="E772" s="59"/>
     </row>
     <row r="773">
       <c r="A773" s="59"/>
+      <c r="D773" s="59"/>
       <c r="E773" s="59"/>
     </row>
     <row r="774">
       <c r="A774" s="59"/>
+      <c r="D774" s="59"/>
       <c r="E774" s="59"/>
     </row>
     <row r="775">
       <c r="A775" s="59"/>
+      <c r="D775" s="59"/>
       <c r="E775" s="59"/>
     </row>
     <row r="776">
       <c r="A776" s="59"/>
+      <c r="D776" s="59"/>
       <c r="E776" s="59"/>
     </row>
     <row r="777">
       <c r="A777" s="59"/>
+      <c r="D777" s="59"/>
       <c r="E777" s="59"/>
     </row>
     <row r="778">
       <c r="A778" s="59"/>
+      <c r="D778" s="59"/>
       <c r="E778" s="59"/>
     </row>
     <row r="779">
       <c r="A779" s="59"/>
+      <c r="D779" s="59"/>
       <c r="E779" s="59"/>
     </row>
     <row r="780">
       <c r="A780" s="59"/>
+      <c r="D780" s="59"/>
       <c r="E780" s="59"/>
     </row>
     <row r="781">
       <c r="A781" s="59"/>
+      <c r="D781" s="59"/>
       <c r="E781" s="59"/>
     </row>
     <row r="782">
       <c r="A782" s="59"/>
+      <c r="D782" s="59"/>
       <c r="E782" s="59"/>
     </row>
     <row r="783">
       <c r="A783" s="59"/>
+      <c r="D783" s="59"/>
       <c r="E783" s="59"/>
     </row>
     <row r="784">
       <c r="A784" s="59"/>
+      <c r="D784" s="59"/>
       <c r="E784" s="59"/>
     </row>
     <row r="785">
       <c r="A785" s="59"/>
+      <c r="D785" s="59"/>
       <c r="E785" s="59"/>
     </row>
     <row r="786">
       <c r="A786" s="59"/>
+      <c r="D786" s="59"/>
       <c r="E786" s="59"/>
     </row>
     <row r="787">
       <c r="A787" s="59"/>
+      <c r="D787" s="59"/>
       <c r="E787" s="59"/>
     </row>
     <row r="788">
       <c r="A788" s="59"/>
+      <c r="D788" s="59"/>
       <c r="E788" s="59"/>
     </row>
     <row r="789">
       <c r="A789" s="59"/>
+      <c r="D789" s="59"/>
       <c r="E789" s="59"/>
     </row>
     <row r="790">
       <c r="A790" s="59"/>
+      <c r="D790" s="59"/>
       <c r="E790" s="59"/>
     </row>
     <row r="791">
       <c r="A791" s="59"/>
+      <c r="D791" s="59"/>
       <c r="E791" s="59"/>
     </row>
     <row r="792">
       <c r="A792" s="59"/>
+      <c r="D792" s="59"/>
       <c r="E792" s="59"/>
     </row>
     <row r="793">
       <c r="A793" s="59"/>
+      <c r="D793" s="59"/>
       <c r="E793" s="59"/>
     </row>
     <row r="794">
       <c r="A794" s="59"/>
+      <c r="D794" s="59"/>
       <c r="E794" s="59"/>
     </row>
     <row r="795">
       <c r="A795" s="59"/>
+      <c r="D795" s="59"/>
       <c r="E795" s="59"/>
     </row>
     <row r="796">
       <c r="A796" s="59"/>
+      <c r="D796" s="59"/>
       <c r="E796" s="59"/>
     </row>
     <row r="797">
       <c r="A797" s="59"/>
+      <c r="D797" s="59"/>
       <c r="E797" s="59"/>
     </row>
     <row r="798">
       <c r="A798" s="59"/>
+      <c r="D798" s="59"/>
       <c r="E798" s="59"/>
     </row>
     <row r="799">
       <c r="A799" s="59"/>
+      <c r="D799" s="59"/>
       <c r="E799" s="59"/>
     </row>
     <row r="800">
       <c r="A800" s="59"/>
+      <c r="D800" s="59"/>
       <c r="E800" s="59"/>
     </row>
     <row r="801">
       <c r="A801" s="59"/>
+      <c r="D801" s="59"/>
       <c r="E801" s="59"/>
     </row>
     <row r="802">
       <c r="A802" s="59"/>
+      <c r="D802" s="59"/>
       <c r="E802" s="59"/>
     </row>
     <row r="803">
       <c r="A803" s="59"/>
+      <c r="D803" s="59"/>
       <c r="E803" s="59"/>
     </row>
     <row r="804">
       <c r="A804" s="59"/>
+      <c r="D804" s="59"/>
       <c r="E804" s="59"/>
     </row>
     <row r="805">
       <c r="A805" s="59"/>
+      <c r="D805" s="59"/>
       <c r="E805" s="59"/>
     </row>
     <row r="806">
       <c r="A806" s="59"/>
+      <c r="D806" s="59"/>
       <c r="E806" s="59"/>
     </row>
     <row r="807">
       <c r="A807" s="59"/>
+      <c r="D807" s="59"/>
       <c r="E807" s="59"/>
     </row>
     <row r="808">
       <c r="A808" s="59"/>
+      <c r="D808" s="59"/>
       <c r="E808" s="59"/>
     </row>
     <row r="809">
       <c r="A809" s="59"/>
+      <c r="D809" s="59"/>
       <c r="E809" s="59"/>
     </row>
     <row r="810">
       <c r="A810" s="59"/>
+      <c r="D810" s="59"/>
       <c r="E810" s="59"/>
     </row>
     <row r="811">
       <c r="A811" s="59"/>
+      <c r="D811" s="59"/>
       <c r="E811" s="59"/>
     </row>
     <row r="812">
       <c r="A812" s="59"/>
+      <c r="D812" s="59"/>
       <c r="E812" s="59"/>
     </row>
     <row r="813">
       <c r="A813" s="59"/>
+      <c r="D813" s="59"/>
       <c r="E813" s="59"/>
     </row>
     <row r="814">
       <c r="A814" s="59"/>
+      <c r="D814" s="59"/>
       <c r="E814" s="59"/>
     </row>
     <row r="815">
       <c r="A815" s="59"/>
+      <c r="D815" s="59"/>
       <c r="E815" s="59"/>
     </row>
     <row r="816">
       <c r="A816" s="59"/>
+      <c r="D816" s="59"/>
       <c r="E816" s="59"/>
     </row>
     <row r="817">
       <c r="A817" s="59"/>
+      <c r="D817" s="59"/>
       <c r="E817" s="59"/>
     </row>
     <row r="818">
       <c r="A818" s="59"/>
+      <c r="D818" s="59"/>
       <c r="E818" s="59"/>
     </row>
     <row r="819">
       <c r="A819" s="59"/>
+      <c r="D819" s="59"/>
       <c r="E819" s="59"/>
     </row>
     <row r="820">
       <c r="A820" s="59"/>
+      <c r="D820" s="59"/>
       <c r="E820" s="59"/>
     </row>
     <row r="821">
       <c r="A821" s="59"/>
+      <c r="D821" s="59"/>
       <c r="E821" s="59"/>
     </row>
     <row r="822">
       <c r="A822" s="59"/>
+      <c r="D822" s="59"/>
       <c r="E822" s="59"/>
     </row>
     <row r="823">
       <c r="A823" s="59"/>
+      <c r="D823" s="59"/>
       <c r="E823" s="59"/>
     </row>
     <row r="824">
       <c r="A824" s="59"/>
+      <c r="D824" s="59"/>
       <c r="E824" s="59"/>
     </row>
     <row r="825">
       <c r="A825" s="59"/>
+      <c r="D825" s="59"/>
       <c r="E825" s="59"/>
     </row>
     <row r="826">
       <c r="A826" s="59"/>
+      <c r="D826" s="59"/>
       <c r="E826" s="59"/>
     </row>
     <row r="827">
       <c r="A827" s="59"/>
+      <c r="D827" s="59"/>
       <c r="E827" s="59"/>
     </row>
     <row r="828">
       <c r="A828" s="59"/>
+      <c r="D828" s="59"/>
       <c r="E828" s="59"/>
     </row>
     <row r="829">
       <c r="A829" s="59"/>
+      <c r="D829" s="59"/>
       <c r="E829" s="59"/>
     </row>
     <row r="830">
       <c r="A830" s="59"/>
+      <c r="D830" s="59"/>
       <c r="E830" s="59"/>
     </row>
     <row r="831">
       <c r="A831" s="59"/>
+      <c r="D831" s="59"/>
       <c r="E831" s="59"/>
     </row>
     <row r="832">
       <c r="A832" s="59"/>
+      <c r="D832" s="59"/>
       <c r="E832" s="59"/>
     </row>
     <row r="833">
       <c r="A833" s="59"/>
+      <c r="D833" s="59"/>
       <c r="E833" s="59"/>
     </row>
     <row r="834">
       <c r="A834" s="59"/>
+      <c r="D834" s="59"/>
       <c r="E834" s="59"/>
     </row>
     <row r="835">
       <c r="A835" s="59"/>
+      <c r="D835" s="59"/>
       <c r="E835" s="59"/>
     </row>
     <row r="836">
       <c r="A836" s="59"/>
+      <c r="D836" s="59"/>
       <c r="E836" s="59"/>
     </row>
     <row r="837">
       <c r="A837" s="59"/>
+      <c r="D837" s="59"/>
       <c r="E837" s="59"/>
     </row>
     <row r="838">
       <c r="A838" s="59"/>
+      <c r="D838" s="59"/>
       <c r="E838" s="59"/>
     </row>
     <row r="839">
       <c r="A839" s="59"/>
+      <c r="D839" s="59"/>
       <c r="E839" s="59"/>
     </row>
     <row r="840">
       <c r="A840" s="59"/>
+      <c r="D840" s="59"/>
       <c r="E840" s="59"/>
     </row>
     <row r="841">
       <c r="A841" s="59"/>
+      <c r="D841" s="59"/>
       <c r="E841" s="59"/>
     </row>
     <row r="842">
       <c r="A842" s="59"/>
+      <c r="D842" s="59"/>
       <c r="E842" s="59"/>
     </row>
     <row r="843">
       <c r="A843" s="59"/>
+      <c r="D843" s="59"/>
       <c r="E843" s="59"/>
     </row>
     <row r="844">
       <c r="A844" s="59"/>
+      <c r="D844" s="59"/>
       <c r="E844" s="59"/>
     </row>
     <row r="845">
       <c r="A845" s="59"/>
+      <c r="D845" s="59"/>
       <c r="E845" s="59"/>
     </row>
     <row r="846">
       <c r="A846" s="59"/>
+      <c r="D846" s="59"/>
       <c r="E846" s="59"/>
     </row>
     <row r="847">
       <c r="A847" s="59"/>
+      <c r="D847" s="59"/>
       <c r="E847" s="59"/>
     </row>
     <row r="848">
       <c r="A848" s="59"/>
+      <c r="D848" s="59"/>
       <c r="E848" s="59"/>
     </row>
     <row r="849">
       <c r="A849" s="59"/>
+      <c r="D849" s="59"/>
       <c r="E849" s="59"/>
     </row>
     <row r="850">
       <c r="A850" s="59"/>
+      <c r="D850" s="59"/>
       <c r="E850" s="59"/>
     </row>
     <row r="851">
       <c r="A851" s="59"/>
+      <c r="D851" s="59"/>
       <c r="E851" s="59"/>
     </row>
     <row r="852">
       <c r="A852" s="59"/>
+      <c r="D852" s="59"/>
       <c r="E852" s="59"/>
     </row>
     <row r="853">
       <c r="A853" s="59"/>
+      <c r="D853" s="59"/>
       <c r="E853" s="59"/>
     </row>
     <row r="854">
       <c r="A854" s="59"/>
+      <c r="D854" s="59"/>
       <c r="E854" s="59"/>
     </row>
     <row r="855">
       <c r="A855" s="59"/>
+      <c r="D855" s="59"/>
       <c r="E855" s="59"/>
     </row>
     <row r="856">
       <c r="A856" s="59"/>
+      <c r="D856" s="59"/>
       <c r="E856" s="59"/>
     </row>
     <row r="857">
       <c r="A857" s="59"/>
+      <c r="D857" s="59"/>
       <c r="E857" s="59"/>
     </row>
     <row r="858">
       <c r="A858" s="59"/>
+      <c r="D858" s="59"/>
       <c r="E858" s="59"/>
     </row>
     <row r="859">
       <c r="A859" s="59"/>
+      <c r="D859" s="59"/>
       <c r="E859" s="59"/>
     </row>
     <row r="860">
       <c r="A860" s="59"/>
+      <c r="D860" s="59"/>
       <c r="E860" s="59"/>
     </row>
     <row r="861">
       <c r="A861" s="59"/>
+      <c r="D861" s="59"/>
       <c r="E861" s="59"/>
     </row>
     <row r="862">
       <c r="A862" s="59"/>
+      <c r="D862" s="59"/>
       <c r="E862" s="59"/>
     </row>
     <row r="863">
       <c r="A863" s="59"/>
+      <c r="D863" s="59"/>
       <c r="E863" s="59"/>
     </row>
     <row r="864">
       <c r="A864" s="59"/>
+      <c r="D864" s="59"/>
       <c r="E864" s="59"/>
     </row>
     <row r="865">
       <c r="A865" s="59"/>
+      <c r="D865" s="59"/>
       <c r="E865" s="59"/>
     </row>
     <row r="866">
       <c r="A866" s="59"/>
+      <c r="D866" s="59"/>
       <c r="E866" s="59"/>
     </row>
     <row r="867">
       <c r="A867" s="59"/>
+      <c r="D867" s="59"/>
       <c r="E867" s="59"/>
     </row>
     <row r="868">
       <c r="A868" s="59"/>
+      <c r="D868" s="59"/>
       <c r="E868" s="59"/>
     </row>
     <row r="869">
       <c r="A869" s="59"/>
+      <c r="D869" s="59"/>
       <c r="E869" s="59"/>
     </row>
     <row r="870">
       <c r="A870" s="59"/>
+      <c r="D870" s="59"/>
       <c r="E870" s="59"/>
     </row>
     <row r="871">
       <c r="A871" s="59"/>
+      <c r="D871" s="59"/>
       <c r="E871" s="59"/>
     </row>
     <row r="872">
       <c r="A872" s="59"/>
+      <c r="D872" s="59"/>
       <c r="E872" s="59"/>
     </row>
     <row r="873">
       <c r="A873" s="59"/>
+      <c r="D873" s="59"/>
       <c r="E873" s="59"/>
     </row>
     <row r="874">
       <c r="A874" s="59"/>
+      <c r="D874" s="59"/>
       <c r="E874" s="59"/>
     </row>
     <row r="875">
       <c r="A875" s="59"/>
+      <c r="D875" s="59"/>
       <c r="E875" s="59"/>
     </row>
     <row r="876">
       <c r="A876" s="59"/>
+      <c r="D876" s="59"/>
       <c r="E876" s="59"/>
     </row>
     <row r="877">
       <c r="A877" s="59"/>
+      <c r="D877" s="59"/>
       <c r="E877" s="59"/>
     </row>
     <row r="878">
       <c r="A878" s="59"/>
+      <c r="D878" s="59"/>
       <c r="E878" s="59"/>
     </row>
     <row r="879">
       <c r="A879" s="59"/>
+      <c r="D879" s="59"/>
       <c r="E879" s="59"/>
     </row>
     <row r="880">
       <c r="A880" s="59"/>
+      <c r="D880" s="59"/>
       <c r="E880" s="59"/>
     </row>
     <row r="881">
       <c r="A881" s="59"/>
+      <c r="D881" s="59"/>
       <c r="E881" s="59"/>
     </row>
     <row r="882">
       <c r="A882" s="59"/>
+      <c r="D882" s="59"/>
       <c r="E882" s="59"/>
     </row>
     <row r="883">
       <c r="A883" s="59"/>
+      <c r="D883" s="59"/>
       <c r="E883" s="59"/>
     </row>
     <row r="884">
       <c r="A884" s="59"/>
+      <c r="D884" s="59"/>
       <c r="E884" s="59"/>
     </row>
     <row r="885">
       <c r="A885" s="59"/>
+      <c r="D885" s="59"/>
       <c r="E885" s="59"/>
     </row>
     <row r="886">
       <c r="A886" s="59"/>
+      <c r="D886" s="59"/>
       <c r="E886" s="59"/>
     </row>
     <row r="887">
       <c r="A887" s="59"/>
+      <c r="D887" s="59"/>
       <c r="E887" s="59"/>
     </row>
     <row r="888">
       <c r="A888" s="59"/>
+      <c r="D888" s="59"/>
       <c r="E888" s="59"/>
     </row>
     <row r="889">
       <c r="A889" s="59"/>
+      <c r="D889" s="59"/>
       <c r="E889" s="59"/>
     </row>
     <row r="890">
       <c r="A890" s="59"/>
+      <c r="D890" s="59"/>
       <c r="E890" s="59"/>
     </row>
     <row r="891">
       <c r="A891" s="59"/>
+      <c r="D891" s="59"/>
       <c r="E891" s="59"/>
     </row>
     <row r="892">
       <c r="A892" s="59"/>
+      <c r="D892" s="59"/>
       <c r="E892" s="59"/>
     </row>
     <row r="893">
       <c r="A893" s="59"/>
+      <c r="D893" s="59"/>
       <c r="E893" s="59"/>
     </row>
     <row r="894">
       <c r="A894" s="59"/>
+      <c r="D894" s="59"/>
       <c r="E894" s="59"/>
     </row>
     <row r="895">
       <c r="A895" s="59"/>
+      <c r="D895" s="59"/>
       <c r="E895" s="59"/>
     </row>
     <row r="896">
       <c r="A896" s="59"/>
+      <c r="D896" s="59"/>
       <c r="E896" s="59"/>
     </row>
     <row r="897">
       <c r="A897" s="59"/>
+      <c r="D897" s="59"/>
       <c r="E897" s="59"/>
     </row>
     <row r="898">
       <c r="A898" s="59"/>
+      <c r="D898" s="59"/>
       <c r="E898" s="59"/>
     </row>
     <row r="899">
       <c r="A899" s="59"/>
+      <c r="D899" s="59"/>
       <c r="E899" s="59"/>
     </row>
     <row r="900">
       <c r="A900" s="59"/>
+      <c r="D900" s="59"/>
       <c r="E900" s="59"/>
     </row>
     <row r="901">
       <c r="A901" s="59"/>
+      <c r="D901" s="59"/>
       <c r="E901" s="59"/>
     </row>
     <row r="902">
       <c r="A902" s="59"/>
+      <c r="D902" s="59"/>
       <c r="E902" s="59"/>
     </row>
     <row r="903">
       <c r="A903" s="59"/>
+      <c r="D903" s="59"/>
       <c r="E903" s="59"/>
     </row>
     <row r="904">
       <c r="A904" s="59"/>
+      <c r="D904" s="59"/>
       <c r="E904" s="59"/>
     </row>
     <row r="905">
       <c r="A905" s="59"/>
+      <c r="D905" s="59"/>
       <c r="E905" s="59"/>
     </row>
     <row r="906">
       <c r="A906" s="59"/>
+      <c r="D906" s="59"/>
       <c r="E906" s="59"/>
     </row>
     <row r="907">
       <c r="A907" s="59"/>
+      <c r="D907" s="59"/>
       <c r="E907" s="59"/>
     </row>
     <row r="908">
       <c r="A908" s="59"/>
+      <c r="D908" s="59"/>
       <c r="E908" s="59"/>
     </row>
     <row r="909">
       <c r="A909" s="59"/>
+      <c r="D909" s="59"/>
       <c r="E909" s="59"/>
     </row>
     <row r="910">
       <c r="A910" s="59"/>
+      <c r="D910" s="59"/>
       <c r="E910" s="59"/>
     </row>
     <row r="911">
       <c r="A911" s="59"/>
+      <c r="D911" s="59"/>
       <c r="E911" s="59"/>
     </row>
     <row r="912">
       <c r="A912" s="59"/>
+      <c r="D912" s="59"/>
       <c r="E912" s="59"/>
     </row>
     <row r="913">
       <c r="A913" s="59"/>
+      <c r="D913" s="59"/>
       <c r="E913" s="59"/>
     </row>
     <row r="914">
       <c r="A914" s="59"/>
+      <c r="D914" s="59"/>
       <c r="E914" s="59"/>
     </row>
     <row r="915">
       <c r="A915" s="59"/>
+      <c r="D915" s="59"/>
       <c r="E915" s="59"/>
     </row>
     <row r="916">
       <c r="A916" s="59"/>
+      <c r="D916" s="59"/>
       <c r="E916" s="59"/>
     </row>
     <row r="917">
       <c r="A917" s="59"/>
+      <c r="D917" s="59"/>
       <c r="E917" s="59"/>
     </row>
     <row r="918">
       <c r="A918" s="59"/>
+      <c r="D918" s="59"/>
       <c r="E918" s="59"/>
     </row>
     <row r="919">
       <c r="A919" s="59"/>
+      <c r="D919" s="59"/>
       <c r="E919" s="59"/>
     </row>
     <row r="920">
       <c r="A920" s="59"/>
+      <c r="D920" s="59"/>
       <c r="E920" s="59"/>
     </row>
     <row r="921">
       <c r="A921" s="59"/>
+      <c r="D921" s="59"/>
       <c r="E921" s="59"/>
     </row>
     <row r="922">
       <c r="A922" s="59"/>
+      <c r="D922" s="59"/>
       <c r="E922" s="59"/>
     </row>
     <row r="923">
       <c r="A923" s="59"/>
+      <c r="D923" s="59"/>
       <c r="E923" s="59"/>
     </row>
     <row r="924">
       <c r="A924" s="59"/>
+      <c r="D924" s="59"/>
       <c r="E924" s="59"/>
     </row>
     <row r="925">
       <c r="A925" s="59"/>
+      <c r="D925" s="59"/>
       <c r="E925" s="59"/>
     </row>
     <row r="926">
       <c r="A926" s="59"/>
+      <c r="D926" s="59"/>
       <c r="E926" s="59"/>
     </row>
     <row r="927">
       <c r="A927" s="59"/>
+      <c r="D927" s="59"/>
       <c r="E927" s="59"/>
     </row>
     <row r="928">
       <c r="A928" s="59"/>
+      <c r="D928" s="59"/>
       <c r="E928" s="59"/>
     </row>
     <row r="929">
       <c r="A929" s="59"/>
+      <c r="D929" s="59"/>
       <c r="E929" s="59"/>
     </row>
     <row r="930">
       <c r="A930" s="59"/>
+      <c r="D930" s="59"/>
       <c r="E930" s="59"/>
     </row>
     <row r="931">
       <c r="A931" s="59"/>
+      <c r="D931" s="59"/>
       <c r="E931" s="59"/>
     </row>
     <row r="932">
       <c r="A932" s="59"/>
+      <c r="D932" s="59"/>
       <c r="E932" s="59"/>
     </row>
     <row r="933">
       <c r="A933" s="59"/>
+      <c r="D933" s="59"/>
       <c r="E933" s="59"/>
     </row>
     <row r="934">
       <c r="A934" s="59"/>
+      <c r="D934" s="59"/>
       <c r="E934" s="59"/>
     </row>
     <row r="935">
       <c r="A935" s="59"/>
+      <c r="D935" s="59"/>
       <c r="E935" s="59"/>
     </row>
     <row r="936">
       <c r="A936" s="59"/>
+      <c r="D936" s="59"/>
       <c r="E936" s="59"/>
     </row>
     <row r="937">
       <c r="A937" s="59"/>
+      <c r="D937" s="59"/>
       <c r="E937" s="59"/>
     </row>
     <row r="938">
       <c r="A938" s="59"/>
+      <c r="D938" s="59"/>
       <c r="E938" s="59"/>
     </row>
     <row r="939">
       <c r="A939" s="59"/>
+      <c r="D939" s="59"/>
       <c r="E939" s="59"/>
     </row>
     <row r="940">
       <c r="A940" s="59"/>
+      <c r="D940" s="59"/>
       <c r="E940" s="59"/>
     </row>
     <row r="941">
       <c r="A941" s="59"/>
+      <c r="D941" s="59"/>
       <c r="E941" s="59"/>
     </row>
     <row r="942">
       <c r="A942" s="59"/>
+      <c r="D942" s="59"/>
       <c r="E942" s="59"/>
     </row>
     <row r="943">
       <c r="A943" s="59"/>
+      <c r="D943" s="59"/>
       <c r="E943" s="59"/>
     </row>
     <row r="944">
       <c r="A944" s="59"/>
+      <c r="D944" s="59"/>
       <c r="E944" s="59"/>
     </row>
     <row r="945">
       <c r="A945" s="59"/>
+      <c r="D945" s="59"/>
       <c r="E945" s="59"/>
     </row>
     <row r="946">
       <c r="A946" s="59"/>
+      <c r="D946" s="59"/>
       <c r="E946" s="59"/>
     </row>
     <row r="947">
       <c r="A947" s="59"/>
+      <c r="D947" s="59"/>
       <c r="E947" s="59"/>
     </row>
     <row r="948">
       <c r="A948" s="59"/>
+      <c r="D948" s="59"/>
       <c r="E948" s="59"/>
     </row>
     <row r="949">
       <c r="A949" s="59"/>
+      <c r="D949" s="59"/>
       <c r="E949" s="59"/>
     </row>
     <row r="950">
       <c r="A950" s="59"/>
+      <c r="D950" s="59"/>
       <c r="E950" s="59"/>
     </row>
     <row r="951">
       <c r="A951" s="59"/>
+      <c r="D951" s="59"/>
       <c r="E951" s="59"/>
     </row>
     <row r="952">
       <c r="A952" s="59"/>
+      <c r="D952" s="59"/>
       <c r="E952" s="59"/>
     </row>
     <row r="953">
       <c r="A953" s="59"/>
+      <c r="D953" s="59"/>
       <c r="E953" s="59"/>
     </row>
     <row r="954">
       <c r="A954" s="59"/>
+      <c r="D954" s="59"/>
       <c r="E954" s="59"/>
     </row>
     <row r="955">
       <c r="A955" s="59"/>
+      <c r="D955" s="59"/>
       <c r="E955" s="59"/>
     </row>
     <row r="956">
       <c r="A956" s="59"/>
+      <c r="D956" s="59"/>
       <c r="E956" s="59"/>
     </row>
     <row r="957">
       <c r="A957" s="59"/>
+      <c r="D957" s="59"/>
       <c r="E957" s="59"/>
     </row>
     <row r="958">
       <c r="A958" s="59"/>
+      <c r="D958" s="59"/>
       <c r="E958" s="59"/>
     </row>
     <row r="959">
       <c r="A959" s="59"/>
+      <c r="D959" s="59"/>
       <c r="E959" s="59"/>
     </row>
     <row r="960">
       <c r="A960" s="59"/>
+      <c r="D960" s="59"/>
       <c r="E960" s="59"/>
     </row>
     <row r="961">
       <c r="A961" s="59"/>
+      <c r="D961" s="59"/>
       <c r="E961" s="59"/>
     </row>
     <row r="962">
       <c r="A962" s="59"/>
+      <c r="D962" s="59"/>
       <c r="E962" s="59"/>
     </row>
     <row r="963">
       <c r="A963" s="59"/>
+      <c r="D963" s="59"/>
       <c r="E963" s="59"/>
     </row>
     <row r="964">
       <c r="A964" s="59"/>
+      <c r="D964" s="59"/>
       <c r="E964" s="59"/>
     </row>
     <row r="965">
       <c r="A965" s="59"/>
+      <c r="D965" s="59"/>
       <c r="E965" s="59"/>
     </row>
     <row r="966">
       <c r="A966" s="59"/>
+      <c r="D966" s="59"/>
       <c r="E966" s="59"/>
     </row>
     <row r="967">
       <c r="A967" s="59"/>
+      <c r="D967" s="59"/>
       <c r="E967" s="59"/>
     </row>
     <row r="968">
       <c r="A968" s="59"/>
+      <c r="D968" s="59"/>
       <c r="E968" s="59"/>
     </row>
     <row r="969">
       <c r="A969" s="59"/>
+      <c r="D969" s="59"/>
       <c r="E969" s="59"/>
     </row>
     <row r="970">
       <c r="A970" s="59"/>
+      <c r="D970" s="59"/>
       <c r="E970" s="59"/>
     </row>
     <row r="971">
       <c r="A971" s="59"/>
+      <c r="D971" s="59"/>
       <c r="E971" s="59"/>
     </row>
     <row r="972">
       <c r="A972" s="59"/>
+      <c r="D972" s="59"/>
       <c r="E972" s="59"/>
     </row>
     <row r="973">
       <c r="A973" s="59"/>
+      <c r="D973" s="59"/>
       <c r="E973" s="59"/>
     </row>
     <row r="974">
       <c r="A974" s="59"/>
+      <c r="D974" s="59"/>
       <c r="E974" s="59"/>
     </row>
     <row r="975">
       <c r="A975" s="59"/>
+      <c r="D975" s="59"/>
       <c r="E975" s="59"/>
     </row>
     <row r="976">
       <c r="A976" s="59"/>
+      <c r="D976" s="59"/>
       <c r="E976" s="59"/>
     </row>
     <row r="977">
       <c r="A977" s="59"/>
+      <c r="D977" s="59"/>
       <c r="E977" s="59"/>
     </row>
     <row r="978">
       <c r="A978" s="59"/>
+      <c r="D978" s="59"/>
       <c r="E978" s="59"/>
     </row>
     <row r="979">
       <c r="A979" s="59"/>
+      <c r="D979" s="59"/>
       <c r="E979" s="59"/>
     </row>
     <row r="980">
       <c r="A980" s="59"/>
+      <c r="D980" s="59"/>
       <c r="E980" s="59"/>
     </row>
     <row r="981">
       <c r="A981" s="59"/>
+      <c r="D981" s="59"/>
       <c r="E981" s="59"/>
     </row>
     <row r="982">
       <c r="A982" s="59"/>
+      <c r="D982" s="59"/>
       <c r="E982" s="59"/>
     </row>
     <row r="983">
       <c r="A983" s="59"/>
+      <c r="D983" s="59"/>
       <c r="E983" s="59"/>
     </row>
     <row r="984">
       <c r="A984" s="59"/>
+      <c r="D984" s="59"/>
       <c r="E984" s="59"/>
     </row>
     <row r="985">
       <c r="A985" s="59"/>
+      <c r="D985" s="59"/>
       <c r="E985" s="59"/>
     </row>
     <row r="986">
       <c r="A986" s="59"/>
+      <c r="D986" s="59"/>
       <c r="E986" s="59"/>
     </row>
     <row r="987">
       <c r="A987" s="59"/>
+      <c r="D987" s="59"/>
       <c r="E987" s="59"/>
     </row>
     <row r="988">
       <c r="A988" s="59"/>
+      <c r="D988" s="59"/>
       <c r="E988" s="59"/>
     </row>
     <row r="989">
       <c r="A989" s="59"/>
+      <c r="D989" s="59"/>
       <c r="E989" s="59"/>
     </row>
     <row r="990">
       <c r="A990" s="59"/>
+      <c r="D990" s="59"/>
       <c r="E990" s="59"/>
     </row>
     <row r="991">
       <c r="A991" s="59"/>
+      <c r="D991" s="59"/>
       <c r="E991" s="59"/>
     </row>
     <row r="992">
       <c r="A992" s="59"/>
+      <c r="D992" s="59"/>
       <c r="E992" s="59"/>
     </row>
     <row r="993">
       <c r="A993" s="59"/>
+      <c r="D993" s="59"/>
       <c r="E993" s="59"/>
-    </row>
-    <row r="994">
-      <c r="A994" s="59"/>
-      <c r="E994" s="59"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="59"/>
-      <c r="E995" s="59"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="59"/>
-      <c r="E996" s="59"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="59"/>
-      <c r="E997" s="59"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="59"/>
-      <c r="E998" s="59"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="59"/>
-      <c r="E999" s="59"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="59"/>
-      <c r="E1000" s="59"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B2"/>
     <hyperlink r:id="rId2" ref="B3"/>
     <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="B5"/>
+    <hyperlink r:id="rId5" ref="B6"/>
+    <hyperlink r:id="rId6" ref="B7"/>
+    <hyperlink r:id="rId7" ref="B8"/>
+    <hyperlink r:id="rId8" ref="B9"/>
+    <hyperlink r:id="rId9" ref="B10"/>
+    <hyperlink r:id="rId10" ref="B11"/>
+    <hyperlink r:id="rId11" ref="B12"/>
+    <hyperlink r:id="rId12" ref="B13"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -32596,6 +33669,3319 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="5.0"/>
+    <col customWidth="1" min="2" max="2" width="56.71"/>
+    <col customWidth="1" min="4" max="4" width="21.14"/>
+    <col customWidth="1" min="9" max="9" width="44.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="53">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="57">
+        <v>45572.0</v>
+      </c>
+      <c r="I2" s="55"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="53">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="57">
+        <v>45572.0</v>
+      </c>
+      <c r="I3" s="55"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="53">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="57">
+        <v>45572.0</v>
+      </c>
+      <c r="I4" s="55"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="53">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>353</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="57">
+        <v>45573.0</v>
+      </c>
+      <c r="I5" s="55"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="53">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>354</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="57">
+        <v>45573.0</v>
+      </c>
+      <c r="I6" s="55"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="53">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="57">
+        <v>45573.0</v>
+      </c>
+      <c r="I7" s="55"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="53">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="55"/>
+      <c r="D8" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="57">
+        <v>45573.0</v>
+      </c>
+      <c r="I8" s="55"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="53">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="57">
+        <v>45578.0</v>
+      </c>
+      <c r="I9" s="55"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="53">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="57">
+        <v>45578.0</v>
+      </c>
+      <c r="I10" s="58" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="53">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>360</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="57">
+        <v>45578.0</v>
+      </c>
+      <c r="I11" s="55"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="53">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="53">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="53">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="53">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="59"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="59"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="59"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="59"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="59"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="59"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="59"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="59"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="59"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="59"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="59"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="59"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="59"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="59"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="59"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="59"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="59"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="59"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="59"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="59"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="59"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="59"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="59"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="59"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="59"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="59"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="59"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="59"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="59"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="59"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="59"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="59"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="59"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="59"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="59"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="59"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="59"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="59"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="59"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="59"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="59"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="59"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="59"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="59"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="59"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="59"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="59"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="59"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="59"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="59"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="59"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="59"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="59"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="59"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="59"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="59"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="59"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="59"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="59"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="59"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="59"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="59"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="59"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="59"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="59"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="59"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="59"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="59"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="59"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="59"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="59"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="59"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="59"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="59"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="59"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="59"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="59"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="59"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="59"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="59"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="59"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="59"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="59"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="59"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="59"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="59"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="59"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="59"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="59"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="59"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="59"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="59"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="59"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="59"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="59"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="59"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="59"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="59"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="59"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="59"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="59"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="59"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="59"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="59"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="59"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="59"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="59"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="59"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="59"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="59"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="59"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="59"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="59"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="59"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="59"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="59"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="59"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="59"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="59"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="59"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="59"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="59"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="59"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="59"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="59"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="59"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="59"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="59"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="59"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="59"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="59"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="59"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="59"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="59"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="59"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="59"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="59"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="59"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="59"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="59"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="59"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="59"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="59"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="59"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="59"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="59"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="59"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="59"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="59"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="59"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="59"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="59"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="59"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="59"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="59"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="59"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="59"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="59"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="59"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="59"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="59"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="59"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="59"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="59"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="59"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="59"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="59"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="59"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="59"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="59"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="59"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="59"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="59"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="59"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="59"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="59"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="59"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="59"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="59"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="59"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="59"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="59"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="59"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="59"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="59"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="59"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="59"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="59"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="59"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="59"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="59"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="59"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="59"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="59"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="59"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="59"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="59"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="59"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="59"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="59"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="59"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="59"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="59"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="59"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="59"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="59"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="59"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="59"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="59"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="59"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="59"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="59"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="59"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="59"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="59"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="59"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="59"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="59"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="59"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="59"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="59"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="59"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="59"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="59"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="59"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="59"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="59"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="59"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="59"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="59"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="59"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="59"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="59"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="59"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="59"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="59"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="59"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="59"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="59"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="59"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="59"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="59"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="59"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="59"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="59"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="59"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="59"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="59"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="59"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="59"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="59"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="59"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="59"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="59"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="59"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="59"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="59"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="59"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="59"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="59"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="59"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="59"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="59"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="59"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="59"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="59"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="59"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="59"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="59"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="59"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="59"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="59"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="59"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="59"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="59"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="59"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="59"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="59"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="59"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="59"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="59"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="59"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="59"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="59"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="59"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="59"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="59"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="59"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="59"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="59"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="59"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="59"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="59"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="59"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="59"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="59"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="59"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="59"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="59"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="59"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="59"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="59"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="59"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="59"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="59"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="59"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="59"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="59"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="59"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="59"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="59"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="59"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="59"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="59"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="59"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="59"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="59"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="59"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="59"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="59"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="59"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="59"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="59"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="59"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="59"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="59"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="59"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="59"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="59"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="59"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="59"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="59"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="59"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="59"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="59"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="59"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="59"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="59"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="59"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="59"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="59"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="59"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="59"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="59"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="59"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="59"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="59"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="59"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="59"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="59"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="59"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="59"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="59"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="59"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="59"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="59"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="59"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="59"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="59"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="59"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="59"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="59"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="59"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="59"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="59"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="59"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="59"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="59"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="59"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="59"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="59"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="59"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="59"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="59"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="59"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="59"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="59"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="59"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="59"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="59"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="59"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="59"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="59"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="59"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="59"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="59"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="59"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="59"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="59"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="59"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="59"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="59"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="59"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="59"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="59"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="59"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="59"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="59"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="59"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="59"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="59"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="59"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="59"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="59"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="59"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="59"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="59"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="59"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="59"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="59"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="59"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="59"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="59"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="59"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="59"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="59"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="59"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="59"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="59"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="59"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="59"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="59"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="59"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="59"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="59"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="59"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="59"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="59"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="59"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="59"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="59"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="59"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="59"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="59"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="59"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="59"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="59"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="59"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="59"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="59"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="59"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="59"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="59"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="59"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="59"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="59"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="59"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="59"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="59"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="59"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="59"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="59"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="59"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="59"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="59"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="59"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="59"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="59"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="59"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="59"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="59"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="59"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="59"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="59"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="59"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="59"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="59"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="59"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="59"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="59"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="59"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="59"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="59"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="59"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="59"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="59"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="59"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="59"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="59"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="59"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="59"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="59"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="59"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="59"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="59"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="59"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="59"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="59"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="59"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="59"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="59"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="59"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="59"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="59"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="59"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="59"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="59"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="59"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="59"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="59"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="59"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="59"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="59"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="59"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="59"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="59"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="59"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="59"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="59"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="59"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="59"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="59"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="59"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="59"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="59"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="59"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="59"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="59"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="59"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="59"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="59"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="59"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="59"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="59"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="59"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="59"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="59"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="59"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="59"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="59"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="59"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="59"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="59"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="59"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="59"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="59"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="59"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="59"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="59"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="59"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="59"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="59"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="59"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="59"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="59"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="59"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="59"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="59"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="59"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="59"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="59"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="59"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="59"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="59"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="59"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="59"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="59"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="59"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="59"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="59"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="59"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="59"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="59"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="59"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="59"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="59"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="59"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="59"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="59"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="59"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="59"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="59"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="59"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="59"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="59"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="59"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="59"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="59"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="59"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="59"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="59"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="59"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="59"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="59"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="59"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="59"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="59"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="59"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="59"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="59"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="59"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="59"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="59"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="59"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="59"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="59"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="59"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="59"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="59"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="59"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="59"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="59"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="59"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="59"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="59"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="59"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="59"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="59"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="59"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="59"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="59"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="59"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="59"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="59"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="59"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="59"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="59"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="59"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="59"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="59"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="59"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="59"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="59"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="59"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="59"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="59"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="59"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="59"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="59"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="59"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="59"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="59"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="59"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="59"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="59"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="59"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="59"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="59"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="59"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="59"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="59"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="59"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="59"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="59"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="59"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="59"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="59"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="59"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="59"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="59"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="59"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="59"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="59"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="59"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="59"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="59"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="59"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="59"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="59"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="59"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="59"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="59"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="59"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="59"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="59"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="59"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="59"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="59"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="59"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="59"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="59"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="59"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="59"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="59"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="59"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="59"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="59"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="59"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="59"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="59"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="59"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="59"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="59"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="59"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="59"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="59"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="59"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="59"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="59"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="59"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="59"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="59"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="59"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="59"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="59"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="59"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="59"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="59"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="59"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="59"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="59"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="59"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="59"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="59"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="59"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="59"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="59"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="59"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="59"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="59"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="59"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="59"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="59"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="59"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="59"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="59"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="59"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="59"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="59"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="59"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="59"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="59"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="59"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="59"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="59"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="59"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="59"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="59"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="59"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="59"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="59"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="59"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="59"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="59"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="59"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="59"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="59"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="59"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="59"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="59"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="59"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="59"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="59"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="59"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="59"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="59"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="59"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="59"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="59"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="59"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="59"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="59"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="59"/>
+    </row>
+    <row r="769">
+      <c r="A769" s="59"/>
+    </row>
+    <row r="770">
+      <c r="A770" s="59"/>
+    </row>
+    <row r="771">
+      <c r="A771" s="59"/>
+    </row>
+    <row r="772">
+      <c r="A772" s="59"/>
+    </row>
+    <row r="773">
+      <c r="A773" s="59"/>
+    </row>
+    <row r="774">
+      <c r="A774" s="59"/>
+    </row>
+    <row r="775">
+      <c r="A775" s="59"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="59"/>
+    </row>
+    <row r="777">
+      <c r="A777" s="59"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="59"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="59"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="59"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="59"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="59"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="59"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="59"/>
+    </row>
+    <row r="785">
+      <c r="A785" s="59"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="59"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="59"/>
+    </row>
+    <row r="788">
+      <c r="A788" s="59"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="59"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="59"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="59"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="59"/>
+    </row>
+    <row r="793">
+      <c r="A793" s="59"/>
+    </row>
+    <row r="794">
+      <c r="A794" s="59"/>
+    </row>
+    <row r="795">
+      <c r="A795" s="59"/>
+    </row>
+    <row r="796">
+      <c r="A796" s="59"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="59"/>
+    </row>
+    <row r="798">
+      <c r="A798" s="59"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="59"/>
+    </row>
+    <row r="800">
+      <c r="A800" s="59"/>
+    </row>
+    <row r="801">
+      <c r="A801" s="59"/>
+    </row>
+    <row r="802">
+      <c r="A802" s="59"/>
+    </row>
+    <row r="803">
+      <c r="A803" s="59"/>
+    </row>
+    <row r="804">
+      <c r="A804" s="59"/>
+    </row>
+    <row r="805">
+      <c r="A805" s="59"/>
+    </row>
+    <row r="806">
+      <c r="A806" s="59"/>
+    </row>
+    <row r="807">
+      <c r="A807" s="59"/>
+    </row>
+    <row r="808">
+      <c r="A808" s="59"/>
+    </row>
+    <row r="809">
+      <c r="A809" s="59"/>
+    </row>
+    <row r="810">
+      <c r="A810" s="59"/>
+    </row>
+    <row r="811">
+      <c r="A811" s="59"/>
+    </row>
+    <row r="812">
+      <c r="A812" s="59"/>
+    </row>
+    <row r="813">
+      <c r="A813" s="59"/>
+    </row>
+    <row r="814">
+      <c r="A814" s="59"/>
+    </row>
+    <row r="815">
+      <c r="A815" s="59"/>
+    </row>
+    <row r="816">
+      <c r="A816" s="59"/>
+    </row>
+    <row r="817">
+      <c r="A817" s="59"/>
+    </row>
+    <row r="818">
+      <c r="A818" s="59"/>
+    </row>
+    <row r="819">
+      <c r="A819" s="59"/>
+    </row>
+    <row r="820">
+      <c r="A820" s="59"/>
+    </row>
+    <row r="821">
+      <c r="A821" s="59"/>
+    </row>
+    <row r="822">
+      <c r="A822" s="59"/>
+    </row>
+    <row r="823">
+      <c r="A823" s="59"/>
+    </row>
+    <row r="824">
+      <c r="A824" s="59"/>
+    </row>
+    <row r="825">
+      <c r="A825" s="59"/>
+    </row>
+    <row r="826">
+      <c r="A826" s="59"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="59"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="59"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="59"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="59"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="59"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="59"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="59"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="59"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="59"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="59"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="59"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="59"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="59"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="59"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="59"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="59"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="59"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="59"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="59"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="59"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="59"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="59"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="59"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="59"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="59"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="59"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="59"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="59"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="59"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="59"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="59"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="59"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="59"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="59"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="59"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="59"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="59"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="59"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="59"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="59"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="59"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="59"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="59"/>
+    </row>
+    <row r="870">
+      <c r="A870" s="59"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="59"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="59"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="59"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="59"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="59"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="59"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="59"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="59"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="59"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="59"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="59"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="59"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="59"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="59"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="59"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="59"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="59"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="59"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="59"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="59"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="59"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="59"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="59"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="59"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="59"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="59"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="59"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="59"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="59"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="59"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="59"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="59"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="59"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="59"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="59"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="59"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="59"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="59"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="59"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="59"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="59"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="59"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="59"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="59"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="59"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="59"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="59"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="59"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="59"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="59"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="59"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="59"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="59"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="59"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="59"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="59"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="59"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="59"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="59"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="59"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="59"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="59"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="59"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="59"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="59"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="59"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="59"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="59"/>
+    </row>
+    <row r="939">
+      <c r="A939" s="59"/>
+    </row>
+    <row r="940">
+      <c r="A940" s="59"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="59"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="59"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="59"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="59"/>
+    </row>
+    <row r="945">
+      <c r="A945" s="59"/>
+    </row>
+    <row r="946">
+      <c r="A946" s="59"/>
+    </row>
+    <row r="947">
+      <c r="A947" s="59"/>
+    </row>
+    <row r="948">
+      <c r="A948" s="59"/>
+    </row>
+    <row r="949">
+      <c r="A949" s="59"/>
+    </row>
+    <row r="950">
+      <c r="A950" s="59"/>
+    </row>
+    <row r="951">
+      <c r="A951" s="59"/>
+    </row>
+    <row r="952">
+      <c r="A952" s="59"/>
+    </row>
+    <row r="953">
+      <c r="A953" s="59"/>
+    </row>
+    <row r="954">
+      <c r="A954" s="59"/>
+    </row>
+    <row r="955">
+      <c r="A955" s="59"/>
+    </row>
+    <row r="956">
+      <c r="A956" s="59"/>
+    </row>
+    <row r="957">
+      <c r="A957" s="59"/>
+    </row>
+    <row r="958">
+      <c r="A958" s="59"/>
+    </row>
+    <row r="959">
+      <c r="A959" s="59"/>
+    </row>
+    <row r="960">
+      <c r="A960" s="59"/>
+    </row>
+    <row r="961">
+      <c r="A961" s="59"/>
+    </row>
+    <row r="962">
+      <c r="A962" s="59"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="59"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="59"/>
+    </row>
+    <row r="965">
+      <c r="A965" s="59"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="59"/>
+    </row>
+    <row r="967">
+      <c r="A967" s="59"/>
+    </row>
+    <row r="968">
+      <c r="A968" s="59"/>
+    </row>
+    <row r="969">
+      <c r="A969" s="59"/>
+    </row>
+    <row r="970">
+      <c r="A970" s="59"/>
+    </row>
+    <row r="971">
+      <c r="A971" s="59"/>
+    </row>
+    <row r="972">
+      <c r="A972" s="59"/>
+    </row>
+    <row r="973">
+      <c r="A973" s="59"/>
+    </row>
+    <row r="974">
+      <c r="A974" s="59"/>
+    </row>
+    <row r="975">
+      <c r="A975" s="59"/>
+    </row>
+    <row r="976">
+      <c r="A976" s="59"/>
+    </row>
+    <row r="977">
+      <c r="A977" s="59"/>
+    </row>
+    <row r="978">
+      <c r="A978" s="59"/>
+    </row>
+    <row r="979">
+      <c r="A979" s="59"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="59"/>
+    </row>
+    <row r="981">
+      <c r="A981" s="59"/>
+    </row>
+    <row r="982">
+      <c r="A982" s="59"/>
+    </row>
+    <row r="983">
+      <c r="A983" s="59"/>
+    </row>
+    <row r="984">
+      <c r="A984" s="59"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="59"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="59"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="59"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="59"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="59"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="59"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="59"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="59"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="59"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="59"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="59"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="59"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="59"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="59"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="59"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="59"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+    <hyperlink r:id="rId4" ref="B5"/>
+    <hyperlink r:id="rId5" ref="B6"/>
+    <hyperlink r:id="rId6" ref="B7"/>
+    <hyperlink r:id="rId7" ref="B8"/>
+    <hyperlink r:id="rId8" ref="B9"/>
+    <hyperlink r:id="rId9" ref="B10"/>
+    <hyperlink r:id="rId10" ref="B11"/>
+  </hyperlinks>
+  <drawing r:id="rId11"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
@@ -32645,7 +37031,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="61"/>
@@ -32660,7 +37046,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>77</v>
@@ -32677,7 +37063,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="61" t="s">
@@ -36043,7 +40429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -36094,7 +40480,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -36117,7 +40503,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -36140,7 +40526,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -36165,7 +40551,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -36188,7 +40574,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -36213,7 +40599,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -36236,7 +40622,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">

--- a/striver-a2z-sheet.xlsx
+++ b/striver-a2z-sheet.xlsx
@@ -27,19 +27,20 @@
     <sheet state="visible" name="Trie" sheetId="22" r:id="rId25"/>
     <sheet state="visible" name="Greedy" sheetId="23" r:id="rId26"/>
     <sheet state="visible" name="Dynamic Programming" sheetId="24" r:id="rId27"/>
+    <sheet state="visible" name="Graphs" sheetId="25" r:id="rId28"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId28" roundtripDataChecksum="eDDy/vWxNVa14qsHWAABvICYDFJxcMNdbcOOcu2l5i4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId29" roundtripDataChecksum="hWB4BJDfK4abcRi9J7ESKxV2D8jSC3HKFniJcuYUVpU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1839" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1889" uniqueCount="471">
   <si>
     <t>S. No.</t>
   </si>
@@ -1136,6 +1137,9 @@
     <t>Tricky</t>
   </si>
   <si>
+    <t>Max Path Sum 2 Special Nodes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Check if valid BST from inorder </t>
   </si>
   <si>
@@ -1429,6 +1433,27 @@
   <si>
     <t>T V Imp</t>
   </si>
+  <si>
+    <t>Partition Array for Maximum Sum</t>
+  </si>
+  <si>
+    <t>Evaluate Boolean Expression to True</t>
+  </si>
+  <si>
+    <t>Maximum Rectangle Area with all 1's</t>
+  </si>
+  <si>
+    <t>Count Square Submatrices with All Ones</t>
+  </si>
+  <si>
+    <t>Graph and Vertices</t>
+  </si>
+  <si>
+    <t>Graph Representation</t>
+  </si>
+  <si>
+    <t>Connected components</t>
+  </si>
 </sst>
 </file>
 
@@ -1437,7 +1462,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="25">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1533,6 +1558,37 @@
       <sz val="11.0"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF467886"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1718,7 +1774,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="81">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1868,6 +1924,27 @@
     <xf borderId="1" fillId="12" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="9" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="11" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="21" numFmtId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="24" numFmtId="15" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1944,6 +2021,10 @@
 </file>
 
 <file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -34374,10 +34455,14 @@
       <c r="A15" s="55">
         <v>14.0</v>
       </c>
-      <c r="B15" s="57"/>
+      <c r="B15" s="56" t="s">
+        <v>365</v>
+      </c>
       <c r="C15" s="57"/>
       <c r="D15" s="58"/>
-      <c r="E15" s="57"/>
+      <c r="E15" s="60" t="s">
+        <v>171</v>
+      </c>
       <c r="F15" s="57"/>
       <c r="G15" s="57"/>
       <c r="H15" s="57"/>
@@ -38338,8 +38423,9 @@
     <hyperlink r:id="rId11" ref="B12"/>
     <hyperlink r:id="rId12" ref="B13"/>
     <hyperlink r:id="rId13" ref="B14"/>
+    <hyperlink r:id="rId14" ref="B15"/>
   </hyperlinks>
-  <drawing r:id="rId14"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -38391,7 +38477,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
@@ -38414,7 +38500,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C3" s="57"/>
       <c r="D3" s="57"/>
@@ -38437,7 +38523,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
@@ -38460,7 +38546,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C5" s="57"/>
       <c r="D5" s="57"/>
@@ -38483,7 +38569,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C6" s="57"/>
       <c r="D6" s="57"/>
@@ -38506,7 +38592,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C7" s="57"/>
       <c r="D7" s="57"/>
@@ -38529,7 +38615,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C8" s="57"/>
       <c r="D8" s="60" t="s">
@@ -38554,7 +38640,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C9" s="57"/>
       <c r="D9" s="57"/>
@@ -38577,7 +38663,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C10" s="57"/>
       <c r="D10" s="60" t="s">
@@ -38602,7 +38688,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C11" s="57"/>
       <c r="D11" s="57"/>
@@ -38625,7 +38711,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="57"/>
@@ -38648,7 +38734,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C13" s="57"/>
       <c r="D13" s="60" t="s">
@@ -38673,7 +38759,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C14" s="57"/>
       <c r="D14" s="60" t="s">
@@ -38698,7 +38784,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="56" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C15" s="57"/>
       <c r="D15" s="60" t="s">
@@ -38723,7 +38809,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C16" s="57"/>
       <c r="D16" s="60" t="s">
@@ -38901,7 +38987,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -38924,7 +39010,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -38947,7 +39033,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
@@ -38972,7 +39058,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -38995,7 +39081,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
@@ -39020,7 +39106,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -39043,7 +39129,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
@@ -40152,7 +40238,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
@@ -40175,7 +40261,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C3" s="57"/>
       <c r="D3" s="57"/>
@@ -40198,7 +40284,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
@@ -40221,7 +40307,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C5" s="57"/>
       <c r="D5" s="60" t="s">
@@ -40246,7 +40332,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C6" s="57"/>
       <c r="D6" s="57"/>
@@ -40269,7 +40355,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C7" s="57"/>
       <c r="D7" s="60" t="s">
@@ -40294,7 +40380,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C8" s="57"/>
       <c r="D8" s="60" t="s">
@@ -40319,7 +40405,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C9" s="57"/>
       <c r="D9" s="57"/>
@@ -40342,7 +40428,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C10" s="57"/>
       <c r="D10" s="57"/>
@@ -40365,7 +40451,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C11" s="57"/>
       <c r="D11" s="60" t="s">
@@ -40384,7 +40470,7 @@
         <v>45604.0</v>
       </c>
       <c r="I11" s="60" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12">
@@ -40392,7 +40478,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="56" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C12" s="57"/>
       <c r="D12" s="60" t="s">
@@ -40417,7 +40503,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="56" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C13" s="57"/>
       <c r="D13" s="60" t="s">
@@ -40427,7 +40513,7 @@
         <v>55</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>43</v>
@@ -40442,7 +40528,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C14" s="57"/>
       <c r="D14" s="60" t="s">
@@ -40461,7 +40547,7 @@
         <v>45606.0</v>
       </c>
       <c r="I14" s="60" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15">
@@ -40678,7 +40764,7 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="66"/>
@@ -40693,7 +40779,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>77</v>
@@ -40710,7 +40796,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="66" t="s">
@@ -40735,7 +40821,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="66"/>
@@ -40758,7 +40844,7 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="68" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="66"/>
@@ -40781,7 +40867,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="68" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="66"/>
@@ -40804,7 +40890,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="68" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="66"/>
@@ -40821,7 +40907,7 @@
         <v>45651.0</v>
       </c>
       <c r="I8" s="67" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9">
@@ -40829,7 +40915,7 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="68" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="66"/>
@@ -40852,7 +40938,7 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="66"/>
@@ -40860,7 +40946,7 @@
         <v>55</v>
       </c>
       <c r="F10" s="63" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>43</v>
@@ -40875,7 +40961,7 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="68" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="66"/>
@@ -40892,7 +40978,7 @@
         <v>45652.0</v>
       </c>
       <c r="I11" s="67" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12">
@@ -40900,7 +40986,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="68" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="66"/>
@@ -40923,7 +41009,7 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="66"/>
@@ -40946,7 +41032,7 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="66"/>
@@ -40969,7 +41055,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="68" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="66"/>
@@ -40992,7 +41078,7 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="68" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="66"/>
@@ -41015,7 +41101,7 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="70" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="71" t="s">
@@ -41028,7 +41114,7 @@
         <v>58</v>
       </c>
       <c r="G17" s="67" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H17" s="69">
         <v>45652.0</v>
@@ -41040,7 +41126,7 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="68" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="66"/>
@@ -41063,7 +41149,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="68" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="66"/>
@@ -41086,7 +41172,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="68" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="66"/>
@@ -41109,7 +41195,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="68" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="66"/>
@@ -41132,7 +41218,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="68" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="66"/>
@@ -41155,7 +41241,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="68" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="66"/>
@@ -41178,7 +41264,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="68" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="66"/>
@@ -41201,7 +41287,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="68" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="66"/>
@@ -41224,7 +41310,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="68" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="66"/>
@@ -41247,7 +41333,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="68" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="66"/>
@@ -41266,7 +41352,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="68" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="66"/>
@@ -41289,7 +41375,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="68" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="66"/>
@@ -41335,7 +41421,7 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="68" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="66"/>
@@ -41358,7 +41444,7 @@
         <v>31.0</v>
       </c>
       <c r="B32" s="68" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="66"/>
@@ -41381,7 +41467,7 @@
         <v>32.0</v>
       </c>
       <c r="B33" s="68" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="71" t="s">
@@ -41400,7 +41486,7 @@
         <v>45654.0</v>
       </c>
       <c r="I33" s="67" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -41408,7 +41494,7 @@
         <v>33.0</v>
       </c>
       <c r="B34" s="68" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="66"/>
@@ -41431,7 +41517,7 @@
         <v>34.0</v>
       </c>
       <c r="B35" s="68" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="66"/>
@@ -41454,7 +41540,7 @@
         <v>35.0</v>
       </c>
       <c r="B36" s="68" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="66"/>
@@ -41477,7 +41563,7 @@
         <v>36.0</v>
       </c>
       <c r="B37" s="68" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="71" t="s">
@@ -41502,7 +41588,7 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="68" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="66"/>
@@ -41525,7 +41611,7 @@
         <v>38.0</v>
       </c>
       <c r="B39" s="68" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="71" t="s">
@@ -41544,7 +41630,7 @@
         <v>45654.0</v>
       </c>
       <c r="I39" s="67" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -41552,7 +41638,7 @@
         <v>39.0</v>
       </c>
       <c r="B40" s="68" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="71" t="s">
@@ -41571,7 +41657,7 @@
         <v>45655.0</v>
       </c>
       <c r="I40" s="67" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -41579,7 +41665,7 @@
         <v>40.0</v>
       </c>
       <c r="B41" s="68" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="66"/>
@@ -41596,7 +41682,7 @@
         <v>45655.0</v>
       </c>
       <c r="I41" s="67" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -41604,7 +41690,7 @@
         <v>41.0</v>
       </c>
       <c r="B42" s="68" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="66"/>
@@ -41621,7 +41707,7 @@
         <v>45655.0</v>
       </c>
       <c r="I42" s="67" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
@@ -41629,7 +41715,7 @@
         <v>42.0</v>
       </c>
       <c r="B43" s="68" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="66"/>
@@ -41646,7 +41732,7 @@
         <v>45655.0</v>
       </c>
       <c r="I43" s="67" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
@@ -41654,7 +41740,7 @@
         <v>43.0</v>
       </c>
       <c r="B44" s="68" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="72" t="s">
@@ -41673,7 +41759,7 @@
         <v>45655.0</v>
       </c>
       <c r="I44" s="67" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
@@ -41681,7 +41767,7 @@
         <v>44.0</v>
       </c>
       <c r="B45" s="68" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="71" t="s">
@@ -41706,7 +41792,7 @@
         <v>45.0</v>
       </c>
       <c r="B46" s="68" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="71" t="s">
@@ -41731,7 +41817,7 @@
         <v>46.0</v>
       </c>
       <c r="B47" s="68" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="71" t="s">
@@ -41756,7 +41842,7 @@
         <v>47.0</v>
       </c>
       <c r="B48" s="56" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C48" s="57"/>
       <c r="D48" s="66"/>
@@ -41779,7 +41865,7 @@
         <v>48.0</v>
       </c>
       <c r="B49" s="56" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C49" s="57"/>
       <c r="D49" s="71" t="s">
@@ -41804,7 +41890,7 @@
         <v>49.0</v>
       </c>
       <c r="B50" s="56" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C50" s="57"/>
       <c r="D50" s="71" t="s">
@@ -41829,7 +41915,7 @@
         <v>50.0</v>
       </c>
       <c r="B51" s="56" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C51" s="57"/>
       <c r="D51" s="71" t="s">
@@ -41854,7 +41940,7 @@
         <v>51.0</v>
       </c>
       <c r="B52" s="56" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C52" s="57"/>
       <c r="D52" s="71" t="s">
@@ -41879,7 +41965,7 @@
         <v>52.0</v>
       </c>
       <c r="B53" s="56" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C53" s="57"/>
       <c r="D53" s="71" t="s">
@@ -41889,7 +41975,7 @@
         <v>55</v>
       </c>
       <c r="F53" s="64" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G53" s="16" t="s">
         <v>43</v>
@@ -41903,65 +41989,125 @@
       <c r="A54" s="67">
         <v>53.0</v>
       </c>
-      <c r="B54" s="57"/>
+      <c r="B54" s="56" t="s">
+        <v>464</v>
+      </c>
       <c r="C54" s="57"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="57"/>
-      <c r="F54" s="57"/>
-      <c r="G54" s="57"/>
-      <c r="H54" s="57"/>
+      <c r="D54" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="E54" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G54" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H54" s="69">
+        <v>45661.0</v>
+      </c>
       <c r="I54" s="57"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="67">
         <v>54.0</v>
       </c>
-      <c r="B55" s="57"/>
+      <c r="B55" s="56" t="s">
+        <v>465</v>
+      </c>
       <c r="C55" s="57"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="57"/>
-      <c r="F55" s="57"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="57"/>
+      <c r="D55" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="E55" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H55" s="69">
+        <v>45661.0</v>
+      </c>
       <c r="I55" s="57"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="67">
         <v>55.0</v>
       </c>
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
+      <c r="B56" s="73" t="s">
+        <v>250</v>
+      </c>
+      <c r="C56" s="74"/>
+      <c r="D56" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="G56" s="77" t="s">
+        <v>422</v>
+      </c>
+      <c r="H56" s="78">
+        <v>45648.0</v>
+      </c>
+      <c r="J56" s="79"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="67">
         <v>56.0</v>
       </c>
-      <c r="B57" s="57"/>
+      <c r="B57" s="56" t="s">
+        <v>466</v>
+      </c>
       <c r="C57" s="57"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="57"/>
-      <c r="F57" s="57"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="57"/>
+      <c r="D57" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="E57" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G57" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H57" s="69">
+        <v>45661.0</v>
+      </c>
       <c r="I57" s="57"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="67">
         <v>57.0</v>
       </c>
-      <c r="B58" s="57"/>
+      <c r="B58" s="56" t="s">
+        <v>467</v>
+      </c>
       <c r="C58" s="57"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
+      <c r="D58" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="E58" s="75" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G58" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H58" s="69">
+        <v>45662.0</v>
+      </c>
       <c r="I58" s="57"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
@@ -42083,2800 +42229,2800 @@
       <c r="I68" s="57"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="D69" s="73"/>
+      <c r="D69" s="80"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="D70" s="73"/>
+      <c r="D70" s="80"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="D71" s="73"/>
+      <c r="D71" s="80"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="D72" s="73"/>
+      <c r="D72" s="80"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="D73" s="73"/>
+      <c r="D73" s="80"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="D74" s="73"/>
+      <c r="D74" s="80"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="D75" s="73"/>
+      <c r="D75" s="80"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="D76" s="73"/>
+      <c r="D76" s="80"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="D77" s="73"/>
+      <c r="D77" s="80"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="D78" s="73"/>
+      <c r="D78" s="80"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="D79" s="73"/>
+      <c r="D79" s="80"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="D80" s="73"/>
+      <c r="D80" s="80"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="D81" s="73"/>
+      <c r="D81" s="80"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="D82" s="73"/>
+      <c r="D82" s="80"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="D83" s="73"/>
+      <c r="D83" s="80"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="D84" s="73"/>
+      <c r="D84" s="80"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="D85" s="73"/>
+      <c r="D85" s="80"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="D86" s="73"/>
+      <c r="D86" s="80"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="D87" s="73"/>
+      <c r="D87" s="80"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="D88" s="73"/>
+      <c r="D88" s="80"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="D89" s="73"/>
+      <c r="D89" s="80"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="D90" s="73"/>
+      <c r="D90" s="80"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="D91" s="73"/>
+      <c r="D91" s="80"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="D92" s="73"/>
+      <c r="D92" s="80"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="D93" s="73"/>
+      <c r="D93" s="80"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="D94" s="73"/>
+      <c r="D94" s="80"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="D95" s="73"/>
+      <c r="D95" s="80"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="D96" s="73"/>
+      <c r="D96" s="80"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="D97" s="73"/>
+      <c r="D97" s="80"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="D98" s="73"/>
+      <c r="D98" s="80"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="D99" s="73"/>
+      <c r="D99" s="80"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="D100" s="73"/>
+      <c r="D100" s="80"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="D101" s="73"/>
+      <c r="D101" s="80"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="D102" s="73"/>
+      <c r="D102" s="80"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="D103" s="73"/>
+      <c r="D103" s="80"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="D104" s="73"/>
+      <c r="D104" s="80"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="D105" s="73"/>
+      <c r="D105" s="80"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="D106" s="73"/>
+      <c r="D106" s="80"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="D107" s="73"/>
+      <c r="D107" s="80"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="D108" s="73"/>
+      <c r="D108" s="80"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="D109" s="73"/>
+      <c r="D109" s="80"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="D110" s="73"/>
+      <c r="D110" s="80"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="D111" s="73"/>
+      <c r="D111" s="80"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="D112" s="73"/>
+      <c r="D112" s="80"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="D113" s="73"/>
+      <c r="D113" s="80"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="D114" s="73"/>
+      <c r="D114" s="80"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="D115" s="73"/>
+      <c r="D115" s="80"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="D116" s="73"/>
+      <c r="D116" s="80"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="D117" s="73"/>
+      <c r="D117" s="80"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="D118" s="73"/>
+      <c r="D118" s="80"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="D119" s="73"/>
+      <c r="D119" s="80"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="D120" s="73"/>
+      <c r="D120" s="80"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="D121" s="73"/>
+      <c r="D121" s="80"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="D122" s="73"/>
+      <c r="D122" s="80"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="D123" s="73"/>
+      <c r="D123" s="80"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="D124" s="73"/>
+      <c r="D124" s="80"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="D125" s="73"/>
+      <c r="D125" s="80"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="D126" s="73"/>
+      <c r="D126" s="80"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="D127" s="73"/>
+      <c r="D127" s="80"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="D128" s="73"/>
+      <c r="D128" s="80"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="D129" s="73"/>
+      <c r="D129" s="80"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="D130" s="73"/>
+      <c r="D130" s="80"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="D131" s="73"/>
+      <c r="D131" s="80"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="D132" s="73"/>
+      <c r="D132" s="80"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="D133" s="73"/>
+      <c r="D133" s="80"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="D134" s="73"/>
+      <c r="D134" s="80"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="D135" s="73"/>
+      <c r="D135" s="80"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="D136" s="73"/>
+      <c r="D136" s="80"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="D137" s="73"/>
+      <c r="D137" s="80"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="D138" s="73"/>
+      <c r="D138" s="80"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="D139" s="73"/>
+      <c r="D139" s="80"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="D140" s="73"/>
+      <c r="D140" s="80"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="D141" s="73"/>
+      <c r="D141" s="80"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="D142" s="73"/>
+      <c r="D142" s="80"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="D143" s="73"/>
+      <c r="D143" s="80"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="D144" s="73"/>
+      <c r="D144" s="80"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="D145" s="73"/>
+      <c r="D145" s="80"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="D146" s="73"/>
+      <c r="D146" s="80"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="D147" s="73"/>
+      <c r="D147" s="80"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="D148" s="73"/>
+      <c r="D148" s="80"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="D149" s="73"/>
+      <c r="D149" s="80"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="D150" s="73"/>
+      <c r="D150" s="80"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="D151" s="73"/>
+      <c r="D151" s="80"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="D152" s="73"/>
+      <c r="D152" s="80"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="D153" s="73"/>
+      <c r="D153" s="80"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="D154" s="73"/>
+      <c r="D154" s="80"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="D155" s="73"/>
+      <c r="D155" s="80"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="D156" s="73"/>
+      <c r="D156" s="80"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="D157" s="73"/>
+      <c r="D157" s="80"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="D158" s="73"/>
+      <c r="D158" s="80"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="D159" s="73"/>
+      <c r="D159" s="80"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="D160" s="73"/>
+      <c r="D160" s="80"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="D161" s="73"/>
+      <c r="D161" s="80"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="D162" s="73"/>
+      <c r="D162" s="80"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="D163" s="73"/>
+      <c r="D163" s="80"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="D164" s="73"/>
+      <c r="D164" s="80"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="D165" s="73"/>
+      <c r="D165" s="80"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="D166" s="73"/>
+      <c r="D166" s="80"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="D167" s="73"/>
+      <c r="D167" s="80"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="D168" s="73"/>
+      <c r="D168" s="80"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="D169" s="73"/>
+      <c r="D169" s="80"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="D170" s="73"/>
+      <c r="D170" s="80"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="D171" s="73"/>
+      <c r="D171" s="80"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="D172" s="73"/>
+      <c r="D172" s="80"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="D173" s="73"/>
+      <c r="D173" s="80"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="D174" s="73"/>
+      <c r="D174" s="80"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="D175" s="73"/>
+      <c r="D175" s="80"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="D176" s="73"/>
+      <c r="D176" s="80"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="D177" s="73"/>
+      <c r="D177" s="80"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="D178" s="73"/>
+      <c r="D178" s="80"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="D179" s="73"/>
+      <c r="D179" s="80"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="D180" s="73"/>
+      <c r="D180" s="80"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="D181" s="73"/>
+      <c r="D181" s="80"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="D182" s="73"/>
+      <c r="D182" s="80"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="D183" s="73"/>
+      <c r="D183" s="80"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="D184" s="73"/>
+      <c r="D184" s="80"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="D185" s="73"/>
+      <c r="D185" s="80"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="D186" s="73"/>
+      <c r="D186" s="80"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="D187" s="73"/>
+      <c r="D187" s="80"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="D188" s="73"/>
+      <c r="D188" s="80"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="D189" s="73"/>
+      <c r="D189" s="80"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="D190" s="73"/>
+      <c r="D190" s="80"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="D191" s="73"/>
+      <c r="D191" s="80"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="D192" s="73"/>
+      <c r="D192" s="80"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="D193" s="73"/>
+      <c r="D193" s="80"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="D194" s="73"/>
+      <c r="D194" s="80"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="D195" s="73"/>
+      <c r="D195" s="80"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="D196" s="73"/>
+      <c r="D196" s="80"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="D197" s="73"/>
+      <c r="D197" s="80"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="D198" s="73"/>
+      <c r="D198" s="80"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="D199" s="73"/>
+      <c r="D199" s="80"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="D200" s="73"/>
+      <c r="D200" s="80"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="D201" s="73"/>
+      <c r="D201" s="80"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="D202" s="73"/>
+      <c r="D202" s="80"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="D203" s="73"/>
+      <c r="D203" s="80"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="D204" s="73"/>
+      <c r="D204" s="80"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="D205" s="73"/>
+      <c r="D205" s="80"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="D206" s="73"/>
+      <c r="D206" s="80"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="D207" s="73"/>
+      <c r="D207" s="80"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="D208" s="73"/>
+      <c r="D208" s="80"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="D209" s="73"/>
+      <c r="D209" s="80"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="D210" s="73"/>
+      <c r="D210" s="80"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="D211" s="73"/>
+      <c r="D211" s="80"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="D212" s="73"/>
+      <c r="D212" s="80"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="D213" s="73"/>
+      <c r="D213" s="80"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="D214" s="73"/>
+      <c r="D214" s="80"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="D215" s="73"/>
+      <c r="D215" s="80"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="D216" s="73"/>
+      <c r="D216" s="80"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="D217" s="73"/>
+      <c r="D217" s="80"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="D218" s="73"/>
+      <c r="D218" s="80"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="D219" s="73"/>
+      <c r="D219" s="80"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="D220" s="73"/>
+      <c r="D220" s="80"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="D221" s="73"/>
+      <c r="D221" s="80"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="D222" s="73"/>
+      <c r="D222" s="80"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="D223" s="73"/>
+      <c r="D223" s="80"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="D224" s="73"/>
+      <c r="D224" s="80"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="D225" s="73"/>
+      <c r="D225" s="80"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="D226" s="73"/>
+      <c r="D226" s="80"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="D227" s="73"/>
+      <c r="D227" s="80"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="D228" s="73"/>
+      <c r="D228" s="80"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="D229" s="73"/>
+      <c r="D229" s="80"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="D230" s="73"/>
+      <c r="D230" s="80"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="D231" s="73"/>
+      <c r="D231" s="80"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="D232" s="73"/>
+      <c r="D232" s="80"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="D233" s="73"/>
+      <c r="D233" s="80"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="D234" s="73"/>
+      <c r="D234" s="80"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="D235" s="73"/>
+      <c r="D235" s="80"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="D236" s="73"/>
+      <c r="D236" s="80"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="D237" s="73"/>
+      <c r="D237" s="80"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="D238" s="73"/>
+      <c r="D238" s="80"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="D239" s="73"/>
+      <c r="D239" s="80"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="D240" s="73"/>
+      <c r="D240" s="80"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="D241" s="73"/>
+      <c r="D241" s="80"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="D242" s="73"/>
+      <c r="D242" s="80"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="D243" s="73"/>
+      <c r="D243" s="80"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="D244" s="73"/>
+      <c r="D244" s="80"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="D245" s="73"/>
+      <c r="D245" s="80"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="D246" s="73"/>
+      <c r="D246" s="80"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="D247" s="73"/>
+      <c r="D247" s="80"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="D248" s="73"/>
+      <c r="D248" s="80"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="D249" s="73"/>
+      <c r="D249" s="80"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="D250" s="73"/>
+      <c r="D250" s="80"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="D251" s="73"/>
+      <c r="D251" s="80"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="D252" s="73"/>
+      <c r="D252" s="80"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="D253" s="73"/>
+      <c r="D253" s="80"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="D254" s="73"/>
+      <c r="D254" s="80"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="D255" s="73"/>
+      <c r="D255" s="80"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="D256" s="73"/>
+      <c r="D256" s="80"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="D257" s="73"/>
+      <c r="D257" s="80"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="D258" s="73"/>
+      <c r="D258" s="80"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="D259" s="73"/>
+      <c r="D259" s="80"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="D260" s="73"/>
+      <c r="D260" s="80"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="D261" s="73"/>
+      <c r="D261" s="80"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="D262" s="73"/>
+      <c r="D262" s="80"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="D263" s="73"/>
+      <c r="D263" s="80"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="D264" s="73"/>
+      <c r="D264" s="80"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="D265" s="73"/>
+      <c r="D265" s="80"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="D266" s="73"/>
+      <c r="D266" s="80"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="D267" s="73"/>
+      <c r="D267" s="80"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="D268" s="73"/>
+      <c r="D268" s="80"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="D269" s="73"/>
+      <c r="D269" s="80"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="D270" s="73"/>
+      <c r="D270" s="80"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="D271" s="73"/>
+      <c r="D271" s="80"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="D272" s="73"/>
+      <c r="D272" s="80"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="D273" s="73"/>
+      <c r="D273" s="80"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="D274" s="73"/>
+      <c r="D274" s="80"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="D275" s="73"/>
+      <c r="D275" s="80"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="D276" s="73"/>
+      <c r="D276" s="80"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="D277" s="73"/>
+      <c r="D277" s="80"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="D278" s="73"/>
+      <c r="D278" s="80"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="D279" s="73"/>
+      <c r="D279" s="80"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="D280" s="73"/>
+      <c r="D280" s="80"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="D281" s="73"/>
+      <c r="D281" s="80"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="D282" s="73"/>
+      <c r="D282" s="80"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="D283" s="73"/>
+      <c r="D283" s="80"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="D284" s="73"/>
+      <c r="D284" s="80"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="D285" s="73"/>
+      <c r="D285" s="80"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="D286" s="73"/>
+      <c r="D286" s="80"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="D287" s="73"/>
+      <c r="D287" s="80"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="D288" s="73"/>
+      <c r="D288" s="80"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="D289" s="73"/>
+      <c r="D289" s="80"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="D290" s="73"/>
+      <c r="D290" s="80"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="D291" s="73"/>
+      <c r="D291" s="80"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="D292" s="73"/>
+      <c r="D292" s="80"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="D293" s="73"/>
+      <c r="D293" s="80"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="D294" s="73"/>
+      <c r="D294" s="80"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="D295" s="73"/>
+      <c r="D295" s="80"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="D296" s="73"/>
+      <c r="D296" s="80"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="D297" s="73"/>
+      <c r="D297" s="80"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="D298" s="73"/>
+      <c r="D298" s="80"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="D299" s="73"/>
+      <c r="D299" s="80"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="D300" s="73"/>
+      <c r="D300" s="80"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="D301" s="73"/>
+      <c r="D301" s="80"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="D302" s="73"/>
+      <c r="D302" s="80"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="D303" s="73"/>
+      <c r="D303" s="80"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="D304" s="73"/>
+      <c r="D304" s="80"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="D305" s="73"/>
+      <c r="D305" s="80"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="D306" s="73"/>
+      <c r="D306" s="80"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="D307" s="73"/>
+      <c r="D307" s="80"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="D308" s="73"/>
+      <c r="D308" s="80"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="D309" s="73"/>
+      <c r="D309" s="80"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="D310" s="73"/>
+      <c r="D310" s="80"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="D311" s="73"/>
+      <c r="D311" s="80"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="D312" s="73"/>
+      <c r="D312" s="80"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="D313" s="73"/>
+      <c r="D313" s="80"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="D314" s="73"/>
+      <c r="D314" s="80"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="D315" s="73"/>
+      <c r="D315" s="80"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="D316" s="73"/>
+      <c r="D316" s="80"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="D317" s="73"/>
+      <c r="D317" s="80"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="D318" s="73"/>
+      <c r="D318" s="80"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="D319" s="73"/>
+      <c r="D319" s="80"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="D320" s="73"/>
+      <c r="D320" s="80"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="D321" s="73"/>
+      <c r="D321" s="80"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="D322" s="73"/>
+      <c r="D322" s="80"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="D323" s="73"/>
+      <c r="D323" s="80"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="D324" s="73"/>
+      <c r="D324" s="80"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="D325" s="73"/>
+      <c r="D325" s="80"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="D326" s="73"/>
+      <c r="D326" s="80"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="D327" s="73"/>
+      <c r="D327" s="80"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="D328" s="73"/>
+      <c r="D328" s="80"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="D329" s="73"/>
+      <c r="D329" s="80"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="D330" s="73"/>
+      <c r="D330" s="80"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="D331" s="73"/>
+      <c r="D331" s="80"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="D332" s="73"/>
+      <c r="D332" s="80"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="D333" s="73"/>
+      <c r="D333" s="80"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="D334" s="73"/>
+      <c r="D334" s="80"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="D335" s="73"/>
+      <c r="D335" s="80"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="D336" s="73"/>
+      <c r="D336" s="80"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="D337" s="73"/>
+      <c r="D337" s="80"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="D338" s="73"/>
+      <c r="D338" s="80"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="D339" s="73"/>
+      <c r="D339" s="80"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="D340" s="73"/>
+      <c r="D340" s="80"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="D341" s="73"/>
+      <c r="D341" s="80"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="D342" s="73"/>
+      <c r="D342" s="80"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="D343" s="73"/>
+      <c r="D343" s="80"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="D344" s="73"/>
+      <c r="D344" s="80"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="D345" s="73"/>
+      <c r="D345" s="80"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="D346" s="73"/>
+      <c r="D346" s="80"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="D347" s="73"/>
+      <c r="D347" s="80"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="D348" s="73"/>
+      <c r="D348" s="80"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="D349" s="73"/>
+      <c r="D349" s="80"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="D350" s="73"/>
+      <c r="D350" s="80"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="D351" s="73"/>
+      <c r="D351" s="80"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="D352" s="73"/>
+      <c r="D352" s="80"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="D353" s="73"/>
+      <c r="D353" s="80"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="D354" s="73"/>
+      <c r="D354" s="80"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="D355" s="73"/>
+      <c r="D355" s="80"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="D356" s="73"/>
+      <c r="D356" s="80"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="D357" s="73"/>
+      <c r="D357" s="80"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="D358" s="73"/>
+      <c r="D358" s="80"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="D359" s="73"/>
+      <c r="D359" s="80"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="D360" s="73"/>
+      <c r="D360" s="80"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="D361" s="73"/>
+      <c r="D361" s="80"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="D362" s="73"/>
+      <c r="D362" s="80"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="D363" s="73"/>
+      <c r="D363" s="80"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="D364" s="73"/>
+      <c r="D364" s="80"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="D365" s="73"/>
+      <c r="D365" s="80"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="D366" s="73"/>
+      <c r="D366" s="80"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="D367" s="73"/>
+      <c r="D367" s="80"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="D368" s="73"/>
+      <c r="D368" s="80"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="D369" s="73"/>
+      <c r="D369" s="80"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="D370" s="73"/>
+      <c r="D370" s="80"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="D371" s="73"/>
+      <c r="D371" s="80"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="D372" s="73"/>
+      <c r="D372" s="80"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="D373" s="73"/>
+      <c r="D373" s="80"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="D374" s="73"/>
+      <c r="D374" s="80"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="D375" s="73"/>
+      <c r="D375" s="80"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="D376" s="73"/>
+      <c r="D376" s="80"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="D377" s="73"/>
+      <c r="D377" s="80"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="D378" s="73"/>
+      <c r="D378" s="80"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="D379" s="73"/>
+      <c r="D379" s="80"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="D380" s="73"/>
+      <c r="D380" s="80"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="D381" s="73"/>
+      <c r="D381" s="80"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="D382" s="73"/>
+      <c r="D382" s="80"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="D383" s="73"/>
+      <c r="D383" s="80"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="D384" s="73"/>
+      <c r="D384" s="80"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="D385" s="73"/>
+      <c r="D385" s="80"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="D386" s="73"/>
+      <c r="D386" s="80"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="D387" s="73"/>
+      <c r="D387" s="80"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="D388" s="73"/>
+      <c r="D388" s="80"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="D389" s="73"/>
+      <c r="D389" s="80"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="D390" s="73"/>
+      <c r="D390" s="80"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="D391" s="73"/>
+      <c r="D391" s="80"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="D392" s="73"/>
+      <c r="D392" s="80"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="D393" s="73"/>
+      <c r="D393" s="80"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="D394" s="73"/>
+      <c r="D394" s="80"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="D395" s="73"/>
+      <c r="D395" s="80"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="D396" s="73"/>
+      <c r="D396" s="80"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="D397" s="73"/>
+      <c r="D397" s="80"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="D398" s="73"/>
+      <c r="D398" s="80"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="D399" s="73"/>
+      <c r="D399" s="80"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="D400" s="73"/>
+      <c r="D400" s="80"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="D401" s="73"/>
+      <c r="D401" s="80"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="D402" s="73"/>
+      <c r="D402" s="80"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="D403" s="73"/>
+      <c r="D403" s="80"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="D404" s="73"/>
+      <c r="D404" s="80"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="D405" s="73"/>
+      <c r="D405" s="80"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="D406" s="73"/>
+      <c r="D406" s="80"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="D407" s="73"/>
+      <c r="D407" s="80"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="D408" s="73"/>
+      <c r="D408" s="80"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="D409" s="73"/>
+      <c r="D409" s="80"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="D410" s="73"/>
+      <c r="D410" s="80"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="D411" s="73"/>
+      <c r="D411" s="80"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="D412" s="73"/>
+      <c r="D412" s="80"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="D413" s="73"/>
+      <c r="D413" s="80"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="D414" s="73"/>
+      <c r="D414" s="80"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="D415" s="73"/>
+      <c r="D415" s="80"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="D416" s="73"/>
+      <c r="D416" s="80"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="D417" s="73"/>
+      <c r="D417" s="80"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="D418" s="73"/>
+      <c r="D418" s="80"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="D419" s="73"/>
+      <c r="D419" s="80"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="D420" s="73"/>
+      <c r="D420" s="80"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="D421" s="73"/>
+      <c r="D421" s="80"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="D422" s="73"/>
+      <c r="D422" s="80"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="D423" s="73"/>
+      <c r="D423" s="80"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="D424" s="73"/>
+      <c r="D424" s="80"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="D425" s="73"/>
+      <c r="D425" s="80"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="D426" s="73"/>
+      <c r="D426" s="80"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="D427" s="73"/>
+      <c r="D427" s="80"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="D428" s="73"/>
+      <c r="D428" s="80"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="D429" s="73"/>
+      <c r="D429" s="80"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="D430" s="73"/>
+      <c r="D430" s="80"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="D431" s="73"/>
+      <c r="D431" s="80"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="D432" s="73"/>
+      <c r="D432" s="80"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="D433" s="73"/>
+      <c r="D433" s="80"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="D434" s="73"/>
+      <c r="D434" s="80"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="D435" s="73"/>
+      <c r="D435" s="80"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="D436" s="73"/>
+      <c r="D436" s="80"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="D437" s="73"/>
+      <c r="D437" s="80"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="D438" s="73"/>
+      <c r="D438" s="80"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="D439" s="73"/>
+      <c r="D439" s="80"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="D440" s="73"/>
+      <c r="D440" s="80"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="D441" s="73"/>
+      <c r="D441" s="80"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="D442" s="73"/>
+      <c r="D442" s="80"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="D443" s="73"/>
+      <c r="D443" s="80"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="D444" s="73"/>
+      <c r="D444" s="80"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="D445" s="73"/>
+      <c r="D445" s="80"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="D446" s="73"/>
+      <c r="D446" s="80"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="D447" s="73"/>
+      <c r="D447" s="80"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="D448" s="73"/>
+      <c r="D448" s="80"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="D449" s="73"/>
+      <c r="D449" s="80"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="D450" s="73"/>
+      <c r="D450" s="80"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="D451" s="73"/>
+      <c r="D451" s="80"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="D452" s="73"/>
+      <c r="D452" s="80"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="D453" s="73"/>
+      <c r="D453" s="80"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="D454" s="73"/>
+      <c r="D454" s="80"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="D455" s="73"/>
+      <c r="D455" s="80"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="D456" s="73"/>
+      <c r="D456" s="80"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="D457" s="73"/>
+      <c r="D457" s="80"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="D458" s="73"/>
+      <c r="D458" s="80"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="D459" s="73"/>
+      <c r="D459" s="80"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="D460" s="73"/>
+      <c r="D460" s="80"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="D461" s="73"/>
+      <c r="D461" s="80"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="D462" s="73"/>
+      <c r="D462" s="80"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="D463" s="73"/>
+      <c r="D463" s="80"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="D464" s="73"/>
+      <c r="D464" s="80"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="D465" s="73"/>
+      <c r="D465" s="80"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="D466" s="73"/>
+      <c r="D466" s="80"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="D467" s="73"/>
+      <c r="D467" s="80"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="D468" s="73"/>
+      <c r="D468" s="80"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="D469" s="73"/>
+      <c r="D469" s="80"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="D470" s="73"/>
+      <c r="D470" s="80"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="D471" s="73"/>
+      <c r="D471" s="80"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="D472" s="73"/>
+      <c r="D472" s="80"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="D473" s="73"/>
+      <c r="D473" s="80"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="D474" s="73"/>
+      <c r="D474" s="80"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="D475" s="73"/>
+      <c r="D475" s="80"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="D476" s="73"/>
+      <c r="D476" s="80"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="D477" s="73"/>
+      <c r="D477" s="80"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="D478" s="73"/>
+      <c r="D478" s="80"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="D479" s="73"/>
+      <c r="D479" s="80"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="D480" s="73"/>
+      <c r="D480" s="80"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="D481" s="73"/>
+      <c r="D481" s="80"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="D482" s="73"/>
+      <c r="D482" s="80"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="D483" s="73"/>
+      <c r="D483" s="80"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="D484" s="73"/>
+      <c r="D484" s="80"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="D485" s="73"/>
+      <c r="D485" s="80"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="D486" s="73"/>
+      <c r="D486" s="80"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="D487" s="73"/>
+      <c r="D487" s="80"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="D488" s="73"/>
+      <c r="D488" s="80"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="D489" s="73"/>
+      <c r="D489" s="80"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="D490" s="73"/>
+      <c r="D490" s="80"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="D491" s="73"/>
+      <c r="D491" s="80"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="D492" s="73"/>
+      <c r="D492" s="80"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="D493" s="73"/>
+      <c r="D493" s="80"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="D494" s="73"/>
+      <c r="D494" s="80"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="D495" s="73"/>
+      <c r="D495" s="80"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="D496" s="73"/>
+      <c r="D496" s="80"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="D497" s="73"/>
+      <c r="D497" s="80"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="D498" s="73"/>
+      <c r="D498" s="80"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="D499" s="73"/>
+      <c r="D499" s="80"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="D500" s="73"/>
+      <c r="D500" s="80"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="D501" s="73"/>
+      <c r="D501" s="80"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="D502" s="73"/>
+      <c r="D502" s="80"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="D503" s="73"/>
+      <c r="D503" s="80"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="D504" s="73"/>
+      <c r="D504" s="80"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="D505" s="73"/>
+      <c r="D505" s="80"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="D506" s="73"/>
+      <c r="D506" s="80"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="D507" s="73"/>
+      <c r="D507" s="80"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="D508" s="73"/>
+      <c r="D508" s="80"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="D509" s="73"/>
+      <c r="D509" s="80"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="D510" s="73"/>
+      <c r="D510" s="80"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="D511" s="73"/>
+      <c r="D511" s="80"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="D512" s="73"/>
+      <c r="D512" s="80"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="D513" s="73"/>
+      <c r="D513" s="80"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="D514" s="73"/>
+      <c r="D514" s="80"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="D515" s="73"/>
+      <c r="D515" s="80"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="D516" s="73"/>
+      <c r="D516" s="80"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="D517" s="73"/>
+      <c r="D517" s="80"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="D518" s="73"/>
+      <c r="D518" s="80"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="D519" s="73"/>
+      <c r="D519" s="80"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="D520" s="73"/>
+      <c r="D520" s="80"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="D521" s="73"/>
+      <c r="D521" s="80"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="D522" s="73"/>
+      <c r="D522" s="80"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="D523" s="73"/>
+      <c r="D523" s="80"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="D524" s="73"/>
+      <c r="D524" s="80"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="D525" s="73"/>
+      <c r="D525" s="80"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="D526" s="73"/>
+      <c r="D526" s="80"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="D527" s="73"/>
+      <c r="D527" s="80"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="D528" s="73"/>
+      <c r="D528" s="80"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="D529" s="73"/>
+      <c r="D529" s="80"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="D530" s="73"/>
+      <c r="D530" s="80"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="D531" s="73"/>
+      <c r="D531" s="80"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="D532" s="73"/>
+      <c r="D532" s="80"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="D533" s="73"/>
+      <c r="D533" s="80"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="D534" s="73"/>
+      <c r="D534" s="80"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="D535" s="73"/>
+      <c r="D535" s="80"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="D536" s="73"/>
+      <c r="D536" s="80"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="D537" s="73"/>
+      <c r="D537" s="80"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="D538" s="73"/>
+      <c r="D538" s="80"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="D539" s="73"/>
+      <c r="D539" s="80"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="D540" s="73"/>
+      <c r="D540" s="80"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="D541" s="73"/>
+      <c r="D541" s="80"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="D542" s="73"/>
+      <c r="D542" s="80"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="D543" s="73"/>
+      <c r="D543" s="80"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="D544" s="73"/>
+      <c r="D544" s="80"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="D545" s="73"/>
+      <c r="D545" s="80"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="D546" s="73"/>
+      <c r="D546" s="80"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="D547" s="73"/>
+      <c r="D547" s="80"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="D548" s="73"/>
+      <c r="D548" s="80"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="D549" s="73"/>
+      <c r="D549" s="80"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="D550" s="73"/>
+      <c r="D550" s="80"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="D551" s="73"/>
+      <c r="D551" s="80"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="D552" s="73"/>
+      <c r="D552" s="80"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="D553" s="73"/>
+      <c r="D553" s="80"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="D554" s="73"/>
+      <c r="D554" s="80"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="D555" s="73"/>
+      <c r="D555" s="80"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="D556" s="73"/>
+      <c r="D556" s="80"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="D557" s="73"/>
+      <c r="D557" s="80"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="D558" s="73"/>
+      <c r="D558" s="80"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="D559" s="73"/>
+      <c r="D559" s="80"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="D560" s="73"/>
+      <c r="D560" s="80"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="D561" s="73"/>
+      <c r="D561" s="80"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="D562" s="73"/>
+      <c r="D562" s="80"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="D563" s="73"/>
+      <c r="D563" s="80"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="D564" s="73"/>
+      <c r="D564" s="80"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="D565" s="73"/>
+      <c r="D565" s="80"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="D566" s="73"/>
+      <c r="D566" s="80"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="D567" s="73"/>
+      <c r="D567" s="80"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="D568" s="73"/>
+      <c r="D568" s="80"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="D569" s="73"/>
+      <c r="D569" s="80"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="D570" s="73"/>
+      <c r="D570" s="80"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="D571" s="73"/>
+      <c r="D571" s="80"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="D572" s="73"/>
+      <c r="D572" s="80"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="D573" s="73"/>
+      <c r="D573" s="80"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="D574" s="73"/>
+      <c r="D574" s="80"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="D575" s="73"/>
+      <c r="D575" s="80"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="D576" s="73"/>
+      <c r="D576" s="80"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="D577" s="73"/>
+      <c r="D577" s="80"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="D578" s="73"/>
+      <c r="D578" s="80"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="D579" s="73"/>
+      <c r="D579" s="80"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="D580" s="73"/>
+      <c r="D580" s="80"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="D581" s="73"/>
+      <c r="D581" s="80"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="D582" s="73"/>
+      <c r="D582" s="80"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="D583" s="73"/>
+      <c r="D583" s="80"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="D584" s="73"/>
+      <c r="D584" s="80"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="D585" s="73"/>
+      <c r="D585" s="80"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="D586" s="73"/>
+      <c r="D586" s="80"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="D587" s="73"/>
+      <c r="D587" s="80"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="D588" s="73"/>
+      <c r="D588" s="80"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="D589" s="73"/>
+      <c r="D589" s="80"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="D590" s="73"/>
+      <c r="D590" s="80"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="D591" s="73"/>
+      <c r="D591" s="80"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="D592" s="73"/>
+      <c r="D592" s="80"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="D593" s="73"/>
+      <c r="D593" s="80"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="D594" s="73"/>
+      <c r="D594" s="80"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="D595" s="73"/>
+      <c r="D595" s="80"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="D596" s="73"/>
+      <c r="D596" s="80"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="D597" s="73"/>
+      <c r="D597" s="80"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="D598" s="73"/>
+      <c r="D598" s="80"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="D599" s="73"/>
+      <c r="D599" s="80"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="D600" s="73"/>
+      <c r="D600" s="80"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="D601" s="73"/>
+      <c r="D601" s="80"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="D602" s="73"/>
+      <c r="D602" s="80"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="D603" s="73"/>
+      <c r="D603" s="80"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="D604" s="73"/>
+      <c r="D604" s="80"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="D605" s="73"/>
+      <c r="D605" s="80"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="D606" s="73"/>
+      <c r="D606" s="80"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="D607" s="73"/>
+      <c r="D607" s="80"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="D608" s="73"/>
+      <c r="D608" s="80"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="D609" s="73"/>
+      <c r="D609" s="80"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="D610" s="73"/>
+      <c r="D610" s="80"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="D611" s="73"/>
+      <c r="D611" s="80"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="D612" s="73"/>
+      <c r="D612" s="80"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="D613" s="73"/>
+      <c r="D613" s="80"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="D614" s="73"/>
+      <c r="D614" s="80"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="D615" s="73"/>
+      <c r="D615" s="80"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="D616" s="73"/>
+      <c r="D616" s="80"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="D617" s="73"/>
+      <c r="D617" s="80"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="D618" s="73"/>
+      <c r="D618" s="80"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="D619" s="73"/>
+      <c r="D619" s="80"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="D620" s="73"/>
+      <c r="D620" s="80"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="D621" s="73"/>
+      <c r="D621" s="80"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="D622" s="73"/>
+      <c r="D622" s="80"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="D623" s="73"/>
+      <c r="D623" s="80"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="D624" s="73"/>
+      <c r="D624" s="80"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="D625" s="73"/>
+      <c r="D625" s="80"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="D626" s="73"/>
+      <c r="D626" s="80"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="D627" s="73"/>
+      <c r="D627" s="80"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="D628" s="73"/>
+      <c r="D628" s="80"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="D629" s="73"/>
+      <c r="D629" s="80"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="D630" s="73"/>
+      <c r="D630" s="80"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="D631" s="73"/>
+      <c r="D631" s="80"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="D632" s="73"/>
+      <c r="D632" s="80"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="D633" s="73"/>
+      <c r="D633" s="80"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="D634" s="73"/>
+      <c r="D634" s="80"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="D635" s="73"/>
+      <c r="D635" s="80"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="D636" s="73"/>
+      <c r="D636" s="80"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="D637" s="73"/>
+      <c r="D637" s="80"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="D638" s="73"/>
+      <c r="D638" s="80"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="D639" s="73"/>
+      <c r="D639" s="80"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="D640" s="73"/>
+      <c r="D640" s="80"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="D641" s="73"/>
+      <c r="D641" s="80"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="D642" s="73"/>
+      <c r="D642" s="80"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="D643" s="73"/>
+      <c r="D643" s="80"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="D644" s="73"/>
+      <c r="D644" s="80"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="D645" s="73"/>
+      <c r="D645" s="80"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="D646" s="73"/>
+      <c r="D646" s="80"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="D647" s="73"/>
+      <c r="D647" s="80"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="D648" s="73"/>
+      <c r="D648" s="80"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="D649" s="73"/>
+      <c r="D649" s="80"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="D650" s="73"/>
+      <c r="D650" s="80"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="D651" s="73"/>
+      <c r="D651" s="80"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="D652" s="73"/>
+      <c r="D652" s="80"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="D653" s="73"/>
+      <c r="D653" s="80"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="D654" s="73"/>
+      <c r="D654" s="80"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="D655" s="73"/>
+      <c r="D655" s="80"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="D656" s="73"/>
+      <c r="D656" s="80"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="D657" s="73"/>
+      <c r="D657" s="80"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="D658" s="73"/>
+      <c r="D658" s="80"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="D659" s="73"/>
+      <c r="D659" s="80"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="D660" s="73"/>
+      <c r="D660" s="80"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="D661" s="73"/>
+      <c r="D661" s="80"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="D662" s="73"/>
+      <c r="D662" s="80"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="D663" s="73"/>
+      <c r="D663" s="80"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="D664" s="73"/>
+      <c r="D664" s="80"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="D665" s="73"/>
+      <c r="D665" s="80"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="D666" s="73"/>
+      <c r="D666" s="80"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="D667" s="73"/>
+      <c r="D667" s="80"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="D668" s="73"/>
+      <c r="D668" s="80"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="D669" s="73"/>
+      <c r="D669" s="80"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="D670" s="73"/>
+      <c r="D670" s="80"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="D671" s="73"/>
+      <c r="D671" s="80"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="D672" s="73"/>
+      <c r="D672" s="80"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="D673" s="73"/>
+      <c r="D673" s="80"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="D674" s="73"/>
+      <c r="D674" s="80"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="D675" s="73"/>
+      <c r="D675" s="80"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="D676" s="73"/>
+      <c r="D676" s="80"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="D677" s="73"/>
+      <c r="D677" s="80"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="D678" s="73"/>
+      <c r="D678" s="80"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="D679" s="73"/>
+      <c r="D679" s="80"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="D680" s="73"/>
+      <c r="D680" s="80"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="D681" s="73"/>
+      <c r="D681" s="80"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="D682" s="73"/>
+      <c r="D682" s="80"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="D683" s="73"/>
+      <c r="D683" s="80"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="D684" s="73"/>
+      <c r="D684" s="80"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="D685" s="73"/>
+      <c r="D685" s="80"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="D686" s="73"/>
+      <c r="D686" s="80"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="D687" s="73"/>
+      <c r="D687" s="80"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="D688" s="73"/>
+      <c r="D688" s="80"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="D689" s="73"/>
+      <c r="D689" s="80"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="D690" s="73"/>
+      <c r="D690" s="80"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="D691" s="73"/>
+      <c r="D691" s="80"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="D692" s="73"/>
+      <c r="D692" s="80"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="D693" s="73"/>
+      <c r="D693" s="80"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="D694" s="73"/>
+      <c r="D694" s="80"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="D695" s="73"/>
+      <c r="D695" s="80"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="D696" s="73"/>
+      <c r="D696" s="80"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="D697" s="73"/>
+      <c r="D697" s="80"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="D698" s="73"/>
+      <c r="D698" s="80"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="D699" s="73"/>
+      <c r="D699" s="80"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="D700" s="73"/>
+      <c r="D700" s="80"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="D701" s="73"/>
+      <c r="D701" s="80"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="D702" s="73"/>
+      <c r="D702" s="80"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="D703" s="73"/>
+      <c r="D703" s="80"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="D704" s="73"/>
+      <c r="D704" s="80"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="D705" s="73"/>
+      <c r="D705" s="80"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="D706" s="73"/>
+      <c r="D706" s="80"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="D707" s="73"/>
+      <c r="D707" s="80"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="D708" s="73"/>
+      <c r="D708" s="80"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="D709" s="73"/>
+      <c r="D709" s="80"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="D710" s="73"/>
+      <c r="D710" s="80"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="D711" s="73"/>
+      <c r="D711" s="80"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="D712" s="73"/>
+      <c r="D712" s="80"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="D713" s="73"/>
+      <c r="D713" s="80"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="D714" s="73"/>
+      <c r="D714" s="80"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="D715" s="73"/>
+      <c r="D715" s="80"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="D716" s="73"/>
+      <c r="D716" s="80"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="D717" s="73"/>
+      <c r="D717" s="80"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="D718" s="73"/>
+      <c r="D718" s="80"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="D719" s="73"/>
+      <c r="D719" s="80"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="D720" s="73"/>
+      <c r="D720" s="80"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="D721" s="73"/>
+      <c r="D721" s="80"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="D722" s="73"/>
+      <c r="D722" s="80"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="D723" s="73"/>
+      <c r="D723" s="80"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="D724" s="73"/>
+      <c r="D724" s="80"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="D725" s="73"/>
+      <c r="D725" s="80"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="D726" s="73"/>
+      <c r="D726" s="80"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="D727" s="73"/>
+      <c r="D727" s="80"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="D728" s="73"/>
+      <c r="D728" s="80"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="D729" s="73"/>
+      <c r="D729" s="80"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="D730" s="73"/>
+      <c r="D730" s="80"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="D731" s="73"/>
+      <c r="D731" s="80"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="D732" s="73"/>
+      <c r="D732" s="80"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="D733" s="73"/>
+      <c r="D733" s="80"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="D734" s="73"/>
+      <c r="D734" s="80"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="D735" s="73"/>
+      <c r="D735" s="80"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="D736" s="73"/>
+      <c r="D736" s="80"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="D737" s="73"/>
+      <c r="D737" s="80"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="D738" s="73"/>
+      <c r="D738" s="80"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="D739" s="73"/>
+      <c r="D739" s="80"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="D740" s="73"/>
+      <c r="D740" s="80"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="D741" s="73"/>
+      <c r="D741" s="80"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="D742" s="73"/>
+      <c r="D742" s="80"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="D743" s="73"/>
+      <c r="D743" s="80"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="D744" s="73"/>
+      <c r="D744" s="80"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="D745" s="73"/>
+      <c r="D745" s="80"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="D746" s="73"/>
+      <c r="D746" s="80"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="D747" s="73"/>
+      <c r="D747" s="80"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="D748" s="73"/>
+      <c r="D748" s="80"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="D749" s="73"/>
+      <c r="D749" s="80"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="D750" s="73"/>
+      <c r="D750" s="80"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="D751" s="73"/>
+      <c r="D751" s="80"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="D752" s="73"/>
+      <c r="D752" s="80"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="D753" s="73"/>
+      <c r="D753" s="80"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="D754" s="73"/>
+      <c r="D754" s="80"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="D755" s="73"/>
+      <c r="D755" s="80"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="D756" s="73"/>
+      <c r="D756" s="80"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="D757" s="73"/>
+      <c r="D757" s="80"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="D758" s="73"/>
+      <c r="D758" s="80"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="D759" s="73"/>
+      <c r="D759" s="80"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="D760" s="73"/>
+      <c r="D760" s="80"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="D761" s="73"/>
+      <c r="D761" s="80"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="D762" s="73"/>
+      <c r="D762" s="80"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="D763" s="73"/>
+      <c r="D763" s="80"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="D764" s="73"/>
+      <c r="D764" s="80"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="D765" s="73"/>
+      <c r="D765" s="80"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="D766" s="73"/>
+      <c r="D766" s="80"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="D767" s="73"/>
+      <c r="D767" s="80"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="D768" s="73"/>
+      <c r="D768" s="80"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="D769" s="73"/>
+      <c r="D769" s="80"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="D770" s="73"/>
+      <c r="D770" s="80"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="D771" s="73"/>
+      <c r="D771" s="80"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="D772" s="73"/>
+      <c r="D772" s="80"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="D773" s="73"/>
+      <c r="D773" s="80"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="D774" s="73"/>
+      <c r="D774" s="80"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="D775" s="73"/>
+      <c r="D775" s="80"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="D776" s="73"/>
+      <c r="D776" s="80"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="D777" s="73"/>
+      <c r="D777" s="80"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="D778" s="73"/>
+      <c r="D778" s="80"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="D779" s="73"/>
+      <c r="D779" s="80"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="D780" s="73"/>
+      <c r="D780" s="80"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="D781" s="73"/>
+      <c r="D781" s="80"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="D782" s="73"/>
+      <c r="D782" s="80"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="D783" s="73"/>
+      <c r="D783" s="80"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="D784" s="73"/>
+      <c r="D784" s="80"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="D785" s="73"/>
+      <c r="D785" s="80"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="D786" s="73"/>
+      <c r="D786" s="80"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="D787" s="73"/>
+      <c r="D787" s="80"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="D788" s="73"/>
+      <c r="D788" s="80"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="D789" s="73"/>
+      <c r="D789" s="80"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="D790" s="73"/>
+      <c r="D790" s="80"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="D791" s="73"/>
+      <c r="D791" s="80"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="D792" s="73"/>
+      <c r="D792" s="80"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="D793" s="73"/>
+      <c r="D793" s="80"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="D794" s="73"/>
+      <c r="D794" s="80"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="D795" s="73"/>
+      <c r="D795" s="80"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="D796" s="73"/>
+      <c r="D796" s="80"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="D797" s="73"/>
+      <c r="D797" s="80"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="D798" s="73"/>
+      <c r="D798" s="80"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="D799" s="73"/>
+      <c r="D799" s="80"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="D800" s="73"/>
+      <c r="D800" s="80"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="D801" s="73"/>
+      <c r="D801" s="80"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="D802" s="73"/>
+      <c r="D802" s="80"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="D803" s="73"/>
+      <c r="D803" s="80"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="D804" s="73"/>
+      <c r="D804" s="80"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="D805" s="73"/>
+      <c r="D805" s="80"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="D806" s="73"/>
+      <c r="D806" s="80"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="D807" s="73"/>
+      <c r="D807" s="80"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="D808" s="73"/>
+      <c r="D808" s="80"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="D809" s="73"/>
+      <c r="D809" s="80"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="D810" s="73"/>
+      <c r="D810" s="80"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="D811" s="73"/>
+      <c r="D811" s="80"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="D812" s="73"/>
+      <c r="D812" s="80"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="D813" s="73"/>
+      <c r="D813" s="80"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="D814" s="73"/>
+      <c r="D814" s="80"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="D815" s="73"/>
+      <c r="D815" s="80"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="D816" s="73"/>
+      <c r="D816" s="80"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="D817" s="73"/>
+      <c r="D817" s="80"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="D818" s="73"/>
+      <c r="D818" s="80"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="D819" s="73"/>
+      <c r="D819" s="80"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="D820" s="73"/>
+      <c r="D820" s="80"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="D821" s="73"/>
+      <c r="D821" s="80"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="D822" s="73"/>
+      <c r="D822" s="80"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="D823" s="73"/>
+      <c r="D823" s="80"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="D824" s="73"/>
+      <c r="D824" s="80"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="D825" s="73"/>
+      <c r="D825" s="80"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="D826" s="73"/>
+      <c r="D826" s="80"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="D827" s="73"/>
+      <c r="D827" s="80"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="D828" s="73"/>
+      <c r="D828" s="80"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="D829" s="73"/>
+      <c r="D829" s="80"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="D830" s="73"/>
+      <c r="D830" s="80"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="D831" s="73"/>
+      <c r="D831" s="80"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="D832" s="73"/>
+      <c r="D832" s="80"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="D833" s="73"/>
+      <c r="D833" s="80"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="D834" s="73"/>
+      <c r="D834" s="80"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="D835" s="73"/>
+      <c r="D835" s="80"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="D836" s="73"/>
+      <c r="D836" s="80"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="D837" s="73"/>
+      <c r="D837" s="80"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="D838" s="73"/>
+      <c r="D838" s="80"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="D839" s="73"/>
+      <c r="D839" s="80"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="D840" s="73"/>
+      <c r="D840" s="80"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="D841" s="73"/>
+      <c r="D841" s="80"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="D842" s="73"/>
+      <c r="D842" s="80"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="D843" s="73"/>
+      <c r="D843" s="80"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="D844" s="73"/>
+      <c r="D844" s="80"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="D845" s="73"/>
+      <c r="D845" s="80"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="D846" s="73"/>
+      <c r="D846" s="80"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="D847" s="73"/>
+      <c r="D847" s="80"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="D848" s="73"/>
+      <c r="D848" s="80"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="D849" s="73"/>
+      <c r="D849" s="80"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="D850" s="73"/>
+      <c r="D850" s="80"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="D851" s="73"/>
+      <c r="D851" s="80"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="D852" s="73"/>
+      <c r="D852" s="80"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="D853" s="73"/>
+      <c r="D853" s="80"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="D854" s="73"/>
+      <c r="D854" s="80"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="D855" s="73"/>
+      <c r="D855" s="80"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="D856" s="73"/>
+      <c r="D856" s="80"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="D857" s="73"/>
+      <c r="D857" s="80"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="D858" s="73"/>
+      <c r="D858" s="80"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="D859" s="73"/>
+      <c r="D859" s="80"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="D860" s="73"/>
+      <c r="D860" s="80"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="D861" s="73"/>
+      <c r="D861" s="80"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="D862" s="73"/>
+      <c r="D862" s="80"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="D863" s="73"/>
+      <c r="D863" s="80"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="D864" s="73"/>
+      <c r="D864" s="80"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="D865" s="73"/>
+      <c r="D865" s="80"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="D866" s="73"/>
+      <c r="D866" s="80"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="D867" s="73"/>
+      <c r="D867" s="80"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="D868" s="73"/>
+      <c r="D868" s="80"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="D869" s="73"/>
+      <c r="D869" s="80"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="D870" s="73"/>
+      <c r="D870" s="80"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="D871" s="73"/>
+      <c r="D871" s="80"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="D872" s="73"/>
+      <c r="D872" s="80"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="D873" s="73"/>
+      <c r="D873" s="80"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="D874" s="73"/>
+      <c r="D874" s="80"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="D875" s="73"/>
+      <c r="D875" s="80"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="D876" s="73"/>
+      <c r="D876" s="80"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="D877" s="73"/>
+      <c r="D877" s="80"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="D878" s="73"/>
+      <c r="D878" s="80"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="D879" s="73"/>
+      <c r="D879" s="80"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="D880" s="73"/>
+      <c r="D880" s="80"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="D881" s="73"/>
+      <c r="D881" s="80"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="D882" s="73"/>
+      <c r="D882" s="80"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="D883" s="73"/>
+      <c r="D883" s="80"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="D884" s="73"/>
+      <c r="D884" s="80"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="D885" s="73"/>
+      <c r="D885" s="80"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="D886" s="73"/>
+      <c r="D886" s="80"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="D887" s="73"/>
+      <c r="D887" s="80"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="D888" s="73"/>
+      <c r="D888" s="80"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="D889" s="73"/>
+      <c r="D889" s="80"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="D890" s="73"/>
+      <c r="D890" s="80"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="D891" s="73"/>
+      <c r="D891" s="80"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="D892" s="73"/>
+      <c r="D892" s="80"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="D893" s="73"/>
+      <c r="D893" s="80"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="D894" s="73"/>
+      <c r="D894" s="80"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="D895" s="73"/>
+      <c r="D895" s="80"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="D896" s="73"/>
+      <c r="D896" s="80"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="D897" s="73"/>
+      <c r="D897" s="80"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="D898" s="73"/>
+      <c r="D898" s="80"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="D899" s="73"/>
+      <c r="D899" s="80"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="D900" s="73"/>
+      <c r="D900" s="80"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="D901" s="73"/>
+      <c r="D901" s="80"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="D902" s="73"/>
+      <c r="D902" s="80"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="D903" s="73"/>
+      <c r="D903" s="80"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="D904" s="73"/>
+      <c r="D904" s="80"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="D905" s="73"/>
+      <c r="D905" s="80"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="D906" s="73"/>
+      <c r="D906" s="80"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="D907" s="73"/>
+      <c r="D907" s="80"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="D908" s="73"/>
+      <c r="D908" s="80"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="D909" s="73"/>
+      <c r="D909" s="80"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="D910" s="73"/>
+      <c r="D910" s="80"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="D911" s="73"/>
+      <c r="D911" s="80"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="D912" s="73"/>
+      <c r="D912" s="80"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="D913" s="73"/>
+      <c r="D913" s="80"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="D914" s="73"/>
+      <c r="D914" s="80"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="D915" s="73"/>
+      <c r="D915" s="80"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="D916" s="73"/>
+      <c r="D916" s="80"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="D917" s="73"/>
+      <c r="D917" s="80"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="D918" s="73"/>
+      <c r="D918" s="80"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="D919" s="73"/>
+      <c r="D919" s="80"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="D920" s="73"/>
+      <c r="D920" s="80"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="D921" s="73"/>
+      <c r="D921" s="80"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="D922" s="73"/>
+      <c r="D922" s="80"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="D923" s="73"/>
+      <c r="D923" s="80"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="D924" s="73"/>
+      <c r="D924" s="80"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="D925" s="73"/>
+      <c r="D925" s="80"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="D926" s="73"/>
+      <c r="D926" s="80"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="D927" s="73"/>
+      <c r="D927" s="80"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="D928" s="73"/>
+      <c r="D928" s="80"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="D929" s="73"/>
+      <c r="D929" s="80"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="D930" s="73"/>
+      <c r="D930" s="80"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="D931" s="73"/>
+      <c r="D931" s="80"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="D932" s="73"/>
+      <c r="D932" s="80"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="D933" s="73"/>
+      <c r="D933" s="80"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="D934" s="73"/>
+      <c r="D934" s="80"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="D935" s="73"/>
+      <c r="D935" s="80"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="D936" s="73"/>
+      <c r="D936" s="80"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="D937" s="73"/>
+      <c r="D937" s="80"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="D938" s="73"/>
+      <c r="D938" s="80"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="D939" s="73"/>
+      <c r="D939" s="80"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="D940" s="73"/>
+      <c r="D940" s="80"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="D941" s="73"/>
+      <c r="D941" s="80"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="D942" s="73"/>
+      <c r="D942" s="80"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="D943" s="73"/>
+      <c r="D943" s="80"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="D944" s="73"/>
+      <c r="D944" s="80"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="D945" s="73"/>
+      <c r="D945" s="80"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="D946" s="73"/>
+      <c r="D946" s="80"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="D947" s="73"/>
+      <c r="D947" s="80"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="D948" s="73"/>
+      <c r="D948" s="80"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="D949" s="73"/>
+      <c r="D949" s="80"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="D950" s="73"/>
+      <c r="D950" s="80"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="D951" s="73"/>
+      <c r="D951" s="80"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="D952" s="73"/>
+      <c r="D952" s="80"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="D953" s="73"/>
+      <c r="D953" s="80"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="D954" s="73"/>
+      <c r="D954" s="80"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="D955" s="73"/>
+      <c r="D955" s="80"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="D956" s="73"/>
+      <c r="D956" s="80"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="D957" s="73"/>
+      <c r="D957" s="80"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="D958" s="73"/>
+      <c r="D958" s="80"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="D959" s="73"/>
+      <c r="D959" s="80"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="D960" s="73"/>
+      <c r="D960" s="80"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="D961" s="73"/>
+      <c r="D961" s="80"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="D962" s="73"/>
+      <c r="D962" s="80"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="D963" s="73"/>
+      <c r="D963" s="80"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="D964" s="73"/>
+      <c r="D964" s="80"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="D965" s="73"/>
+      <c r="D965" s="80"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="D966" s="73"/>
+      <c r="D966" s="80"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="D967" s="73"/>
+      <c r="D967" s="80"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="D968" s="73"/>
+      <c r="D968" s="80"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="D969" s="73"/>
+      <c r="D969" s="80"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="D970" s="73"/>
+      <c r="D970" s="80"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="D971" s="73"/>
+      <c r="D971" s="80"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="D972" s="73"/>
+      <c r="D972" s="80"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="D973" s="73"/>
+      <c r="D973" s="80"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="D974" s="73"/>
+      <c r="D974" s="80"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="D975" s="73"/>
+      <c r="D975" s="80"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="D976" s="73"/>
+      <c r="D976" s="80"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="D977" s="73"/>
+      <c r="D977" s="80"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="D978" s="73"/>
+      <c r="D978" s="80"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="D979" s="73"/>
+      <c r="D979" s="80"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="D980" s="73"/>
+      <c r="D980" s="80"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="D981" s="73"/>
+      <c r="D981" s="80"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="D982" s="73"/>
+      <c r="D982" s="80"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="D983" s="73"/>
+      <c r="D983" s="80"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="D984" s="73"/>
+      <c r="D984" s="80"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="D985" s="73"/>
+      <c r="D985" s="80"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="D986" s="73"/>
+      <c r="D986" s="80"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="D987" s="73"/>
+      <c r="D987" s="80"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="D988" s="73"/>
+      <c r="D988" s="80"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="D989" s="73"/>
+      <c r="D989" s="80"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="D990" s="73"/>
+      <c r="D990" s="80"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="D991" s="73"/>
+      <c r="D991" s="80"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="D992" s="73"/>
+      <c r="D992" s="80"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="D993" s="73"/>
+      <c r="D993" s="80"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="D994" s="73"/>
+      <c r="D994" s="80"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="D995" s="73"/>
+      <c r="D995" s="80"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="D996" s="73"/>
+      <c r="D996" s="80"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="D997" s="73"/>
+      <c r="D997" s="80"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="D998" s="73"/>
+      <c r="D998" s="80"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="D999" s="73"/>
+      <c r="D999" s="80"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="D1000" s="73"/>
+      <c r="D1000" s="80"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -44933,11 +45079,3310 @@
     <hyperlink r:id="rId51" ref="B51"/>
     <hyperlink r:id="rId52" ref="B52"/>
     <hyperlink r:id="rId53" ref="B53"/>
+    <hyperlink r:id="rId54" ref="B54"/>
+    <hyperlink r:id="rId55" ref="B55"/>
+    <hyperlink r:id="rId56" ref="B56"/>
+    <hyperlink r:id="rId57" ref="B57"/>
+    <hyperlink r:id="rId58" ref="B58"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId54"/>
+  <drawing r:id="rId59"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="9.57"/>
+    <col customWidth="1" min="2" max="2" width="32.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="55">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>468</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="69">
+        <v>45663.0</v>
+      </c>
+      <c r="I2" s="57"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="55">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>469</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="69">
+        <v>45663.0</v>
+      </c>
+      <c r="I3" s="57"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="55">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>470</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="69">
+        <v>45663.0</v>
+      </c>
+      <c r="I4" s="57"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="55">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="55">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="55">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="55">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="55">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="55">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="55">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="55">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="55">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="55">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="55">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="55">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="55">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="55">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="55">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="55">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="55">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="55">
+        <v>21.0</v>
+      </c>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="61"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="61"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="61"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="61"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="61"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="61"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="61"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="61"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="61"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="61"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="61"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="61"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="61"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="61"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="61"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="61"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="61"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="61"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="61"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="61"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="61"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="61"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="61"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="61"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="61"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="61"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="61"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="61"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="61"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="61"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="61"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="61"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="61"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="61"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="61"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="61"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="61"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="61"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="61"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="61"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="61"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="61"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="61"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="61"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="61"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="61"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="61"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="61"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="61"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="61"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="61"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="61"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="61"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="61"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="61"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="61"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="61"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="61"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="61"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="61"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="61"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="61"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="61"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="61"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="61"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="61"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="61"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="61"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="61"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="61"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="61"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="61"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="61"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="61"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="61"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="61"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="61"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="61"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="61"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="61"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="61"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="61"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="61"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="61"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="61"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="61"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="61"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="61"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="61"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="61"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="61"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="61"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="61"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="61"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="61"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="61"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="61"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="61"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="61"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="61"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="61"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="61"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="61"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="61"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="61"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="61"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="61"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="61"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="61"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="61"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="61"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="61"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="61"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="61"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="61"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="61"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="61"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="61"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="61"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="61"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="61"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="61"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="61"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="61"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="61"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="61"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="61"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="61"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="61"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="61"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="61"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="61"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="61"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="61"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="61"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="61"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="61"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="61"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="61"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="61"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="61"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="61"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="61"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="61"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="61"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="61"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="61"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="61"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="61"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="61"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="61"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="61"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="61"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="61"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="61"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="61"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="61"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="61"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="61"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="61"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="61"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="61"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="61"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="61"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="61"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="61"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="61"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="61"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="61"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="61"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="61"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="61"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="61"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="61"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="61"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="61"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="61"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="61"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="61"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="61"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="61"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="61"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="61"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="61"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="61"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="61"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="61"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="61"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="61"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="61"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="61"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="61"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="61"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="61"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="61"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="61"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="61"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="61"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="61"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="61"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="61"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="61"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="61"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="61"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="61"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="61"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="61"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="61"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="61"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="61"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="61"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="61"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="61"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="61"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="61"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="61"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="61"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="61"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="61"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="61"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="61"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="61"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="61"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="61"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="61"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="61"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="61"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="61"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="61"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="61"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="61"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="61"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="61"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="61"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="61"/>
+    </row>
+    <row r="258">
+      <c r="A258" s="61"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="61"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="61"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="61"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="61"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="61"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="61"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="61"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="61"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="61"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="61"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="61"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="61"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="61"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="61"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="61"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="61"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="61"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="61"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="61"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="61"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="61"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="61"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="61"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="61"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="61"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="61"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="61"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="61"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="61"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="61"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="61"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="61"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="61"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="61"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="61"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="61"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="61"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="61"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="61"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="61"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="61"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="61"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="61"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="61"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="61"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="61"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="61"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="61"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="61"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="61"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="61"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="61"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="61"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="61"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="61"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="61"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="61"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="61"/>
+    </row>
+    <row r="317">
+      <c r="A317" s="61"/>
+    </row>
+    <row r="318">
+      <c r="A318" s="61"/>
+    </row>
+    <row r="319">
+      <c r="A319" s="61"/>
+    </row>
+    <row r="320">
+      <c r="A320" s="61"/>
+    </row>
+    <row r="321">
+      <c r="A321" s="61"/>
+    </row>
+    <row r="322">
+      <c r="A322" s="61"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="61"/>
+    </row>
+    <row r="324">
+      <c r="A324" s="61"/>
+    </row>
+    <row r="325">
+      <c r="A325" s="61"/>
+    </row>
+    <row r="326">
+      <c r="A326" s="61"/>
+    </row>
+    <row r="327">
+      <c r="A327" s="61"/>
+    </row>
+    <row r="328">
+      <c r="A328" s="61"/>
+    </row>
+    <row r="329">
+      <c r="A329" s="61"/>
+    </row>
+    <row r="330">
+      <c r="A330" s="61"/>
+    </row>
+    <row r="331">
+      <c r="A331" s="61"/>
+    </row>
+    <row r="332">
+      <c r="A332" s="61"/>
+    </row>
+    <row r="333">
+      <c r="A333" s="61"/>
+    </row>
+    <row r="334">
+      <c r="A334" s="61"/>
+    </row>
+    <row r="335">
+      <c r="A335" s="61"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="61"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="61"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="61"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="61"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="61"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="61"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="61"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="61"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="61"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="61"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="61"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="61"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="61"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="61"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="61"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="61"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="61"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="61"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="61"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="61"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="61"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="61"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="61"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="61"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="61"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="61"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="61"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="61"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="61"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="61"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="61"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="61"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="61"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="61"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="61"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="61"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="61"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="61"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="61"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="61"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="61"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="61"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="61"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="61"/>
+    </row>
+    <row r="380">
+      <c r="A380" s="61"/>
+    </row>
+    <row r="381">
+      <c r="A381" s="61"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="61"/>
+    </row>
+    <row r="383">
+      <c r="A383" s="61"/>
+    </row>
+    <row r="384">
+      <c r="A384" s="61"/>
+    </row>
+    <row r="385">
+      <c r="A385" s="61"/>
+    </row>
+    <row r="386">
+      <c r="A386" s="61"/>
+    </row>
+    <row r="387">
+      <c r="A387" s="61"/>
+    </row>
+    <row r="388">
+      <c r="A388" s="61"/>
+    </row>
+    <row r="389">
+      <c r="A389" s="61"/>
+    </row>
+    <row r="390">
+      <c r="A390" s="61"/>
+    </row>
+    <row r="391">
+      <c r="A391" s="61"/>
+    </row>
+    <row r="392">
+      <c r="A392" s="61"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="61"/>
+    </row>
+    <row r="394">
+      <c r="A394" s="61"/>
+    </row>
+    <row r="395">
+      <c r="A395" s="61"/>
+    </row>
+    <row r="396">
+      <c r="A396" s="61"/>
+    </row>
+    <row r="397">
+      <c r="A397" s="61"/>
+    </row>
+    <row r="398">
+      <c r="A398" s="61"/>
+    </row>
+    <row r="399">
+      <c r="A399" s="61"/>
+    </row>
+    <row r="400">
+      <c r="A400" s="61"/>
+    </row>
+    <row r="401">
+      <c r="A401" s="61"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="61"/>
+    </row>
+    <row r="403">
+      <c r="A403" s="61"/>
+    </row>
+    <row r="404">
+      <c r="A404" s="61"/>
+    </row>
+    <row r="405">
+      <c r="A405" s="61"/>
+    </row>
+    <row r="406">
+      <c r="A406" s="61"/>
+    </row>
+    <row r="407">
+      <c r="A407" s="61"/>
+    </row>
+    <row r="408">
+      <c r="A408" s="61"/>
+    </row>
+    <row r="409">
+      <c r="A409" s="61"/>
+    </row>
+    <row r="410">
+      <c r="A410" s="61"/>
+    </row>
+    <row r="411">
+      <c r="A411" s="61"/>
+    </row>
+    <row r="412">
+      <c r="A412" s="61"/>
+    </row>
+    <row r="413">
+      <c r="A413" s="61"/>
+    </row>
+    <row r="414">
+      <c r="A414" s="61"/>
+    </row>
+    <row r="415">
+      <c r="A415" s="61"/>
+    </row>
+    <row r="416">
+      <c r="A416" s="61"/>
+    </row>
+    <row r="417">
+      <c r="A417" s="61"/>
+    </row>
+    <row r="418">
+      <c r="A418" s="61"/>
+    </row>
+    <row r="419">
+      <c r="A419" s="61"/>
+    </row>
+    <row r="420">
+      <c r="A420" s="61"/>
+    </row>
+    <row r="421">
+      <c r="A421" s="61"/>
+    </row>
+    <row r="422">
+      <c r="A422" s="61"/>
+    </row>
+    <row r="423">
+      <c r="A423" s="61"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="61"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="61"/>
+    </row>
+    <row r="426">
+      <c r="A426" s="61"/>
+    </row>
+    <row r="427">
+      <c r="A427" s="61"/>
+    </row>
+    <row r="428">
+      <c r="A428" s="61"/>
+    </row>
+    <row r="429">
+      <c r="A429" s="61"/>
+    </row>
+    <row r="430">
+      <c r="A430" s="61"/>
+    </row>
+    <row r="431">
+      <c r="A431" s="61"/>
+    </row>
+    <row r="432">
+      <c r="A432" s="61"/>
+    </row>
+    <row r="433">
+      <c r="A433" s="61"/>
+    </row>
+    <row r="434">
+      <c r="A434" s="61"/>
+    </row>
+    <row r="435">
+      <c r="A435" s="61"/>
+    </row>
+    <row r="436">
+      <c r="A436" s="61"/>
+    </row>
+    <row r="437">
+      <c r="A437" s="61"/>
+    </row>
+    <row r="438">
+      <c r="A438" s="61"/>
+    </row>
+    <row r="439">
+      <c r="A439" s="61"/>
+    </row>
+    <row r="440">
+      <c r="A440" s="61"/>
+    </row>
+    <row r="441">
+      <c r="A441" s="61"/>
+    </row>
+    <row r="442">
+      <c r="A442" s="61"/>
+    </row>
+    <row r="443">
+      <c r="A443" s="61"/>
+    </row>
+    <row r="444">
+      <c r="A444" s="61"/>
+    </row>
+    <row r="445">
+      <c r="A445" s="61"/>
+    </row>
+    <row r="446">
+      <c r="A446" s="61"/>
+    </row>
+    <row r="447">
+      <c r="A447" s="61"/>
+    </row>
+    <row r="448">
+      <c r="A448" s="61"/>
+    </row>
+    <row r="449">
+      <c r="A449" s="61"/>
+    </row>
+    <row r="450">
+      <c r="A450" s="61"/>
+    </row>
+    <row r="451">
+      <c r="A451" s="61"/>
+    </row>
+    <row r="452">
+      <c r="A452" s="61"/>
+    </row>
+    <row r="453">
+      <c r="A453" s="61"/>
+    </row>
+    <row r="454">
+      <c r="A454" s="61"/>
+    </row>
+    <row r="455">
+      <c r="A455" s="61"/>
+    </row>
+    <row r="456">
+      <c r="A456" s="61"/>
+    </row>
+    <row r="457">
+      <c r="A457" s="61"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="61"/>
+    </row>
+    <row r="459">
+      <c r="A459" s="61"/>
+    </row>
+    <row r="460">
+      <c r="A460" s="61"/>
+    </row>
+    <row r="461">
+      <c r="A461" s="61"/>
+    </row>
+    <row r="462">
+      <c r="A462" s="61"/>
+    </row>
+    <row r="463">
+      <c r="A463" s="61"/>
+    </row>
+    <row r="464">
+      <c r="A464" s="61"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="61"/>
+    </row>
+    <row r="466">
+      <c r="A466" s="61"/>
+    </row>
+    <row r="467">
+      <c r="A467" s="61"/>
+    </row>
+    <row r="468">
+      <c r="A468" s="61"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="61"/>
+    </row>
+    <row r="470">
+      <c r="A470" s="61"/>
+    </row>
+    <row r="471">
+      <c r="A471" s="61"/>
+    </row>
+    <row r="472">
+      <c r="A472" s="61"/>
+    </row>
+    <row r="473">
+      <c r="A473" s="61"/>
+    </row>
+    <row r="474">
+      <c r="A474" s="61"/>
+    </row>
+    <row r="475">
+      <c r="A475" s="61"/>
+    </row>
+    <row r="476">
+      <c r="A476" s="61"/>
+    </row>
+    <row r="477">
+      <c r="A477" s="61"/>
+    </row>
+    <row r="478">
+      <c r="A478" s="61"/>
+    </row>
+    <row r="479">
+      <c r="A479" s="61"/>
+    </row>
+    <row r="480">
+      <c r="A480" s="61"/>
+    </row>
+    <row r="481">
+      <c r="A481" s="61"/>
+    </row>
+    <row r="482">
+      <c r="A482" s="61"/>
+    </row>
+    <row r="483">
+      <c r="A483" s="61"/>
+    </row>
+    <row r="484">
+      <c r="A484" s="61"/>
+    </row>
+    <row r="485">
+      <c r="A485" s="61"/>
+    </row>
+    <row r="486">
+      <c r="A486" s="61"/>
+    </row>
+    <row r="487">
+      <c r="A487" s="61"/>
+    </row>
+    <row r="488">
+      <c r="A488" s="61"/>
+    </row>
+    <row r="489">
+      <c r="A489" s="61"/>
+    </row>
+    <row r="490">
+      <c r="A490" s="61"/>
+    </row>
+    <row r="491">
+      <c r="A491" s="61"/>
+    </row>
+    <row r="492">
+      <c r="A492" s="61"/>
+    </row>
+    <row r="493">
+      <c r="A493" s="61"/>
+    </row>
+    <row r="494">
+      <c r="A494" s="61"/>
+    </row>
+    <row r="495">
+      <c r="A495" s="61"/>
+    </row>
+    <row r="496">
+      <c r="A496" s="61"/>
+    </row>
+    <row r="497">
+      <c r="A497" s="61"/>
+    </row>
+    <row r="498">
+      <c r="A498" s="61"/>
+    </row>
+    <row r="499">
+      <c r="A499" s="61"/>
+    </row>
+    <row r="500">
+      <c r="A500" s="61"/>
+    </row>
+    <row r="501">
+      <c r="A501" s="61"/>
+    </row>
+    <row r="502">
+      <c r="A502" s="61"/>
+    </row>
+    <row r="503">
+      <c r="A503" s="61"/>
+    </row>
+    <row r="504">
+      <c r="A504" s="61"/>
+    </row>
+    <row r="505">
+      <c r="A505" s="61"/>
+    </row>
+    <row r="506">
+      <c r="A506" s="61"/>
+    </row>
+    <row r="507">
+      <c r="A507" s="61"/>
+    </row>
+    <row r="508">
+      <c r="A508" s="61"/>
+    </row>
+    <row r="509">
+      <c r="A509" s="61"/>
+    </row>
+    <row r="510">
+      <c r="A510" s="61"/>
+    </row>
+    <row r="511">
+      <c r="A511" s="61"/>
+    </row>
+    <row r="512">
+      <c r="A512" s="61"/>
+    </row>
+    <row r="513">
+      <c r="A513" s="61"/>
+    </row>
+    <row r="514">
+      <c r="A514" s="61"/>
+    </row>
+    <row r="515">
+      <c r="A515" s="61"/>
+    </row>
+    <row r="516">
+      <c r="A516" s="61"/>
+    </row>
+    <row r="517">
+      <c r="A517" s="61"/>
+    </row>
+    <row r="518">
+      <c r="A518" s="61"/>
+    </row>
+    <row r="519">
+      <c r="A519" s="61"/>
+    </row>
+    <row r="520">
+      <c r="A520" s="61"/>
+    </row>
+    <row r="521">
+      <c r="A521" s="61"/>
+    </row>
+    <row r="522">
+      <c r="A522" s="61"/>
+    </row>
+    <row r="523">
+      <c r="A523" s="61"/>
+    </row>
+    <row r="524">
+      <c r="A524" s="61"/>
+    </row>
+    <row r="525">
+      <c r="A525" s="61"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="61"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="61"/>
+    </row>
+    <row r="528">
+      <c r="A528" s="61"/>
+    </row>
+    <row r="529">
+      <c r="A529" s="61"/>
+    </row>
+    <row r="530">
+      <c r="A530" s="61"/>
+    </row>
+    <row r="531">
+      <c r="A531" s="61"/>
+    </row>
+    <row r="532">
+      <c r="A532" s="61"/>
+    </row>
+    <row r="533">
+      <c r="A533" s="61"/>
+    </row>
+    <row r="534">
+      <c r="A534" s="61"/>
+    </row>
+    <row r="535">
+      <c r="A535" s="61"/>
+    </row>
+    <row r="536">
+      <c r="A536" s="61"/>
+    </row>
+    <row r="537">
+      <c r="A537" s="61"/>
+    </row>
+    <row r="538">
+      <c r="A538" s="61"/>
+    </row>
+    <row r="539">
+      <c r="A539" s="61"/>
+    </row>
+    <row r="540">
+      <c r="A540" s="61"/>
+    </row>
+    <row r="541">
+      <c r="A541" s="61"/>
+    </row>
+    <row r="542">
+      <c r="A542" s="61"/>
+    </row>
+    <row r="543">
+      <c r="A543" s="61"/>
+    </row>
+    <row r="544">
+      <c r="A544" s="61"/>
+    </row>
+    <row r="545">
+      <c r="A545" s="61"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="61"/>
+    </row>
+    <row r="547">
+      <c r="A547" s="61"/>
+    </row>
+    <row r="548">
+      <c r="A548" s="61"/>
+    </row>
+    <row r="549">
+      <c r="A549" s="61"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="61"/>
+    </row>
+    <row r="551">
+      <c r="A551" s="61"/>
+    </row>
+    <row r="552">
+      <c r="A552" s="61"/>
+    </row>
+    <row r="553">
+      <c r="A553" s="61"/>
+    </row>
+    <row r="554">
+      <c r="A554" s="61"/>
+    </row>
+    <row r="555">
+      <c r="A555" s="61"/>
+    </row>
+    <row r="556">
+      <c r="A556" s="61"/>
+    </row>
+    <row r="557">
+      <c r="A557" s="61"/>
+    </row>
+    <row r="558">
+      <c r="A558" s="61"/>
+    </row>
+    <row r="559">
+      <c r="A559" s="61"/>
+    </row>
+    <row r="560">
+      <c r="A560" s="61"/>
+    </row>
+    <row r="561">
+      <c r="A561" s="61"/>
+    </row>
+    <row r="562">
+      <c r="A562" s="61"/>
+    </row>
+    <row r="563">
+      <c r="A563" s="61"/>
+    </row>
+    <row r="564">
+      <c r="A564" s="61"/>
+    </row>
+    <row r="565">
+      <c r="A565" s="61"/>
+    </row>
+    <row r="566">
+      <c r="A566" s="61"/>
+    </row>
+    <row r="567">
+      <c r="A567" s="61"/>
+    </row>
+    <row r="568">
+      <c r="A568" s="61"/>
+    </row>
+    <row r="569">
+      <c r="A569" s="61"/>
+    </row>
+    <row r="570">
+      <c r="A570" s="61"/>
+    </row>
+    <row r="571">
+      <c r="A571" s="61"/>
+    </row>
+    <row r="572">
+      <c r="A572" s="61"/>
+    </row>
+    <row r="573">
+      <c r="A573" s="61"/>
+    </row>
+    <row r="574">
+      <c r="A574" s="61"/>
+    </row>
+    <row r="575">
+      <c r="A575" s="61"/>
+    </row>
+    <row r="576">
+      <c r="A576" s="61"/>
+    </row>
+    <row r="577">
+      <c r="A577" s="61"/>
+    </row>
+    <row r="578">
+      <c r="A578" s="61"/>
+    </row>
+    <row r="579">
+      <c r="A579" s="61"/>
+    </row>
+    <row r="580">
+      <c r="A580" s="61"/>
+    </row>
+    <row r="581">
+      <c r="A581" s="61"/>
+    </row>
+    <row r="582">
+      <c r="A582" s="61"/>
+    </row>
+    <row r="583">
+      <c r="A583" s="61"/>
+    </row>
+    <row r="584">
+      <c r="A584" s="61"/>
+    </row>
+    <row r="585">
+      <c r="A585" s="61"/>
+    </row>
+    <row r="586">
+      <c r="A586" s="61"/>
+    </row>
+    <row r="587">
+      <c r="A587" s="61"/>
+    </row>
+    <row r="588">
+      <c r="A588" s="61"/>
+    </row>
+    <row r="589">
+      <c r="A589" s="61"/>
+    </row>
+    <row r="590">
+      <c r="A590" s="61"/>
+    </row>
+    <row r="591">
+      <c r="A591" s="61"/>
+    </row>
+    <row r="592">
+      <c r="A592" s="61"/>
+    </row>
+    <row r="593">
+      <c r="A593" s="61"/>
+    </row>
+    <row r="594">
+      <c r="A594" s="61"/>
+    </row>
+    <row r="595">
+      <c r="A595" s="61"/>
+    </row>
+    <row r="596">
+      <c r="A596" s="61"/>
+    </row>
+    <row r="597">
+      <c r="A597" s="61"/>
+    </row>
+    <row r="598">
+      <c r="A598" s="61"/>
+    </row>
+    <row r="599">
+      <c r="A599" s="61"/>
+    </row>
+    <row r="600">
+      <c r="A600" s="61"/>
+    </row>
+    <row r="601">
+      <c r="A601" s="61"/>
+    </row>
+    <row r="602">
+      <c r="A602" s="61"/>
+    </row>
+    <row r="603">
+      <c r="A603" s="61"/>
+    </row>
+    <row r="604">
+      <c r="A604" s="61"/>
+    </row>
+    <row r="605">
+      <c r="A605" s="61"/>
+    </row>
+    <row r="606">
+      <c r="A606" s="61"/>
+    </row>
+    <row r="607">
+      <c r="A607" s="61"/>
+    </row>
+    <row r="608">
+      <c r="A608" s="61"/>
+    </row>
+    <row r="609">
+      <c r="A609" s="61"/>
+    </row>
+    <row r="610">
+      <c r="A610" s="61"/>
+    </row>
+    <row r="611">
+      <c r="A611" s="61"/>
+    </row>
+    <row r="612">
+      <c r="A612" s="61"/>
+    </row>
+    <row r="613">
+      <c r="A613" s="61"/>
+    </row>
+    <row r="614">
+      <c r="A614" s="61"/>
+    </row>
+    <row r="615">
+      <c r="A615" s="61"/>
+    </row>
+    <row r="616">
+      <c r="A616" s="61"/>
+    </row>
+    <row r="617">
+      <c r="A617" s="61"/>
+    </row>
+    <row r="618">
+      <c r="A618" s="61"/>
+    </row>
+    <row r="619">
+      <c r="A619" s="61"/>
+    </row>
+    <row r="620">
+      <c r="A620" s="61"/>
+    </row>
+    <row r="621">
+      <c r="A621" s="61"/>
+    </row>
+    <row r="622">
+      <c r="A622" s="61"/>
+    </row>
+    <row r="623">
+      <c r="A623" s="61"/>
+    </row>
+    <row r="624">
+      <c r="A624" s="61"/>
+    </row>
+    <row r="625">
+      <c r="A625" s="61"/>
+    </row>
+    <row r="626">
+      <c r="A626" s="61"/>
+    </row>
+    <row r="627">
+      <c r="A627" s="61"/>
+    </row>
+    <row r="628">
+      <c r="A628" s="61"/>
+    </row>
+    <row r="629">
+      <c r="A629" s="61"/>
+    </row>
+    <row r="630">
+      <c r="A630" s="61"/>
+    </row>
+    <row r="631">
+      <c r="A631" s="61"/>
+    </row>
+    <row r="632">
+      <c r="A632" s="61"/>
+    </row>
+    <row r="633">
+      <c r="A633" s="61"/>
+    </row>
+    <row r="634">
+      <c r="A634" s="61"/>
+    </row>
+    <row r="635">
+      <c r="A635" s="61"/>
+    </row>
+    <row r="636">
+      <c r="A636" s="61"/>
+    </row>
+    <row r="637">
+      <c r="A637" s="61"/>
+    </row>
+    <row r="638">
+      <c r="A638" s="61"/>
+    </row>
+    <row r="639">
+      <c r="A639" s="61"/>
+    </row>
+    <row r="640">
+      <c r="A640" s="61"/>
+    </row>
+    <row r="641">
+      <c r="A641" s="61"/>
+    </row>
+    <row r="642">
+      <c r="A642" s="61"/>
+    </row>
+    <row r="643">
+      <c r="A643" s="61"/>
+    </row>
+    <row r="644">
+      <c r="A644" s="61"/>
+    </row>
+    <row r="645">
+      <c r="A645" s="61"/>
+    </row>
+    <row r="646">
+      <c r="A646" s="61"/>
+    </row>
+    <row r="647">
+      <c r="A647" s="61"/>
+    </row>
+    <row r="648">
+      <c r="A648" s="61"/>
+    </row>
+    <row r="649">
+      <c r="A649" s="61"/>
+    </row>
+    <row r="650">
+      <c r="A650" s="61"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="61"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="61"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="61"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="61"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="61"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="61"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="61"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="61"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="61"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="61"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="61"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="61"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="61"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="61"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="61"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="61"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="61"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="61"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="61"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="61"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="61"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="61"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="61"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="61"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="61"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="61"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="61"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="61"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="61"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="61"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="61"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="61"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="61"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="61"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="61"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="61"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="61"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="61"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="61"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="61"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="61"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="61"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="61"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="61"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="61"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="61"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="61"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="61"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="61"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="61"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="61"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="61"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="61"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="61"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="61"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="61"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="61"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="61"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="61"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="61"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="61"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="61"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="61"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="61"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="61"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="61"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="61"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="61"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="61"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="61"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="61"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="61"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="61"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="61"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="61"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="61"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="61"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="61"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="61"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="61"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="61"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="61"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="61"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="61"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="61"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="61"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="61"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="61"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="61"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="61"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="61"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="61"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="61"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="61"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="61"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="61"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="61"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="61"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="61"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="61"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="61"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="61"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="61"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="61"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="61"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="61"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="61"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="61"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="61"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="61"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="61"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="61"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="61"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="61"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="61"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="61"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="61"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="61"/>
+    </row>
+    <row r="769">
+      <c r="A769" s="61"/>
+    </row>
+    <row r="770">
+      <c r="A770" s="61"/>
+    </row>
+    <row r="771">
+      <c r="A771" s="61"/>
+    </row>
+    <row r="772">
+      <c r="A772" s="61"/>
+    </row>
+    <row r="773">
+      <c r="A773" s="61"/>
+    </row>
+    <row r="774">
+      <c r="A774" s="61"/>
+    </row>
+    <row r="775">
+      <c r="A775" s="61"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="61"/>
+    </row>
+    <row r="777">
+      <c r="A777" s="61"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="61"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="61"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="61"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="61"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="61"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="61"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="61"/>
+    </row>
+    <row r="785">
+      <c r="A785" s="61"/>
+    </row>
+    <row r="786">
+      <c r="A786" s="61"/>
+    </row>
+    <row r="787">
+      <c r="A787" s="61"/>
+    </row>
+    <row r="788">
+      <c r="A788" s="61"/>
+    </row>
+    <row r="789">
+      <c r="A789" s="61"/>
+    </row>
+    <row r="790">
+      <c r="A790" s="61"/>
+    </row>
+    <row r="791">
+      <c r="A791" s="61"/>
+    </row>
+    <row r="792">
+      <c r="A792" s="61"/>
+    </row>
+    <row r="793">
+      <c r="A793" s="61"/>
+    </row>
+    <row r="794">
+      <c r="A794" s="61"/>
+    </row>
+    <row r="795">
+      <c r="A795" s="61"/>
+    </row>
+    <row r="796">
+      <c r="A796" s="61"/>
+    </row>
+    <row r="797">
+      <c r="A797" s="61"/>
+    </row>
+    <row r="798">
+      <c r="A798" s="61"/>
+    </row>
+    <row r="799">
+      <c r="A799" s="61"/>
+    </row>
+    <row r="800">
+      <c r="A800" s="61"/>
+    </row>
+    <row r="801">
+      <c r="A801" s="61"/>
+    </row>
+    <row r="802">
+      <c r="A802" s="61"/>
+    </row>
+    <row r="803">
+      <c r="A803" s="61"/>
+    </row>
+    <row r="804">
+      <c r="A804" s="61"/>
+    </row>
+    <row r="805">
+      <c r="A805" s="61"/>
+    </row>
+    <row r="806">
+      <c r="A806" s="61"/>
+    </row>
+    <row r="807">
+      <c r="A807" s="61"/>
+    </row>
+    <row r="808">
+      <c r="A808" s="61"/>
+    </row>
+    <row r="809">
+      <c r="A809" s="61"/>
+    </row>
+    <row r="810">
+      <c r="A810" s="61"/>
+    </row>
+    <row r="811">
+      <c r="A811" s="61"/>
+    </row>
+    <row r="812">
+      <c r="A812" s="61"/>
+    </row>
+    <row r="813">
+      <c r="A813" s="61"/>
+    </row>
+    <row r="814">
+      <c r="A814" s="61"/>
+    </row>
+    <row r="815">
+      <c r="A815" s="61"/>
+    </row>
+    <row r="816">
+      <c r="A816" s="61"/>
+    </row>
+    <row r="817">
+      <c r="A817" s="61"/>
+    </row>
+    <row r="818">
+      <c r="A818" s="61"/>
+    </row>
+    <row r="819">
+      <c r="A819" s="61"/>
+    </row>
+    <row r="820">
+      <c r="A820" s="61"/>
+    </row>
+    <row r="821">
+      <c r="A821" s="61"/>
+    </row>
+    <row r="822">
+      <c r="A822" s="61"/>
+    </row>
+    <row r="823">
+      <c r="A823" s="61"/>
+    </row>
+    <row r="824">
+      <c r="A824" s="61"/>
+    </row>
+    <row r="825">
+      <c r="A825" s="61"/>
+    </row>
+    <row r="826">
+      <c r="A826" s="61"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="61"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="61"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="61"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="61"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="61"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="61"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="61"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="61"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="61"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="61"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="61"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="61"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="61"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="61"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="61"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="61"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="61"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="61"/>
+    </row>
+    <row r="845">
+      <c r="A845" s="61"/>
+    </row>
+    <row r="846">
+      <c r="A846" s="61"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="61"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="61"/>
+    </row>
+    <row r="849">
+      <c r="A849" s="61"/>
+    </row>
+    <row r="850">
+      <c r="A850" s="61"/>
+    </row>
+    <row r="851">
+      <c r="A851" s="61"/>
+    </row>
+    <row r="852">
+      <c r="A852" s="61"/>
+    </row>
+    <row r="853">
+      <c r="A853" s="61"/>
+    </row>
+    <row r="854">
+      <c r="A854" s="61"/>
+    </row>
+    <row r="855">
+      <c r="A855" s="61"/>
+    </row>
+    <row r="856">
+      <c r="A856" s="61"/>
+    </row>
+    <row r="857">
+      <c r="A857" s="61"/>
+    </row>
+    <row r="858">
+      <c r="A858" s="61"/>
+    </row>
+    <row r="859">
+      <c r="A859" s="61"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="61"/>
+    </row>
+    <row r="861">
+      <c r="A861" s="61"/>
+    </row>
+    <row r="862">
+      <c r="A862" s="61"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="61"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="61"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="61"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="61"/>
+    </row>
+    <row r="867">
+      <c r="A867" s="61"/>
+    </row>
+    <row r="868">
+      <c r="A868" s="61"/>
+    </row>
+    <row r="869">
+      <c r="A869" s="61"/>
+    </row>
+    <row r="870">
+      <c r="A870" s="61"/>
+    </row>
+    <row r="871">
+      <c r="A871" s="61"/>
+    </row>
+    <row r="872">
+      <c r="A872" s="61"/>
+    </row>
+    <row r="873">
+      <c r="A873" s="61"/>
+    </row>
+    <row r="874">
+      <c r="A874" s="61"/>
+    </row>
+    <row r="875">
+      <c r="A875" s="61"/>
+    </row>
+    <row r="876">
+      <c r="A876" s="61"/>
+    </row>
+    <row r="877">
+      <c r="A877" s="61"/>
+    </row>
+    <row r="878">
+      <c r="A878" s="61"/>
+    </row>
+    <row r="879">
+      <c r="A879" s="61"/>
+    </row>
+    <row r="880">
+      <c r="A880" s="61"/>
+    </row>
+    <row r="881">
+      <c r="A881" s="61"/>
+    </row>
+    <row r="882">
+      <c r="A882" s="61"/>
+    </row>
+    <row r="883">
+      <c r="A883" s="61"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="61"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="61"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="61"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="61"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="61"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="61"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="61"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="61"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="61"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="61"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="61"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="61"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="61"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="61"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="61"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="61"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="61"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="61"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="61"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="61"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="61"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="61"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="61"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="61"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="61"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="61"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="61"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="61"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="61"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="61"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="61"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="61"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="61"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="61"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="61"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="61"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="61"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="61"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="61"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="61"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="61"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="61"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="61"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="61"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="61"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="61"/>
+    </row>
+    <row r="930">
+      <c r="A930" s="61"/>
+    </row>
+    <row r="931">
+      <c r="A931" s="61"/>
+    </row>
+    <row r="932">
+      <c r="A932" s="61"/>
+    </row>
+    <row r="933">
+      <c r="A933" s="61"/>
+    </row>
+    <row r="934">
+      <c r="A934" s="61"/>
+    </row>
+    <row r="935">
+      <c r="A935" s="61"/>
+    </row>
+    <row r="936">
+      <c r="A936" s="61"/>
+    </row>
+    <row r="937">
+      <c r="A937" s="61"/>
+    </row>
+    <row r="938">
+      <c r="A938" s="61"/>
+    </row>
+    <row r="939">
+      <c r="A939" s="61"/>
+    </row>
+    <row r="940">
+      <c r="A940" s="61"/>
+    </row>
+    <row r="941">
+      <c r="A941" s="61"/>
+    </row>
+    <row r="942">
+      <c r="A942" s="61"/>
+    </row>
+    <row r="943">
+      <c r="A943" s="61"/>
+    </row>
+    <row r="944">
+      <c r="A944" s="61"/>
+    </row>
+    <row r="945">
+      <c r="A945" s="61"/>
+    </row>
+    <row r="946">
+      <c r="A946" s="61"/>
+    </row>
+    <row r="947">
+      <c r="A947" s="61"/>
+    </row>
+    <row r="948">
+      <c r="A948" s="61"/>
+    </row>
+    <row r="949">
+      <c r="A949" s="61"/>
+    </row>
+    <row r="950">
+      <c r="A950" s="61"/>
+    </row>
+    <row r="951">
+      <c r="A951" s="61"/>
+    </row>
+    <row r="952">
+      <c r="A952" s="61"/>
+    </row>
+    <row r="953">
+      <c r="A953" s="61"/>
+    </row>
+    <row r="954">
+      <c r="A954" s="61"/>
+    </row>
+    <row r="955">
+      <c r="A955" s="61"/>
+    </row>
+    <row r="956">
+      <c r="A956" s="61"/>
+    </row>
+    <row r="957">
+      <c r="A957" s="61"/>
+    </row>
+    <row r="958">
+      <c r="A958" s="61"/>
+    </row>
+    <row r="959">
+      <c r="A959" s="61"/>
+    </row>
+    <row r="960">
+      <c r="A960" s="61"/>
+    </row>
+    <row r="961">
+      <c r="A961" s="61"/>
+    </row>
+    <row r="962">
+      <c r="A962" s="61"/>
+    </row>
+    <row r="963">
+      <c r="A963" s="61"/>
+    </row>
+    <row r="964">
+      <c r="A964" s="61"/>
+    </row>
+    <row r="965">
+      <c r="A965" s="61"/>
+    </row>
+    <row r="966">
+      <c r="A966" s="61"/>
+    </row>
+    <row r="967">
+      <c r="A967" s="61"/>
+    </row>
+    <row r="968">
+      <c r="A968" s="61"/>
+    </row>
+    <row r="969">
+      <c r="A969" s="61"/>
+    </row>
+    <row r="970">
+      <c r="A970" s="61"/>
+    </row>
+    <row r="971">
+      <c r="A971" s="61"/>
+    </row>
+    <row r="972">
+      <c r="A972" s="61"/>
+    </row>
+    <row r="973">
+      <c r="A973" s="61"/>
+    </row>
+    <row r="974">
+      <c r="A974" s="61"/>
+    </row>
+    <row r="975">
+      <c r="A975" s="61"/>
+    </row>
+    <row r="976">
+      <c r="A976" s="61"/>
+    </row>
+    <row r="977">
+      <c r="A977" s="61"/>
+    </row>
+    <row r="978">
+      <c r="A978" s="61"/>
+    </row>
+    <row r="979">
+      <c r="A979" s="61"/>
+    </row>
+    <row r="980">
+      <c r="A980" s="61"/>
+    </row>
+    <row r="981">
+      <c r="A981" s="61"/>
+    </row>
+    <row r="982">
+      <c r="A982" s="61"/>
+    </row>
+    <row r="983">
+      <c r="A983" s="61"/>
+    </row>
+    <row r="984">
+      <c r="A984" s="61"/>
+    </row>
+    <row r="985">
+      <c r="A985" s="61"/>
+    </row>
+    <row r="986">
+      <c r="A986" s="61"/>
+    </row>
+    <row r="987">
+      <c r="A987" s="61"/>
+    </row>
+    <row r="988">
+      <c r="A988" s="61"/>
+    </row>
+    <row r="989">
+      <c r="A989" s="61"/>
+    </row>
+    <row r="990">
+      <c r="A990" s="61"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="61"/>
+    </row>
+    <row r="992">
+      <c r="A992" s="61"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="61"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="61"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="61"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="61"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="61"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="61"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="61"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="61"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="B4"/>
+  </hyperlinks>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 
